--- a/SLR-ExtracaoDados.xlsx
+++ b/SLR-ExtracaoDados.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="17900"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="2" r:id="rId1"/>

--- a/SLR-ExtracaoDados.xlsx
+++ b/SLR-ExtracaoDados.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="17900"/>
+    <workbookView xWindow="5560" yWindow="-14980" windowWidth="25600" windowHeight="14320"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="2" r:id="rId1"/>
@@ -578,7 +578,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1954" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1954" uniqueCount="461">
   <si>
     <t>Name</t>
   </si>
@@ -2190,6 +2190,21 @@
   </si>
   <si>
     <t xml:space="preserve"> Euromicro Conference, 2001. Proceedings. 27th , vol., no., pp.233-239, 2001</t>
+  </si>
+  <si>
+    <t>"concentrates on practical questions and challenges facing the small companies." (p2 e p4)</t>
+  </si>
+  <si>
+    <t>XP+FDD+SCRUM</t>
+  </si>
+  <si>
+    <t>"the purpose of this paper is centred in suggesting a framework where we could obtain mutual benefits for using together maturity models and agile methods, taking advantage of the strengths of both contexts to apply them in COTS selection process specifying what we can do (with CMM) and how we can do it (with the best practices of agile methods) to obtain a successful COTS selection, and so providing coverage over main lessons learned reported from COTS projects. (p2)"</t>
+  </si>
+  <si>
+    <t>"These agile values can influence positively the COTS selection processes, and they can provide foundation to suggest agile practices to improve the agility in the COTS selection process.(p3)"</t>
+  </si>
+  <si>
+    <t>"On the other hand, in COTS discipline there are some important aspects that could be supported by agile methods, among others: the need for flexibility in user requirements definition [2, 4, 5, 8]; sharing knowledge between different kinds of disciplines that must work together in selection [3 - 6]; considering that human factors in COTS selection processes can help to improve project management, collaboration between stakeholders, and technical excellence [27, 11]. (p06)"</t>
   </si>
 </sst>
 </file>
@@ -3552,11 +3567,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="J6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane xSplit="5" ySplit="5" topLeftCell="AE16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomRight" activeCell="AJ14" sqref="AJ14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4783,13 +4798,13 @@
         <v>254</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>77</v>
+        <v>458</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>78</v>
+        <v>456</v>
       </c>
       <c r="K14" s="20" t="s">
-        <v>54</v>
+        <v>344</v>
       </c>
       <c r="L14" s="14" t="s">
         <v>53</v>
@@ -4832,7 +4847,7 @@
       </c>
       <c r="Y14" s="14"/>
       <c r="Z14" s="14" t="s">
-        <v>84</v>
+        <v>457</v>
       </c>
       <c r="AA14" s="14" t="s">
         <v>85</v>
@@ -4854,13 +4869,13 @@
         <v>63</v>
       </c>
       <c r="AH14" s="14" t="s">
-        <v>86</v>
+        <v>459</v>
       </c>
       <c r="AI14" s="14" t="s">
         <v>87</v>
       </c>
       <c r="AJ14" s="15" t="s">
-        <v>82</v>
+        <v>460</v>
       </c>
     </row>
     <row r="15" spans="1:37" ht="75">
@@ -7037,7 +7052,7 @@
       </c>
     </row>
     <row r="38" spans="1:36" ht="45">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="54" t="s">
         <v>126</v>
       </c>
       <c r="B38" s="53">
@@ -7109,7 +7124,7 @@
       </c>
     </row>
     <row r="39" spans="1:36" ht="60">
-      <c r="A39" s="32" t="s">
+      <c r="A39" s="54" t="s">
         <v>127</v>
       </c>
       <c r="B39" s="53">
@@ -7911,7 +7926,7 @@
       </c>
     </row>
     <row r="47" spans="1:36" ht="30">
-      <c r="A47" s="32" t="s">
+      <c r="A47" s="54" t="s">
         <v>135</v>
       </c>
       <c r="B47" s="53">
@@ -8162,7 +8177,7 @@
       </c>
     </row>
     <row r="50" spans="1:36" ht="31" customHeight="1">
-      <c r="A50" s="32" t="s">
+      <c r="A50" s="54" t="s">
         <v>272</v>
       </c>
       <c r="B50" s="53">
@@ -8255,7 +8270,7 @@
       </c>
     </row>
     <row r="51" spans="1:36" ht="90">
-      <c r="A51" s="32" t="s">
+      <c r="A51" s="54" t="s">
         <v>273</v>
       </c>
       <c r="B51" s="53">
@@ -8751,7 +8766,7 @@
     <row r="58" spans="1:36">
       <c r="H58" s="58">
         <f ca="1">TODAY()</f>
-        <v>42452</v>
+        <v>42458</v>
       </c>
     </row>
     <row r="59" spans="1:36">
@@ -8762,11 +8777,11 @@
     <row r="60" spans="1:36">
       <c r="H60">
         <f ca="1">H59-H58</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I60" s="18">
         <f ca="1">H60*8</f>
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -8821,10 +8836,15 @@
     <hyperlink ref="A54" r:id="rId45"/>
     <hyperlink ref="A55" r:id="rId46"/>
     <hyperlink ref="A5" r:id="rId47"/>
+    <hyperlink ref="A50" r:id="rId48"/>
+    <hyperlink ref="A51" r:id="rId49"/>
+    <hyperlink ref="A47" r:id="rId50"/>
+    <hyperlink ref="A39" r:id="rId51"/>
+    <hyperlink ref="A38" r:id="rId52"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" scale="26" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
-  <legacyDrawing r:id="rId48"/>
+  <legacyDrawing r:id="rId53"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/SLR-ExtracaoDados.xlsx
+++ b/SLR-ExtracaoDados.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5560" yWindow="-14980" windowWidth="25600" windowHeight="14320"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14380"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="2" r:id="rId1"/>
@@ -578,7 +578,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1954" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1953" uniqueCount="486">
   <si>
     <t>Name</t>
   </si>
@@ -2195,9 +2195,6 @@
     <t>"concentrates on practical questions and challenges facing the small companies." (p2 e p4)</t>
   </si>
   <si>
-    <t>XP+FDD+SCRUM</t>
-  </si>
-  <si>
     <t>"the purpose of this paper is centred in suggesting a framework where we could obtain mutual benefits for using together maturity models and agile methods, taking advantage of the strengths of both contexts to apply them in COTS selection process specifying what we can do (with CMM) and how we can do it (with the best practices of agile methods) to obtain a successful COTS selection, and so providing coverage over main lessons learned reported from COTS projects. (p2)"</t>
   </si>
   <si>
@@ -2205,6 +2202,130 @@
   </si>
   <si>
     <t>"On the other hand, in COTS discipline there are some important aspects that could be supported by agile methods, among others: the need for flexibility in user requirements definition [2, 4, 5, 8]; sharing knowledge between different kinds of disciplines that must work together in selection [3 - 6]; considering that human factors in COTS selection processes can help to improve project management, collaboration between stakeholders, and technical excellence [27, 11]. (p06)"</t>
+  </si>
+  <si>
+    <t>"Metaphor (XP);
+Product Backlog (SCRUM); 
+Domain Object Modeling (FDD); 
+Planning game (XP);
+Pre-game planning and staging (SCRUM); 
+Staging (Crystal); 
+Small releases (XP)
+Pair Programming (XP);
+Collective Ownership (XP);
+Monitoring (SCRUM);
+Revision and Control (Crystal);
+Inspections (FDD) 
+Sprint Review Meeting (SCRUM);
+Feature teams (FDD); 
+Planning game (XP)
+Effort estimation (SCRUM); 
+Developing by feature (FDD);
+Testing (XP)
+On-site Customer (XP)
+Methodology tuning technique (Crystal);
+ Progress reporting (FDD)" (p08)</t>
+  </si>
+  <si>
+    <t>REQM; PP; PMC; SAM; MA; PPQA (p8)</t>
+  </si>
+  <si>
+    <t>XP+FDD+SCRUM+Crystal</t>
+  </si>
+  <si>
+    <t>"This study analyzes the influence of agile and CMMI contexts over COTS selection processes, which have generated controversy inside the software engineering community, with the purpose of suggesting an agreement point of reconciliation and balance among the necessary discipline required to develop a selection process, and the agility that we are able to provide to develop a COTS project. For this reason, we seek to take advantage of the discipline proposed in CMMI, and the agility of the best agile practices, to identify a point of balance that define the number of people involved in the COTS selection process development and the system criticality that should be having into account at the moment to carry out a COTS project. (p10)"</t>
+  </si>
+  <si>
+    <t>"[...] −There is a need for flexibility in defining requirements, because requirements
+engineering and COTS selection must be performed together [2 - 6].
+− In selection processes, it is necessary to involve the system users and to
+work together with them to understand and comprehend their real needs [3 - 7].
+− There is often little time available for COTS software selection, because it
+is required to operate in a commercial manner and a change in policy or in
+business processes may be requested at any time [3, 8].
+− Understanding the marketplace is vital in COTS selection, because there is a
+need for continuous technology watch to keep up with vendors [2, 3, 9].
+− Better techniques are needed for recording and managing information during
+COTS selection processes [5, 6, 7, 9]. (p1)"</t>
+  </si>
+  <si>
+    <t>Ethnografy</t>
+  </si>
+  <si>
+    <t>CMMi Level 1 ad-hoc</t>
+  </si>
+  <si>
+    <t>REQM; PP; PMC; SQA;</t>
+  </si>
+  <si>
+    <t>"[...] One thing to be stressed is that the conclusion derived may only be specialized to the studied organization. To apply the conclusion to other organizations, a further study must be conducted. Thus, ethnography and ethnographic analysis sometimes can be a previous study followed by other studies. (p853)"</t>
+  </si>
+  <si>
+    <t>"based on the agile manifesto in [1], a process model belongs to agile development methods may fit with the process inside the studied organization. (p853)"</t>
+  </si>
+  <si>
+    <t>" To move to maturity level 2, the organization must apply five CMM KPAs. The definition of each KPA is somehow too complex to be interpreted by the members of My-Software organization. (p854)"</t>
+  </si>
+  <si>
+    <t>"1. User stories
+2. On-site customer
+3. Release planning 
+4. Small releases
+5. Iteration planning
+6. Collective ownership 
+7. Continuous integration 
+8. Pair programming (p853, 854 and 855)"</t>
+  </si>
+  <si>
+    <t>"[...] In this research, how the process model applied in small scale software organization is studied. Then, a proposed SPI model is introduced and the application of the model is tailored to the specific context, thus, will derive benefits to the small software organization. (p852)"</t>
+  </si>
+  <si>
+    <t>interviews, memos, documentations from the organization, and many records of meetings</t>
+  </si>
+  <si>
+    <t>8 developers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">three years of business experience </t>
+  </si>
+  <si>
+    <t>"[...]to meet this KPA, we need additional mechanism outside the key practices of XP process model because there are no explicit core practices of XP that match with this KPA. (p855)"
+"[...] As a result of the study, a recommendation is proposed to help the small software organization. (p853)"</t>
+  </si>
+  <si>
+    <t>small scale software organizations</t>
+  </si>
+  <si>
+    <t>"(...) This paper provides an analysis of the effect of introducing Agile practices into a CMMI Level 5 company. (p1)"</t>
+  </si>
+  <si>
+    <t>Lean Software Dev + Scrum</t>
+  </si>
+  <si>
+    <t>"Lean has demonstrated notable results for many years in domains such as auto manufacturing, and has been adapted to other domains, including product and software development. (p5)"</t>
+  </si>
+  <si>
+    <t>Fundamental problems inherent in software development influenced the introduction of Scrum:
+* Uncertainty is inherent and inevitable in software development processes and products - 
+Ziv’s Uncertainty Principle [7]
+* For a new software system the requirements will not be completely known until after the 
+users have used it - Humphrey’s Requirements Uncertainty Principle [8] • It is not 
+possible to completely specify an interactive system – Wegner’s Lemma [9]
+* Ambiguous and changing requirements, combined with evolving tools and technologies make 
+implementation strategies unpredictable.</t>
+  </si>
+  <si>
+    <t>CMMi Level 3 and 4</t>
+  </si>
+  <si>
+    <t>"We believe that bad implementations are one of the main reasons for the existence of many negative criticisms of CMM. Such implementations are often characterized as in the table below, whereas many good CMM implementations address most of the criticism. (p4)"</t>
+  </si>
+  <si>
+    <t>healthcare business (p4)</t>
+  </si>
+  <si>
+    <t>"For Agile companies the article has presented how Generic Practices can be used to institutionalize agile practices and we presented Lean Software Development [19] as an operational tool to identify improvement opportunities in a CMMI 5 company. (p8)"
+"Our recommendation to the Agile community is to use the CMMI generic practices from CMMI Level 3 to amplify the benefits from Agile methods. Our recommendation to the CMMI community is to fit Agile methods into your CMMI framework. (p9)"</t>
   </si>
 </sst>
 </file>
@@ -2215,7 +2336,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="d/m/yy;@"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2327,6 +2448,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -2402,7 +2529,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2425,8 +2552,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="339">
+  <cellStyleXfs count="343">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2766,8 +2904,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2922,6 +3064,12 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="316" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="315" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2932,7 +3080,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="339">
+  <cellStyles count="343">
     <cellStyle name="Comma" xfId="315" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -3147,6 +3295,10 @@
     <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="337" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="339" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="341" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -3567,11 +3719,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="AE16" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="5" ySplit="5" topLeftCell="AD16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AJ14" sqref="AJ14"/>
+      <selection pane="bottomRight" activeCell="AE16" sqref="AE16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3597,9 +3749,11 @@
     <col min="19" max="22" width="11.33203125" customWidth="1"/>
     <col min="23" max="23" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="18.33203125" customWidth="1"/>
-    <col min="25" max="25" width="19.1640625" customWidth="1"/>
+    <col min="25" max="25" width="19.1640625" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="14.83203125" customWidth="1"/>
-    <col min="27" max="29" width="13.33203125" customWidth="1"/>
+    <col min="27" max="27" width="13.33203125" customWidth="1"/>
+    <col min="28" max="28" width="13.33203125" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="13.33203125" customWidth="1"/>
     <col min="30" max="30" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="10.6640625" customWidth="1"/>
@@ -3611,14 +3765,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="28">
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
       <c r="K1" s="22" t="s">
         <v>36</v>
       </c>
@@ -4798,7 +4952,7 @@
         <v>254</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J14" s="15" t="s">
         <v>456</v>
@@ -4847,20 +5001,20 @@
       </c>
       <c r="Y14" s="14"/>
       <c r="Z14" s="14" t="s">
-        <v>457</v>
-      </c>
-      <c r="AA14" s="14" t="s">
-        <v>85</v>
+        <v>462</v>
+      </c>
+      <c r="AA14" s="15" t="s">
+        <v>460</v>
       </c>
       <c r="AB14" s="14"/>
       <c r="AC14" s="14" t="s">
         <v>59</v>
       </c>
       <c r="AD14" s="14" t="s">
-        <v>83</v>
+        <v>461</v>
       </c>
       <c r="AE14" s="14" t="s">
-        <v>92</v>
+        <v>463</v>
       </c>
       <c r="AF14" s="14" t="s">
         <v>55</v>
@@ -4869,16 +5023,16 @@
         <v>63</v>
       </c>
       <c r="AH14" s="14" t="s">
+        <v>458</v>
+      </c>
+      <c r="AI14" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="AJ14" s="15" t="s">
         <v>459</v>
       </c>
-      <c r="AI14" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ14" s="15" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="15" spans="1:37" ht="75">
+    </row>
+    <row r="15" spans="1:37" ht="45">
       <c r="A15" s="54" t="s">
         <v>103</v>
       </c>
@@ -4886,7 +5040,7 @@
         <f t="shared" si="0"/>
         <v>2012</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="63" t="s">
         <v>228</v>
       </c>
       <c r="D15" s="45" t="s">
@@ -4904,8 +5058,8 @@
       <c r="H15" s="45" t="s">
         <v>285</v>
       </c>
-      <c r="I15" s="11" t="s">
-        <v>312</v>
+      <c r="I15" s="62" t="s">
+        <v>472</v>
       </c>
       <c r="J15" s="18" t="s">
         <v>53</v>
@@ -4914,10 +5068,10 @@
         <v>54</v>
       </c>
       <c r="L15" s="55" t="s">
-        <v>313</v>
-      </c>
-      <c r="M15" t="s">
-        <v>65</v>
+        <v>465</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>79</v>
       </c>
       <c r="N15" s="55" t="s">
         <v>55</v>
@@ -4925,59 +5079,56 @@
       <c r="O15" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="P15" s="55" t="s">
-        <v>314</v>
+      <c r="P15" s="56" t="s">
+        <v>473</v>
       </c>
       <c r="Q15" s="55" t="s">
         <v>90</v>
       </c>
       <c r="R15" s="20" t="s">
-        <v>316</v>
-      </c>
-      <c r="S15" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="T15" s="55" t="s">
-        <v>315</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="S15" s="55"/>
+      <c r="T15" s="55"/>
       <c r="U15" s="55" t="s">
-        <v>317</v>
+        <v>475</v>
       </c>
       <c r="V15" s="55" t="s">
-        <v>318</v>
-      </c>
-      <c r="W15" s="56" t="s">
-        <v>319</v>
+        <v>370</v>
+      </c>
+      <c r="W15" s="55" t="s">
+        <v>477</v>
+      </c>
+      <c r="X15" s="55" t="s">
+        <v>55</v>
       </c>
       <c r="Z15" s="55" t="s">
-        <v>88</v>
+        <v>333</v>
       </c>
       <c r="AA15" s="56" t="s">
-        <v>320</v>
+        <v>471</v>
       </c>
       <c r="AC15" t="s">
-        <v>321</v>
+        <v>466</v>
       </c>
       <c r="AD15" t="s">
-        <v>322</v>
+        <v>467</v>
       </c>
       <c r="AE15" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="AF15" s="11" t="s">
-        <v>55</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="AF15" s="11"/>
       <c r="AG15" s="11" t="s">
-        <v>324</v>
+        <v>63</v>
       </c>
       <c r="AH15" s="11" t="s">
-        <v>326</v>
+        <v>469</v>
       </c>
       <c r="AI15" s="11" t="s">
-        <v>325</v>
+        <v>468</v>
       </c>
       <c r="AJ15" s="11" t="s">
-        <v>327</v>
+        <v>470</v>
       </c>
     </row>
     <row r="16" spans="1:37" ht="45">
@@ -5007,7 +5158,7 @@
         <v>245</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>328</v>
+        <v>478</v>
       </c>
       <c r="J16" s="20" t="s">
         <v>53</v>
@@ -5018,7 +5169,9 @@
       <c r="L16" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="M16" s="14"/>
+      <c r="M16" s="14" t="s">
+        <v>79</v>
+      </c>
       <c r="N16" s="14" t="s">
         <v>55</v>
       </c>
@@ -5037,23 +5190,20 @@
         <v>318</v>
       </c>
       <c r="W16" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="X16" s="14"/>
+        <v>484</v>
+      </c>
       <c r="Y16" s="14"/>
       <c r="Z16" s="14" t="s">
-        <v>333</v>
+        <v>479</v>
       </c>
       <c r="AA16" s="14"/>
       <c r="AB16" s="14"/>
       <c r="AC16" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD16" s="14" t="s">
-        <v>332</v>
-      </c>
-      <c r="AE16" s="14" t="s">
-        <v>329</v>
+        <v>482</v>
+      </c>
+      <c r="AD16" s="14"/>
+      <c r="AE16" s="15" t="s">
+        <v>485</v>
       </c>
       <c r="AF16" s="14" t="s">
         <v>55</v>
@@ -5062,11 +5212,13 @@
         <v>324</v>
       </c>
       <c r="AH16" s="16" t="s">
-        <v>330</v>
-      </c>
-      <c r="AI16" s="15"/>
+        <v>480</v>
+      </c>
+      <c r="AI16" s="15" t="s">
+        <v>481</v>
+      </c>
       <c r="AJ16" s="15" t="s">
-        <v>331</v>
+        <v>483</v>
       </c>
     </row>
     <row r="17" spans="1:36" ht="60">
@@ -8766,7 +8918,7 @@
     <row r="58" spans="1:36">
       <c r="H58" s="58">
         <f ca="1">TODAY()</f>
-        <v>42458</v>
+        <v>42470</v>
       </c>
     </row>
     <row r="59" spans="1:36">
@@ -8777,17 +8929,18 @@
     <row r="60" spans="1:36">
       <c r="H60">
         <f ca="1">H59-H58</f>
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="I60" s="18">
         <f ca="1">H60*8</f>
-        <v>16</v>
+        <v>-80</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:H1"/>
   </mergeCells>
+  <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1"/>
     <hyperlink ref="A6" r:id="rId2"/>
@@ -9004,16 +9157,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="28" customHeight="1">
-      <c r="K1" s="63" t="s">
+      <c r="K1" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="Q1" s="64" t="s">
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="Q1" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
       <c r="AE1" s="38" t="s">
         <v>40</v>
       </c>

--- a/SLR-ExtracaoDados.xlsx
+++ b/SLR-ExtracaoDados.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14380"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14440"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="2" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Study-Author" sheetId="3" r:id="rId3"/>
     <sheet name="engenhos-consolidados" sheetId="6" r:id="rId4"/>
     <sheet name="analytics" sheetId="8" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId6"/>
+    <sheet name="checklist" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'engenhos-consolidados'!$A$2:$AJ$54</definedName>
@@ -578,7 +578,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1953" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2366" uniqueCount="525">
   <si>
     <t>Name</t>
   </si>
@@ -1866,15 +1866,6 @@
   </si>
   <si>
     <t>SCRUM</t>
-  </si>
-  <si>
-    <t>Effort</t>
-  </si>
-  <si>
-    <t>CY</t>
-  </si>
-  <si>
-    <t>schedule</t>
   </si>
   <si>
     <t>x</t>
@@ -2321,19 +2312,160 @@
     <t>"We believe that bad implementations are one of the main reasons for the existence of many negative criticisms of CMM. Such implementations are often characterized as in the table below, whereas many good CMM implementations address most of the criticism. (p4)"</t>
   </si>
   <si>
-    <t>healthcare business (p4)</t>
-  </si>
-  <si>
     <t>"For Agile companies the article has presented how Generic Practices can be used to institutionalize agile practices and we presented Lean Software Development [19] as an operational tool to identify improvement opportunities in a CMMI 5 company. (p8)"
 "Our recommendation to the Agile community is to use the CMMI generic practices from CMMI Level 3 to amplify the benefits from Agile methods. Our recommendation to the CMMI community is to fit Agile methods into your CMMI framework. (p9)"</t>
+  </si>
+  <si>
+    <t>forms data collection</t>
+  </si>
+  <si>
+    <t>defense, healthcare, manufacturing, and service industries. business (p4)</t>
+  </si>
+  <si>
+    <t>The paper talk abou 400 people developing large systems used in the defense, healthcare, manufacturing, and service industries (p4)</t>
+  </si>
+  <si>
+    <t>product backlog; sprint backlog; Sprint Planning and Sprint Review; Definition of the roles Scrum Master, Product Owner and Team; Sprint Retrospective Meeting (p2, p3). With Lean Software Development the author cites the principles like: Integrity; Create Value; Empower team; See the whole; Deliver Fast and Amplify Learning.</t>
+  </si>
+  <si>
+    <t>the automotive industry (p552)</t>
+  </si>
+  <si>
+    <t>" the increase in software dependence requires that operational safety must be accounted for when developing automotive software.(p552)"
+"However, many companies have refused to adopt the assessment part of these models as they tend to be too heavy and expensive for SMEs [14]. (p552)"</t>
+  </si>
+  <si>
+    <t>"According to this study, 12% of the overall lead time in software product development and 49% reduction in defects was obtained using CMM or CMMI based improvement programs. (p552)"
+"The success of the growth of this sector is attributed to a number of factors which include low corporation tax, an English speaking workforce, the availability of a highly qualified and educated workforce, a strong indigenous firm base and deployment of EU structural and cohesion funds to Ireland(p552)"</t>
+  </si>
+  <si>
+    <t>XP+SCRUM+Others</t>
+  </si>
+  <si>
+    <t>A key decision in the development of AHAA was ‘what process areas are most applicable?’(p553)</t>
+  </si>
+  <si>
+    <t>"Stories; Product Backlog; Planning Game; Daily meetings; On-site customer; Self-organizing teams; Retrospectives;  Small Releases, Daily Stand Up Meetings; ￼Continuous Integration (p554)"</t>
+  </si>
+  <si>
+    <t>REQM; PP; PMC; CM</t>
+  </si>
+  <si>
+    <t>"AutoSoft currently has 8 software development staff and works closely with its larger parent company in Denmark. (p556)"</t>
+  </si>
+  <si>
+    <t>"In Europe, and specifically in countries such as Ireland and Finland, where the researchers are based, there is an increasing emergence of the small firm as a key component of the industrial profile of individual countries.(p552)"
+"AHAA provides the assessed company with a findings document presented in terms of CMMI®, Automotive SPICETM processes and agile practices.(p553)"
+"Upon analysis, the AHAA assessment revealed that AutoSoft may be able to significantly improve their software development practices by adopting a combination of plan-driven and agile based recommendations. (p557)"</t>
+  </si>
+  <si>
+    <t>"many automotive companies have already faced challenges to develop complex software where the goal is to achieve high quality safety- critical software components.(p552)"
+"Software process assessments can assure quality of development processes. Unfortunately, assessments are often too time consuming and expensive for SMEs. Another difficultly in adopting software process assessments is deciding which SPI model the company should be assessed against, as different manufacturers may adopt different SPI models and therefore have a different approach to evaluating the capability/maturity of a potential supplier. (p558)"</t>
+  </si>
+  <si>
+    <t>"The main aim to study is show us that how mixing the W. Edwards Deming’s underlying philosophy with Agile to proced a lightweight CMMi solution for .Net developers everywhere (p01)"</t>
+  </si>
+  <si>
+    <t>Data extraction/study</t>
+  </si>
+  <si>
+    <t>Scrum+Other</t>
+  </si>
+  <si>
+    <t>Big scale software organization</t>
+  </si>
+  <si>
+    <t>"The velocity measurement is not sufficient on its own to identify special cause variation in the process. Shewhart called special causes, “assignable causes” (p05)"</t>
+  </si>
+  <si>
+    <t>"pair programming; self-organizing teams; Short iterative delivery cycles (p03)"
+"We can track blocking work-in-process (WIP) by monitoring work queuing for processing. (p05)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REQM; </t>
+  </si>
+  <si>
+    <t>"A combination of integrated tooling and an overall agile approach to the process design has reduced the overhead – the heaviness – in the process by around 85%.(p08)"</t>
+  </si>
+  <si>
+    <t>"The issue log and blocked WIP can be used to assess the capability of the organization to eliminate special cause variation. Figure 4 shows the cumulative flow of issues in the issue log. (p06)"
+"The result is a process template which is larger than a typical agile process with slightly more formality with respect to approvals, sign offs and audits, but one that has an agile, adaptive core and is lightweight in comparison to a traditional CMMI approach. We believe that MSF for CMMI Process Improvement represents an agile, highly productive methodology which includes a formal quality assurance mechanism and encourages a culture of continuous improvement.(p08)"</t>
+  </si>
+  <si>
+    <t>"CMMI process implementations are often associated with conformance to plan, low trust environments, with command and control structures. These require a big design up front approach with auditing of conformance and by implication punishment for non-conformance. This generates fear and fear encourages greater focus on more detailed planning coupled with a blind willingness to follow such a plan. As a result, the customer’s needs become disconnected from the work and customer driven change becomes unacceptable because change must be reflected in the plan in order that the result conforms to the plan. The effect is a great deal of non-value adding rework.(p08)"</t>
+  </si>
+  <si>
+    <t>"This research suggests that small and mid sized companies can adopt Agile Development Methodologies (ADM) while following the CMMI standard if obtain a new additional values, thus they can get a new competence value in their environments.(p01)"</t>
+  </si>
+  <si>
+    <t>"concentrates on practical questions about cmmi and commons small companies problems(p01, p02)"</t>
+  </si>
+  <si>
+    <t>questionaries and interviews</t>
+  </si>
+  <si>
+    <t>"The goal of this paper is to describe a new low-overhead assessment method that has been designed specifically for small-to-medium- sized (SMEs) organisations wishing to be automotive software suppliers. This assessment method integrates the structured-ness of the plan-driven SPI models of Capability Maturity Model Integration (CMMI) and Automotive SPICETM with the flexibleness of agile practices. (p551)"</t>
+  </si>
+  <si>
+    <t>"Now the problem in SMEs is: How can SMEs develop their projects while following the framework standards? Some standards are overloading the SMEs because it is originally organized for the large organizations, so it is useless to guide to standards that have no values for the SMEs. They really need their own frameworks that enable them to compete in the international environments. (p4)"</t>
+  </si>
+  <si>
+    <t>CMMi Level 2; 3; 4 and 5</t>
+  </si>
+  <si>
+    <t>25 KPAs</t>
+  </si>
+  <si>
+    <t>"user-stories, an On-Site customer, and continuous integration (p5)"
+"planning game and small releases (p5)"; "(...)planning game and small releases.(p5)"</t>
+  </si>
+  <si>
+    <t>"CMMI focuses on best practices that an organization can use to improve processes in the process areas that are within the maturity level it chooses to achieve. Consequently SMEs need their own modified frameworks that can used to add values to its practices. (p7)"</t>
+  </si>
+  <si>
+    <t>"The main issues that may be obstacles to development teams in the SMEs:
+CMMI focuses on project management rather than product development.
+CMMI ignores the use of some technologies such as rapid prototyping.
+CMMI does not incorporate risk analysis as a key process area.
+CMMI is expensive to use; too much overhead and reporting for a small company. (p3)"</t>
+  </si>
+  <si>
+    <t>"Boeing Australia, Limited: 1400 people in 13 locations in Australia; started implementing CMMI in 2001; 33% decrease in the average cost to correct a defect; 50% reduction in time for delivery of a release; Increased ability to configure builds; 60% reduction in the preparation, conduct, and rework form pre-test to post-test audits. [4]
+ (p3)"
+"Lockheed Martin Management &amp; Data Systems: 9,000 employees in Pennsylvania, Arizona, California, Colorado, and Washington DC; Deeply involved in process improvement for more than ten years; achieved CMM Level 5 in 2000 (SE-CMM and SW-CMM); achieved CMMI Level 5 in 2002; notable performance improvements; 30% increase in software productivity; 20% decrease in unit software cost; 15% decrease in costs to find and fix defects. [4](p3)"</t>
+  </si>
+  <si>
+    <t>"The present research paper suggests that these software firms (SMEs) should go for adaptation of agile development methodology for excellent performance on the foot steps of CMM. In this way, software firms (SMEs) can leads toward CMM after agile maturity.(p576)"</t>
+  </si>
+  <si>
+    <t>"It is concluded that assessment of the Capability Maturity Model (CMM) in softwar fmns (SMEs) in order to investigate its alignment at small scale should be encougred.(p579)"</t>
+  </si>
+  <si>
+    <t>"The adaptation of these practices will reduce the cost of training and no documentation demand will exist at early stages of software development. In this way, small firms will save more than expenses. (p579)"</t>
+  </si>
+  <si>
+    <t>"CMM is expensive to implement due to documentation, training and skilled human capital and others KPAs, so SMEs should start with Agile for cost reduction and fast project completion. (p579)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Defect Prevention (Contineous Integration, XP); Organization process focus (Team Focus, XP);Software product engineering (simple design, coding standard, resting, XP); Intergroup coordination (pair programming, XP); Peer reviews (team work); Software project planning (small version, XP); Software quality assurance (Pair programming,
+XP) (p578)"
+</t>
+  </si>
+  <si>
+    <t>Level 5 to 2</t>
+  </si>
+  <si>
+    <t>"The performance of software development firms is low because they are biased toward CMM practices and its certifications without any rationale. To get more projects from multinational clients, small and medium enterprises are striving to adopt CMM practices and certifications without measuring their capability. In order to achieve certifications, these fIrmS directly try to adopt CMM with believe that it will lead them toward successfull project artifacts and customer will attract towards them due to the tag of CMM certification. (p577)"</t>
+  </si>
+  <si>
+    <t>"The situation raise questions like does CMM adoption by software development fIrmS (SMEs) leads them to improved performance? Will it be a wise decision? Can CMM be tailored for the benefits of SMEs? (p576)"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yy;@"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
@@ -2442,16 +2574,17 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2529,7 +2662,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2563,8 +2696,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="343">
+  <cellStyleXfs count="354">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2880,8 +3022,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3061,14 +3214,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="316" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="315" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3079,9 +3233,11 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="343">
-    <cellStyle name="Comma" xfId="315" builtinId="3"/>
+  <cellStyles count="354">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -3273,6 +3429,8 @@
     <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="313" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="315" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="317" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="319" builtinId="9" hidden="1"/>
@@ -3299,6 +3457,17 @@
     <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="341" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="343" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="345" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="347" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="349" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="351" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="353" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -3423,7 +3592,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 3" xfId="12"/>
-    <cellStyle name="Percent" xfId="316" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3720,10 +3888,10 @@
   <dimension ref="A1:AK60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="AD16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="I20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AE16" sqref="AE16"/>
+      <selection pane="bottomRight" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3765,14 +3933,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="28">
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
       <c r="K1" s="22" t="s">
         <v>36</v>
       </c>
@@ -4682,7 +4850,7 @@
         <v>90</v>
       </c>
       <c r="R11" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="S11" t="s">
         <v>55</v>
@@ -4700,34 +4868,34 @@
         <v>380</v>
       </c>
       <c r="X11" s="56" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="Z11" s="56" t="s">
         <v>381</v>
       </c>
       <c r="AA11" s="56" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="AC11" t="s">
+        <v>386</v>
+      </c>
+      <c r="AD11" t="s">
         <v>389</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" s="11" t="s">
         <v>392</v>
-      </c>
-      <c r="AE11" s="11" t="s">
-        <v>395</v>
       </c>
       <c r="AG11" t="s">
         <v>63</v>
       </c>
       <c r="AH11" s="11" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="AI11" s="11" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="AJ11" s="11" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:37" ht="56">
@@ -4757,10 +4925,10 @@
         <v>245</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K12" s="20" t="s">
         <v>54</v>
@@ -4799,43 +4967,43 @@
         <v>370</v>
       </c>
       <c r="W12" s="56" t="s">
+        <v>394</v>
+      </c>
+      <c r="X12" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y12" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z12" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA12" s="56" t="s">
+        <v>396</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>395</v>
+      </c>
+      <c r="AD12" t="s">
         <v>397</v>
       </c>
-      <c r="X12" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y12" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z12" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA12" s="56" t="s">
-        <v>399</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC12" t="s">
+      <c r="AE12" s="11" t="s">
         <v>398</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>400</v>
-      </c>
-      <c r="AE12" s="11" t="s">
-        <v>401</v>
       </c>
       <c r="AG12" t="s">
         <v>63</v>
       </c>
       <c r="AH12" s="11" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="AI12" s="11" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="AJ12" s="11" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="13" spans="1:37" ht="56">
@@ -4865,13 +5033,13 @@
         <v>245</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="K13" s="20" t="s">
         <v>54</v>
       </c>
       <c r="L13" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="M13" t="s">
         <v>65</v>
@@ -4880,13 +5048,13 @@
         <v>58</v>
       </c>
       <c r="P13" s="55" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="Q13" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="R13" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="S13" t="s">
         <v>55</v>
@@ -4901,7 +5069,7 @@
         <v>57</v>
       </c>
       <c r="W13" s="56" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="X13" s="56" t="s">
         <v>55</v>
@@ -4916,13 +5084,13 @@
         <v>55</v>
       </c>
       <c r="AE13" s="11" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="AG13" t="s">
         <v>65</v>
       </c>
       <c r="AI13" s="11" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="14" spans="1:37" ht="60">
@@ -4952,10 +5120,10 @@
         <v>254</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="K14" s="20" t="s">
         <v>344</v>
@@ -5001,20 +5169,20 @@
       </c>
       <c r="Y14" s="14"/>
       <c r="Z14" s="14" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="AA14" s="15" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="AB14" s="14"/>
       <c r="AC14" s="14" t="s">
         <v>59</v>
       </c>
       <c r="AD14" s="14" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="AE14" s="14" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="AF14" s="14" t="s">
         <v>55</v>
@@ -5023,13 +5191,13 @@
         <v>63</v>
       </c>
       <c r="AH14" s="14" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="AI14" s="15" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="AJ14" s="15" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="15" spans="1:37" ht="45">
@@ -5040,7 +5208,7 @@
         <f t="shared" si="0"/>
         <v>2012</v>
       </c>
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="61" t="s">
         <v>228</v>
       </c>
       <c r="D15" s="45" t="s">
@@ -5058,8 +5226,8 @@
       <c r="H15" s="45" t="s">
         <v>285</v>
       </c>
-      <c r="I15" s="62" t="s">
-        <v>472</v>
+      <c r="I15" s="60" t="s">
+        <v>469</v>
       </c>
       <c r="J15" s="18" t="s">
         <v>53</v>
@@ -5068,7 +5236,7 @@
         <v>54</v>
       </c>
       <c r="L15" s="55" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="M15" s="14" t="s">
         <v>79</v>
@@ -5080,24 +5248,24 @@
         <v>58</v>
       </c>
       <c r="P15" s="56" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="Q15" s="55" t="s">
         <v>90</v>
       </c>
       <c r="R15" s="20" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="S15" s="55"/>
       <c r="T15" s="55"/>
       <c r="U15" s="55" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="V15" s="55" t="s">
         <v>370</v>
       </c>
       <c r="W15" s="55" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="X15" s="55" t="s">
         <v>55</v>
@@ -5106,29 +5274,29 @@
         <v>333</v>
       </c>
       <c r="AA15" s="56" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="AC15" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="AD15" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="AE15" s="11" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="AF15" s="11"/>
       <c r="AG15" s="11" t="s">
         <v>63</v>
       </c>
       <c r="AH15" s="11" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="AI15" s="11" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="AJ15" s="11" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="16" spans="1:37" ht="45">
@@ -5158,7 +5326,7 @@
         <v>245</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="J16" s="20" t="s">
         <v>53</v>
@@ -5178,32 +5346,44 @@
       <c r="O16" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="P16" s="14"/>
+      <c r="P16" s="14" t="s">
+        <v>482</v>
+      </c>
       <c r="Q16" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
+      <c r="R16" s="14" t="s">
+        <v>484</v>
+      </c>
+      <c r="S16" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="T16" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="U16" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="V16" s="14" t="s">
-        <v>318</v>
+        <v>370</v>
       </c>
       <c r="W16" s="14" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="Y16" s="14"/>
       <c r="Z16" s="14" t="s">
-        <v>479</v>
-      </c>
-      <c r="AA16" s="14"/>
+        <v>476</v>
+      </c>
+      <c r="AA16" s="14" t="s">
+        <v>485</v>
+      </c>
       <c r="AB16" s="14"/>
       <c r="AC16" s="14" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="AD16" s="14"/>
       <c r="AE16" s="15" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="AF16" s="14" t="s">
         <v>55</v>
@@ -5212,13 +5392,13 @@
         <v>324</v>
       </c>
       <c r="AH16" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="AI16" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="AJ16" s="15" t="s">
         <v>480</v>
-      </c>
-      <c r="AI16" s="15" t="s">
-        <v>481</v>
-      </c>
-      <c r="AJ16" s="15" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="17" spans="1:36" ht="60">
@@ -5247,23 +5427,18 @@
       <c r="H17" s="45" t="s">
         <v>290</v>
       </c>
-      <c r="I17" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="J17" s="18" t="s">
-        <v>53</v>
+      <c r="I17" s="60" t="s">
+        <v>509</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>490</v>
       </c>
       <c r="K17" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="L17" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="M17" t="s">
+      <c r="L17" s="14"/>
+      <c r="M17" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="N17" t="s">
-        <v>55</v>
       </c>
       <c r="O17" t="s">
         <v>58</v>
@@ -5275,40 +5450,38 @@
         <v>90</v>
       </c>
       <c r="R17" t="s">
-        <v>55</v>
-      </c>
-      <c r="S17" t="s">
-        <v>55</v>
+        <v>493</v>
       </c>
       <c r="V17" t="s">
-        <v>336</v>
+        <v>370</v>
+      </c>
+      <c r="W17" t="s">
+        <v>486</v>
       </c>
       <c r="Z17" t="s">
-        <v>333</v>
-      </c>
-      <c r="AA17" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>55</v>
+        <v>489</v>
+      </c>
+      <c r="AA17" s="56" t="s">
+        <v>491</v>
       </c>
       <c r="AD17" t="s">
-        <v>337</v>
+        <v>492</v>
       </c>
       <c r="AE17" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="AF17" s="11" t="s">
-        <v>55</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="AF17" s="11"/>
       <c r="AG17" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="AI17" t="s">
-        <v>340</v>
+      <c r="AH17" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="AI17" s="11" t="s">
+        <v>487</v>
       </c>
       <c r="AJ17" s="11" t="s">
-        <v>341</v>
+        <v>495</v>
       </c>
     </row>
     <row r="18" spans="1:36" ht="70">
@@ -5338,49 +5511,66 @@
         <v>245</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>343</v>
+        <v>496</v>
       </c>
       <c r="J18" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="K18" s="57" t="s">
-        <v>344</v>
-      </c>
-      <c r="L18" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="M18" t="s">
+      <c r="K18" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="N18" t="s">
-        <v>342</v>
       </c>
       <c r="O18" t="s">
         <v>58</v>
       </c>
       <c r="P18" t="s">
-        <v>314</v>
+        <v>55</v>
       </c>
       <c r="Q18" t="s">
         <v>90</v>
       </c>
+      <c r="R18">
+        <f>-S18</f>
+        <v>0</v>
+      </c>
       <c r="V18" t="s">
         <v>336</v>
       </c>
+      <c r="W18" t="s">
+        <v>499</v>
+      </c>
+      <c r="X18" t="s">
+        <v>363</v>
+      </c>
       <c r="Z18" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>347</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>348</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>346</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>349</v>
+        <v>498</v>
+      </c>
+      <c r="AA18" s="15" t="s">
+        <v>501</v>
+      </c>
+      <c r="AC18" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="AD18" s="14" t="s">
+        <v>502</v>
+      </c>
+      <c r="AE18" s="15" t="s">
+        <v>503</v>
+      </c>
+      <c r="AG18" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH18" s="16" t="s">
+        <v>504</v>
+      </c>
+      <c r="AI18" s="15" t="s">
+        <v>500</v>
+      </c>
+      <c r="AJ18" s="15" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="19" spans="1:36" ht="75">
@@ -5409,11 +5599,11 @@
       <c r="H19" s="45" t="s">
         <v>295</v>
       </c>
-      <c r="I19" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="J19" s="18" t="s">
-        <v>53</v>
+      <c r="I19" s="60" t="s">
+        <v>506</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>507</v>
       </c>
       <c r="K19" s="18" t="s">
         <v>54</v>
@@ -5422,7 +5612,7 @@
         <v>55</v>
       </c>
       <c r="M19" s="55" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="N19" s="55" t="s">
         <v>55</v>
@@ -5430,8 +5620,8 @@
       <c r="O19" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="P19" t="s">
-        <v>314</v>
+      <c r="P19" s="55" t="s">
+        <v>508</v>
       </c>
       <c r="Q19" s="55" t="s">
         <v>90</v>
@@ -5449,31 +5639,37 @@
         <v>55</v>
       </c>
       <c r="V19" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="W19" s="56" t="s">
-        <v>351</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>352</v>
-      </c>
-      <c r="AA19" s="11" t="s">
-        <v>353</v>
+        <v>370</v>
+      </c>
+      <c r="W19" s="55" t="s">
+        <v>474</v>
+      </c>
+      <c r="Z19" s="55" t="s">
+        <v>333</v>
+      </c>
+      <c r="AA19" s="56" t="s">
+        <v>513</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>511</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>512</v>
       </c>
       <c r="AE19" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG19" t="s">
+        <v>514</v>
+      </c>
+      <c r="AG19" s="11" t="s">
         <v>63</v>
       </c>
       <c r="AH19" s="11" t="s">
-        <v>356</v>
+        <v>516</v>
       </c>
       <c r="AI19" s="11" t="s">
-        <v>355</v>
+        <v>515</v>
+      </c>
+      <c r="AJ19" s="11" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="20" spans="1:36" ht="90">
@@ -5494,19 +5690,19 @@
         <v>2010</v>
       </c>
       <c r="F20" s="45" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G20" s="45" t="s">
         <v>50</v>
       </c>
       <c r="H20" s="45" t="s">
-        <v>421</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>357</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>358</v>
+        <v>418</v>
+      </c>
+      <c r="I20" s="66" t="s">
+        <v>517</v>
+      </c>
+      <c r="J20" s="66" t="s">
+        <v>524</v>
       </c>
       <c r="K20" s="18" t="s">
         <v>54</v>
@@ -5526,50 +5722,37 @@
       <c r="Q20" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="R20" t="s">
-        <v>359</v>
-      </c>
       <c r="S20" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="T20" t="s">
-        <v>360</v>
-      </c>
-      <c r="U20" s="55" t="s">
-        <v>361</v>
-      </c>
+      <c r="U20" s="55"/>
       <c r="V20" t="s">
         <v>336</v>
       </c>
-      <c r="W20" s="55" t="s">
-        <v>362</v>
-      </c>
-      <c r="X20" t="s">
-        <v>363</v>
-      </c>
+      <c r="W20" s="55"/>
       <c r="Z20" t="s">
         <v>333</v>
       </c>
       <c r="AA20" s="11" t="s">
-        <v>364</v>
+        <v>521</v>
       </c>
       <c r="AC20" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>365</v>
-      </c>
-      <c r="AE20" s="11" t="s">
-        <v>366</v>
+        <v>522</v>
+      </c>
+      <c r="AE20" s="15" t="s">
+        <v>518</v>
       </c>
       <c r="AG20" t="s">
         <v>63</v>
       </c>
-      <c r="AH20" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="AI20" s="11" t="s">
-        <v>367</v>
+      <c r="AH20" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="AI20" s="15" t="s">
+        <v>520</v>
+      </c>
+      <c r="AJ20" s="15" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="21" spans="1:36" ht="30">
@@ -5590,13 +5773,13 @@
         <v>2008</v>
       </c>
       <c r="F21" s="45" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G21" s="45" t="s">
         <v>50</v>
       </c>
       <c r="H21" s="45" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="I21" s="11" t="s">
         <v>369</v>
@@ -5689,7 +5872,7 @@
         <v>2006</v>
       </c>
       <c r="F22" s="45" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G22" s="45" t="s">
         <v>50</v>
@@ -5713,7 +5896,7 @@
         <v>90</v>
       </c>
       <c r="R22" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="S22" t="s">
         <v>55</v>
@@ -5731,34 +5914,34 @@
         <v>380</v>
       </c>
       <c r="X22" s="56" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="Z22" s="56" t="s">
         <v>381</v>
       </c>
       <c r="AA22" s="56" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="AC22" t="s">
+        <v>386</v>
+      </c>
+      <c r="AD22" t="s">
         <v>389</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" s="11" t="s">
         <v>392</v>
-      </c>
-      <c r="AE22" s="11" t="s">
-        <v>395</v>
       </c>
       <c r="AG22" t="s">
         <v>63</v>
       </c>
       <c r="AH22" s="11" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="AI22" s="11" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="AJ22" s="11" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="23" spans="1:36" ht="30">
@@ -5779,7 +5962,7 @@
         <v>2001</v>
       </c>
       <c r="F23" s="45" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G23" s="45" t="s">
         <v>242</v>
@@ -5788,10 +5971,10 @@
         <v>245</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K23" s="20" t="s">
         <v>54</v>
@@ -5830,43 +6013,43 @@
         <v>370</v>
       </c>
       <c r="W23" s="56" t="s">
+        <v>394</v>
+      </c>
+      <c r="X23" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y23" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z23" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA23" s="56" t="s">
+        <v>396</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>395</v>
+      </c>
+      <c r="AD23" t="s">
         <v>397</v>
       </c>
-      <c r="X23" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y23" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z23" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA23" s="56" t="s">
-        <v>399</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC23" t="s">
+      <c r="AE23" s="11" t="s">
         <v>398</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>400</v>
-      </c>
-      <c r="AE23" s="11" t="s">
-        <v>401</v>
       </c>
       <c r="AG23" t="s">
         <v>63</v>
       </c>
       <c r="AH23" s="11" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="AI23" s="11" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="AJ23" s="11" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="24" spans="1:36" ht="45">
@@ -5887,7 +6070,7 @@
         <v>2005</v>
       </c>
       <c r="F24" s="45" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G24" s="45" t="s">
         <v>50</v>
@@ -6185,7 +6368,7 @@
         <v>2009</v>
       </c>
       <c r="F27" s="45" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G27" s="45" t="s">
         <v>50</v>
@@ -6275,7 +6458,7 @@
         <v>2001</v>
       </c>
       <c r="F28" s="45" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G28" s="45" t="s">
         <v>50</v>
@@ -6659,7 +6842,7 @@
         <v>90</v>
       </c>
       <c r="R32" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="S32" t="s">
         <v>55</v>
@@ -6677,34 +6860,34 @@
         <v>380</v>
       </c>
       <c r="X32" s="56" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="Z32" s="56" t="s">
         <v>381</v>
       </c>
       <c r="AA32" s="56" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="AC32" t="s">
+        <v>386</v>
+      </c>
+      <c r="AD32" t="s">
         <v>389</v>
       </c>
-      <c r="AD32" t="s">
+      <c r="AE32" s="11" t="s">
         <v>392</v>
-      </c>
-      <c r="AE32" s="11" t="s">
-        <v>395</v>
       </c>
       <c r="AG32" t="s">
         <v>63</v>
       </c>
       <c r="AH32" s="11" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="AI32" s="11" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="AJ32" s="11" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="33" spans="1:36" ht="70">
@@ -6734,10 +6917,10 @@
         <v>264</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K33" s="20" t="s">
         <v>54</v>
@@ -6776,43 +6959,43 @@
         <v>370</v>
       </c>
       <c r="W33" s="56" t="s">
+        <v>394</v>
+      </c>
+      <c r="X33" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y33" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z33" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA33" s="56" t="s">
+        <v>396</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>395</v>
+      </c>
+      <c r="AD33" t="s">
         <v>397</v>
       </c>
-      <c r="X33" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y33" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z33" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA33" s="56" t="s">
-        <v>399</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC33" t="s">
+      <c r="AE33" s="11" t="s">
         <v>398</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>400</v>
-      </c>
-      <c r="AE33" s="11" t="s">
-        <v>401</v>
       </c>
       <c r="AG33" t="s">
         <v>63</v>
       </c>
       <c r="AH33" s="11" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="AI33" s="11" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="AJ33" s="11" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="34" spans="1:36" ht="70">
@@ -7042,13 +7225,13 @@
         <v>2008</v>
       </c>
       <c r="F36" s="45" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="G36" s="45" t="s">
         <v>242</v>
       </c>
       <c r="H36" s="45" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="I36" s="15" t="s">
         <v>328</v>
@@ -7131,7 +7314,7 @@
         <v>2009</v>
       </c>
       <c r="F37" s="45" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="G37" s="45" t="s">
         <v>50</v>
@@ -7221,13 +7404,13 @@
         <v>2008</v>
       </c>
       <c r="F38" s="45" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G38" s="45" t="s">
         <v>50</v>
       </c>
       <c r="H38" s="45" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="I38" s="11" t="s">
         <v>343</v>
@@ -7293,13 +7476,13 @@
         <v>2009</v>
       </c>
       <c r="F39" s="45" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G39" s="45" t="s">
         <v>279</v>
       </c>
       <c r="H39" s="45" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="I39" s="11" t="s">
         <v>350</v>
@@ -7386,13 +7569,13 @@
         <v>2009</v>
       </c>
       <c r="F40" s="45" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G40" s="45" t="s">
         <v>50</v>
       </c>
       <c r="H40" s="45" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="I40" s="11" t="s">
         <v>357</v>
@@ -7581,7 +7764,7 @@
         <v>2004</v>
       </c>
       <c r="F42" s="45" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G42" s="45" t="s">
         <v>50</v>
@@ -7605,7 +7788,7 @@
         <v>90</v>
       </c>
       <c r="R42" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="S42" t="s">
         <v>55</v>
@@ -7623,34 +7806,34 @@
         <v>380</v>
       </c>
       <c r="X42" s="56" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="Z42" s="56" t="s">
         <v>381</v>
       </c>
       <c r="AA42" s="56" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="AC42" t="s">
+        <v>386</v>
+      </c>
+      <c r="AD42" t="s">
         <v>389</v>
       </c>
-      <c r="AD42" t="s">
+      <c r="AE42" s="11" t="s">
         <v>392</v>
-      </c>
-      <c r="AE42" s="11" t="s">
-        <v>395</v>
       </c>
       <c r="AG42" t="s">
         <v>63</v>
       </c>
       <c r="AH42" s="11" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="AI42" s="11" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="AJ42" s="11" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="43" spans="1:36" ht="60">
@@ -7671,19 +7854,19 @@
         <v>2001</v>
       </c>
       <c r="F43" s="45" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G43" s="45" t="s">
         <v>50</v>
       </c>
       <c r="H43" s="45" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K43" s="20" t="s">
         <v>54</v>
@@ -7722,43 +7905,43 @@
         <v>370</v>
       </c>
       <c r="W43" s="56" t="s">
+        <v>394</v>
+      </c>
+      <c r="X43" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y43" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z43" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA43" s="56" t="s">
+        <v>396</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>395</v>
+      </c>
+      <c r="AD43" t="s">
         <v>397</v>
       </c>
-      <c r="X43" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y43" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z43" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA43" s="56" t="s">
-        <v>399</v>
-      </c>
-      <c r="AB43" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC43" t="s">
+      <c r="AE43" s="11" t="s">
         <v>398</v>
-      </c>
-      <c r="AD43" t="s">
-        <v>400</v>
-      </c>
-      <c r="AE43" s="11" t="s">
-        <v>401</v>
       </c>
       <c r="AG43" t="s">
         <v>63</v>
       </c>
       <c r="AH43" s="11" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="AI43" s="11" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="AJ43" s="11" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="44" spans="1:36" ht="56">
@@ -7779,13 +7962,13 @@
         <v>2013</v>
       </c>
       <c r="F44" s="45" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G44" s="45" t="s">
         <v>242</v>
       </c>
       <c r="H44" s="45" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="I44" s="15" t="s">
         <v>77</v>
@@ -7885,7 +8068,7 @@
         <v>2008</v>
       </c>
       <c r="F45" s="45" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G45" s="45" t="s">
         <v>50</v>
@@ -7993,13 +8176,13 @@
         <v>2007</v>
       </c>
       <c r="F46" s="45" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G46" s="45" t="s">
         <v>242</v>
       </c>
       <c r="H46" s="45" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="I46" s="11" t="s">
         <v>312</v>
@@ -8095,7 +8278,7 @@
         <v>2004</v>
       </c>
       <c r="F47" s="45" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G47" s="45" t="s">
         <v>242</v>
@@ -8184,7 +8367,7 @@
         <v>2007</v>
       </c>
       <c r="F48" s="45" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G48" s="45" t="s">
         <v>242</v>
@@ -8274,13 +8457,13 @@
         <v>2011</v>
       </c>
       <c r="F49" s="45" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="G49" s="45" t="s">
         <v>50</v>
       </c>
       <c r="H49" s="45" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="I49" s="11" t="s">
         <v>343</v>
@@ -8346,7 +8529,7 @@
         <v>2007</v>
       </c>
       <c r="F50" s="45" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="G50" s="45" t="s">
         <v>242</v>
@@ -8439,13 +8622,13 @@
         <v>2003</v>
       </c>
       <c r="F51" s="45" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G51" s="45" t="s">
         <v>50</v>
       </c>
       <c r="H51" s="45" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="I51" s="11" t="s">
         <v>357</v>
@@ -8535,13 +8718,13 @@
         <v>2006</v>
       </c>
       <c r="F52" s="45" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="G52" s="45" t="s">
         <v>242</v>
       </c>
       <c r="H52" s="45" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="I52" s="11" t="s">
         <v>369</v>
@@ -8634,7 +8817,7 @@
         <v>2006</v>
       </c>
       <c r="F53" s="45" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G53" s="45" t="s">
         <v>50</v>
@@ -8724,7 +8907,7 @@
         <v>2012</v>
       </c>
       <c r="F54" s="45" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G54" s="45" t="s">
         <v>50</v>
@@ -8831,7 +9014,7 @@
         <v>2012</v>
       </c>
       <c r="F55" s="45" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="G55" s="45" t="s">
         <v>242</v>
@@ -8918,7 +9101,7 @@
     <row r="58" spans="1:36">
       <c r="H58" s="58">
         <f ca="1">TODAY()</f>
-        <v>42470</v>
+        <v>42528</v>
       </c>
     </row>
     <row r="59" spans="1:36">
@@ -8929,18 +9112,18 @@
     <row r="60" spans="1:36">
       <c r="H60">
         <f ca="1">H59-H58</f>
-        <v>-10</v>
+        <v>-68</v>
       </c>
       <c r="I60" s="18">
         <f ca="1">H60*8</f>
-        <v>-80</v>
+        <v>-544</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:H1"/>
   </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1"/>
     <hyperlink ref="A6" r:id="rId2"/>
@@ -9011,7 +9194,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -9073,7 +9256,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -9157,16 +9340,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="28" customHeight="1">
-      <c r="K1" s="65" t="s">
+      <c r="K1" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="Q1" s="66" t="s">
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="Q1" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
       <c r="AE1" s="38" t="s">
         <v>40</v>
       </c>
@@ -9762,13 +9945,13 @@
         <v>2010</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G19" s="45" t="s">
         <v>50</v>
       </c>
       <c r="H19" s="45" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="I19" s="31"/>
       <c r="J19" s="31"/>
@@ -9791,13 +9974,13 @@
         <v>2008</v>
       </c>
       <c r="F20" s="45" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G20" s="45" t="s">
         <v>50</v>
       </c>
       <c r="H20" s="45" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="I20" s="31"/>
       <c r="J20" s="31"/>
@@ -9820,7 +10003,7 @@
         <v>2006</v>
       </c>
       <c r="F21" s="45" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G21" s="45" t="s">
         <v>50</v>
@@ -9849,7 +10032,7 @@
         <v>2001</v>
       </c>
       <c r="F22" s="45" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G22" s="45" t="s">
         <v>242</v>
@@ -9878,7 +10061,7 @@
         <v>2005</v>
       </c>
       <c r="F23" s="45" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G23" s="45" t="s">
         <v>50</v>
@@ -9965,7 +10148,7 @@
         <v>2009</v>
       </c>
       <c r="F26" s="45" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G26" s="45" t="s">
         <v>50</v>
@@ -9994,7 +10177,7 @@
         <v>2001</v>
       </c>
       <c r="F27" s="45" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G27" s="45" t="s">
         <v>50</v>
@@ -10226,13 +10409,13 @@
         <v>2008</v>
       </c>
       <c r="F35" s="45" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="G35" s="45" t="s">
         <v>242</v>
       </c>
       <c r="H35" s="45" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="I35" s="30"/>
       <c r="J35" s="30"/>
@@ -10255,7 +10438,7 @@
         <v>2009</v>
       </c>
       <c r="F36" s="45" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="G36" s="45" t="s">
         <v>50</v>
@@ -10284,13 +10467,13 @@
         <v>2008</v>
       </c>
       <c r="F37" s="45" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G37" s="45" t="s">
         <v>50</v>
       </c>
       <c r="H37" s="45" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="I37" s="30"/>
       <c r="J37" s="30"/>
@@ -10313,13 +10496,13 @@
         <v>2009</v>
       </c>
       <c r="F38" s="45" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G38" s="45" t="s">
         <v>50</v>
       </c>
       <c r="H38" s="45" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="I38" s="30"/>
       <c r="J38" s="30"/>
@@ -10342,13 +10525,13 @@
         <v>2009</v>
       </c>
       <c r="F39" s="45" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G39" s="45" t="s">
         <v>50</v>
       </c>
       <c r="H39" s="45" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="I39" s="30"/>
       <c r="J39" s="30"/>
@@ -10400,7 +10583,7 @@
         <v>2004</v>
       </c>
       <c r="F41" s="45" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G41" s="45" t="s">
         <v>50</v>
@@ -10429,13 +10612,13 @@
         <v>2001</v>
       </c>
       <c r="F42" s="45" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G42" s="45" t="s">
         <v>50</v>
       </c>
       <c r="H42" s="45" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="I42" s="30"/>
       <c r="J42" s="30"/>
@@ -10458,13 +10641,13 @@
         <v>2013</v>
       </c>
       <c r="F43" s="45" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G43" s="45" t="s">
         <v>242</v>
       </c>
       <c r="H43" s="45" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="I43" s="29"/>
       <c r="J43" s="29"/>
@@ -10487,7 +10670,7 @@
         <v>2008</v>
       </c>
       <c r="F44" s="45" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G44" s="45" t="s">
         <v>50</v>
@@ -10516,13 +10699,13 @@
         <v>2007</v>
       </c>
       <c r="F45" s="45" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G45" s="45" t="s">
         <v>242</v>
       </c>
       <c r="H45" s="45" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="I45" s="27"/>
       <c r="J45" s="44"/>
@@ -10545,7 +10728,7 @@
         <v>2004</v>
       </c>
       <c r="F46" s="45" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G46" s="45" t="s">
         <v>242</v>
@@ -10572,7 +10755,7 @@
         <v>2007</v>
       </c>
       <c r="F47" s="45" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G47" s="45" t="s">
         <v>242</v>
@@ -10599,13 +10782,13 @@
         <v>2011</v>
       </c>
       <c r="F48" s="45" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="G48" s="45" t="s">
         <v>50</v>
       </c>
       <c r="H48" s="45" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="J48" s="44"/>
     </row>
@@ -10626,7 +10809,7 @@
         <v>2007</v>
       </c>
       <c r="F49" s="45" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="G49" s="45" t="s">
         <v>242</v>
@@ -10653,13 +10836,13 @@
         <v>2003</v>
       </c>
       <c r="F50" s="45" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G50" s="45" t="s">
         <v>50</v>
       </c>
       <c r="H50" s="45" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="J50" s="44"/>
     </row>
@@ -10680,13 +10863,13 @@
         <v>2006</v>
       </c>
       <c r="F51" s="45" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="G51" s="45" t="s">
         <v>242</v>
       </c>
       <c r="H51" s="45" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="J51" s="44"/>
     </row>
@@ -10707,7 +10890,7 @@
         <v>2006</v>
       </c>
       <c r="F52" s="45" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G52" s="45" t="s">
         <v>50</v>
@@ -10734,7 +10917,7 @@
         <v>2012</v>
       </c>
       <c r="F53" s="45" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G53" s="45" t="s">
         <v>50</v>
@@ -10761,7 +10944,7 @@
         <v>2012</v>
       </c>
       <c r="F54" s="45" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="G54" s="45" t="s">
         <v>242</v>
@@ -10802,38 +10985,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="61" t="s">
-        <v>413</v>
+      <c r="A1" s="59" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
   </sheetData>
@@ -10848,43 +11031,1328 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B5"/>
+  <dimension ref="A1:AM34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="39" width="3.83203125" style="24" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="1" spans="1:39">
+      <c r="A1" s="62" t="s">
+        <v>497</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="M1" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="N1" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="O1" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="P1" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q1" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="R1" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="S1" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="T1" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="U1" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="V1" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="W1" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="X1" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y1" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z1" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA1" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB1" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC1" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD1" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE1" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF1" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG1" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH1" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="AI1" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="AJ1" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="AK1" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="AL1" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="AM1" s="24" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>382</v>
-      </c>
-      <c r="B2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>23</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="P2" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q2" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="R2" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="S2" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="T2" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="U2" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="V2" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="W2" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="X2" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y2" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="Z2" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AA2" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AB2" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AC2" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AD2" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AE2" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AF2" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AG2" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AH2" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AI2" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AJ2" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AK2" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AL2" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AM2" s="24" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39">
       <c r="A3" t="s">
-        <v>384</v>
-      </c>
-      <c r="B3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="B3" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="L3" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="M3" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="N3" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="O3" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="P3" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q3" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="R3" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="S3" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="T3" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="U3" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="V3" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="W3" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="X3" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y3" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="Z3" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AA3" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AB3" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AC3" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AD3" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AE3" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AF3" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AG3" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AH3" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AI3" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AJ3" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AK3" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AL3" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AM3" s="24" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
       <c r="A4" t="s">
-        <v>383</v>
-      </c>
-      <c r="B4" s="60">
+        <v>48</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="N4" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="P4" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q4" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="R4" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="S4" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="T4" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="U4" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="V4" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="W4" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="X4" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y4" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="Z4" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AA4" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AB4" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AC4" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AD4" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AE4" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AF4" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AG4" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AH4" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AI4" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AJ4" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AK4" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AL4" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AM4" s="24" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="O5" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="P5" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q5" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="R5" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="S5" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="T5" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="U5" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="V5" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="W5" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="X5" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y5" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="Z5" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AA5" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AB5" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AC5" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AD5" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AE5" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AF5" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AG5" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AH5" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AI5" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AJ5" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AK5" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AL5" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AM5" s="24" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="L6" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="M6" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="O6" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="P6" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q6" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="R6" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="S6" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="T6" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="U6" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="V6" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="W6" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="X6" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y6" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="Z6" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AA6" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AB6" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AC6" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AD6" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AE6" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AF6" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AG6" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AH6" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AI6" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AJ6" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AK6" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AL6" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AM6" s="24" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="L7" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="N7" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="O7" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="P7" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q7" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="R7" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="S7" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="T7" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="U7" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="V7" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="W7" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="X7" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y7" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="Z7" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AA7" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AB7" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AC7" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AD7" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AE7" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AF7" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AG7" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AH7" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AI7" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AJ7" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AK7" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AL7" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AM7" s="24" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="K8" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="M8" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="N8" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="O8" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="P8" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q8" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="R8" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="S8" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="T8" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="U8" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="V8" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="W8" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="X8" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y8" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="Z8" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AA8" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AB8" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AC8" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AD8" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AE8" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AF8" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AG8" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AH8" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AI8" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AJ8" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AK8" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AL8" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AM8" s="24" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="M9" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="N9" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="O9" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="P9" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q9" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="R9" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="S9" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="T9" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="U9" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="V9" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="W9" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="X9" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y9" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="Z9" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AA9" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AB9" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AC9" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AD9" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AE9" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AF9" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AG9" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AH9" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AI9" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AJ9" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AK9" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AL9" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="AM9" s="24" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="B5" s="59"/>
+      <c r="B24" s="24" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>382</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/SLR-ExtracaoDados.xlsx
+++ b/SLR-ExtracaoDados.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16280" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16360"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="2" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="checklist" sheetId="7" r:id="rId5"/>
     <sheet name="sumarizacao" sheetId="9" r:id="rId6"/>
     <sheet name="pivot" sheetId="11" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Study!$A$2:$AK$54</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="36" r:id="rId8"/>
+    <pivotCache cacheId="42" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -496,7 +497,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1944" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1968" uniqueCount="544">
   <si>
     <t>Name</t>
   </si>
@@ -727,9 +728,6 @@
   </si>
   <si>
     <t>3 KPAs</t>
-  </si>
-  <si>
-    <t>Other</t>
   </si>
   <si>
     <t xml:space="preserve">"Besides RUP, a rich set of software engineering practices, including some of XP and SCRUM practices, were introduced in the process, such as testing driven development, refactoring and product backlog." (p610); </t>
@@ -1603,9 +1601,6 @@
   </si>
   <si>
     <t>Industry</t>
-  </si>
-  <si>
-    <t>DSDM;XP</t>
   </si>
   <si>
     <t>"As with the customer agile skill assessment, the developer’s agile skills are again not assessed from good to bad, but instead ranked based on their experience with an agile toolset and techniques (xUnit, FIT, refactoring, pair-programming, etc.). The ranking should reflect the developer’s comfort with the agile practices and associated tools. (p107)"
@@ -1826,9 +1821,6 @@
     <t>interviews, questionnaires</t>
   </si>
   <si>
-    <t>Students and Professionals</t>
-  </si>
-  <si>
     <t>"Over 40 participants attended, including researchers, research sponsors, and affiliates as well as invited experts on agile methods. (p154)"</t>
   </si>
   <si>
@@ -2016,9 +2008,6 @@
     <t>REQM; PP; PMC; SAM; MA; PPQA (p8)</t>
   </si>
   <si>
-    <t>XP+FDD+SCRUM+Crystal</t>
-  </si>
-  <si>
     <t>"This study analyzes the influence of agile and CMMI contexts over COTS selection processes, which have generated controversy inside the software engineering community, with the purpose of suggesting an agreement point of reconciliation and balance among the necessary discipline required to develop a selection process, and the agility that we are able to provide to develop a COTS project. For this reason, we seek to take advantage of the discipline proposed in CMMI, and the agility of the best agile practices, to identify a point of balance that define the number of people involved in the COTS selection process development and the system criticality that should be having into account at the moment to carry out a COTS project. (p10)"</t>
   </si>
   <si>
@@ -2085,9 +2074,6 @@
     <t>"(...) This paper provides an analysis of the effect of introducing Agile practices into a CMMI Level 5 company. (p1)"</t>
   </si>
   <si>
-    <t>Lean Software Dev + Scrum</t>
-  </si>
-  <si>
     <t>"Lean has demonstrated notable results for many years in domains such as auto manufacturing, and has been adapted to other domains, including product and software development. (p5)"</t>
   </si>
   <si>
@@ -2134,9 +2120,6 @@
 "The success of the growth of this sector is attributed to a number of factors which include low corporation tax, an English speaking workforce, the availability of a highly qualified and educated workforce, a strong indigenous firm base and deployment of EU structural and cohesion funds to Ireland(p552)"</t>
   </si>
   <si>
-    <t>XP+SCRUM+Others</t>
-  </si>
-  <si>
     <t>A key decision in the development of AHAA was ‘what process areas are most applicable?’(p553)</t>
   </si>
   <si>
@@ -2162,9 +2145,6 @@
   </si>
   <si>
     <t>Data extraction/study</t>
-  </si>
-  <si>
-    <t>Scrum+Other</t>
   </si>
   <si>
     <t>Big scale software organization</t>
@@ -2265,15 +2245,6 @@
     <t>Scrum</t>
   </si>
   <si>
-    <t>XP+Other</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>Others</t>
-  </si>
-  <si>
     <t>Empirical</t>
   </si>
   <si>
@@ -2289,9 +2260,6 @@
 - Reduction in the number of errors by up to 62%
 - Reduction in development and throughput time by up to 66%
 - Significant increase in customer and employee satisfaction (p79)"</t>
-  </si>
-  <si>
-    <t>"The big challenge is to find the right balance between clear orientation towards quality and reliability goals on the one hand and improving the ability to deliver to the market with higher frequency. (p78)"</t>
   </si>
   <si>
     <t>"Customer relation management
@@ -2322,9 +2290,6 @@
     <t>"But what is APM? How is it different from and similar to traditional proj- ect management? When should we use traditional and when should we use agile? Are they compatible or incompatible? (p02)"</t>
   </si>
   <si>
-    <t>Answer the research questions</t>
-  </si>
-  <si>
     <t>Reduced rework
 n Predictable engineering
 milestones
@@ -2383,13 +2348,10 @@
     <t>s09</t>
   </si>
   <si>
-    <t>Count of Design</t>
-  </si>
-  <si>
-    <t>Values</t>
-  </si>
-  <si>
-    <t>Count of Research Method</t>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
   </si>
   <si>
     <t>small scale software organizations (p01)</t>
@@ -2404,10 +2366,102 @@
     <t>"This study focuses on the story cards based requirement engineering process and not the individual feature or behaviour of the system. (p424)"</t>
   </si>
   <si>
-    <t>(All)</t>
-  </si>
-  <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Empírico</t>
+  </si>
+  <si>
+    <t>Relato de Experiência</t>
+  </si>
+  <si>
+    <t>Teórico</t>
+  </si>
+  <si>
+    <t>Estudo de Caso (multi)</t>
+  </si>
+  <si>
+    <t>Estudo de Caso (único)</t>
+  </si>
+  <si>
+    <t>Etnografia</t>
+  </si>
+  <si>
+    <t>Count of Agile Method</t>
+  </si>
+  <si>
+    <t>Geral</t>
+  </si>
+  <si>
+    <t>Scrum+LSD</t>
+  </si>
+  <si>
+    <t>XP+SCRUM</t>
+  </si>
+  <si>
+    <t>not cited</t>
+  </si>
+  <si>
+    <t>Students</t>
+  </si>
+  <si>
+    <t>"more than 450 people worldwide with offices in Denmark, Finland, USA and the UK. (p212)"</t>
+  </si>
+  <si>
+    <t>"Systematic was established in 1985 and employs more than 500 people worldwide with offices in Denmark, Finland, USA and the UK. (p333)"</t>
+  </si>
+  <si>
+    <t>"software architecture, system support, data migration, and business process management. [...](p96)"
+"we employed a small development team of five developers to stand up a production-ready system meeting all requirements. (p96)"
+"we brought in an experienced project manager with a history in disciplined approaches to software development.(p96)"</t>
+  </si>
+  <si>
+    <t>government</t>
+  </si>
+  <si>
+    <t>"Five project teams, each staffed by 6 students (2 managers and 4 developers), develop their projects according to XP. (p7)"</t>
+  </si>
+  <si>
+    <t>"The team was five developers and three testers in the first project, four developers and two testers in the second, three developers and one tester in the third and fourth. The organization had a lot of projects running concurrently and the engineers were distributed over them.  (p20)"</t>
+  </si>
+  <si>
+    <t>Hypothesis 1: Process maturity increases product development efficiency.(p88)
+Hypothesis 2: Process maturity increases product development 
+effectiveness.(p88)
+Hypothesis 3: Process agility increases product development efficiency.(p88)
+Hypothesis 4: Process agility increases product development effectiveness.(p88)
+Hypothesis 5: Process maturity increases product development innovativeness.(p89)
+Hypothesis 6: Process agility increases product development innovativeness.(p89)</t>
+  </si>
+  <si>
+    <t>"In the project management context, what can we say about adopt Scrum and CMMI together? Can they co-exist? How agile project management used with Scrum is compliant with the CMMI goals and practices?(p18)"</t>
+  </si>
+  <si>
+    <t>"This paper presents an analysis of the CMMI and Scrum practices identifying how Scrum practices address the project management process areas of CMMI, presenting major gaps between them. Additionally, it approaches how organizations are adopting complementary practices in their projects to turn these two approaches more compliant. (p18)"</t>
+  </si>
+  <si>
+    <t>"The Scrum Team was composed of 8 engineers: a Product Owner, a ScrumMaster, and a Team of six developers. (p100)"</t>
+  </si>
+  <si>
+    <t>"this paper proposed the new method for the software process improvement of which the working operation is proficient and flexible to be an alternative for the small and medium sized software enterprises in Thailand in order to improve the software process to a high level of quality. This method focuses on three areas of concern to the process improvement in personal level, the process improvement in project level and the process improvement in organization level .(p02)"</t>
+  </si>
+  <si>
+    <t>"2 companys participants: Company A 15 developers; Company B 8 developers (p06)"</t>
+  </si>
+  <si>
+    <t>"we conducted this study to identify how practi- tioners define the road map to maturity in agile software development. (p94)"</t>
+  </si>
+  <si>
+    <t>"When shaping the organization’s way of answering to these challenging requirements the ‘old’ Capability Maturity Model still offers valuable guidance. (p84)"</t>
+  </si>
+  <si>
+    <t>"This article attempts to put both agile development process and the CMMI in a context where each myth-holder can see the motivation, purpose, benefit, and applicability of each side by describing how CMMI and XP- inspired processes are blended(p05)"</t>
+  </si>
+  <si>
+    <t>"75 employees spread across seven projects (p05)"</t>
+  </si>
+  <si>
+    <t>"If we were committed to CMMi, why SCRUM? Why not just introduce a more traditional methodology? (p02)"</t>
   </si>
 </sst>
 </file>
@@ -2417,7 +2471,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yy;@"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2528,6 +2582,13 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -2585,7 +2646,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2628,8 +2689,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF95B3D7"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="363">
+  <cellStyleXfs count="376">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2993,8 +3063,21 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3142,11 +3225,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="363">
+  <cellStyles count="376">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -3386,6 +3482,19 @@
     <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="361" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="363" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="365" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="367" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="369" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="371" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="373" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="375" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -3975,34 +4084,447 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:doughnutChart>
-        <c:varyColors val="1"/>
+      <c:radarChart>
+        <c:radarStyle val="filled"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:explosion val="25"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.0150375939849624"/>
+                  <c:y val="0.128166915052161"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0691729323308271"/>
+                  <c:y val="0.044709388971684"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0135338345864662"/>
+                  <c:y val="-0.0417287630402385"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0105263157894737"/>
+                  <c:y val="-0.110283394158443"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.061654016932094"/>
+                  <c:y val="-0.0387483718037481"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.0120300751879699"/>
+                  <c:y val="0.0357675111773472"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>pivot!$A$5:$A$14</c:f>
+              <c:f>pivot!$A$6:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>SCRUM</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>Total</c:v>
+                  <c:v>XP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>XP+FDD</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Experience Report</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NA</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>XP+Scrum</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pivot!$B$5:$B$14</c:f>
+              <c:f>pivot!$B$6:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52.0</c:v>
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2121099704"/>
+        <c:axId val="1871864088"/>
+      </c:radarChart>
+      <c:catAx>
+        <c:axId val="2121099704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1871864088"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1871864088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2121099704"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.225704773014484"/>
+          <c:y val="0.0935200651642682"/>
+          <c:w val="0.618549463724442"/>
+          <c:h val="0.829282867227803"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1">
+                    <a:solidFill>
+                      <a:srgbClr val="FFFFFF"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Empírico</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Relato de Experiência</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Teórico</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="52"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup paperSize="9" orientation="portrait" horizontalDpi="-4" verticalDpi="-4"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="111"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="11"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1">
+                    <a:solidFill>
+                      <a:srgbClr val="FFFFFF"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$2:$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Estudo de Caso (multi)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Estudo de Caso (único)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Etnografia</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Survey</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4018,23 +4540,12 @@
           <c:showLeaderLines val="1"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
-        <c:holeSize val="50"/>
-      </c:doughnutChart>
+      </c:pieChart>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="tr"/>
       <c:layout/>
       <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -4087,20 +4598,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="5" name="Chart 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4118,8 +4629,73 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>927100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>850900</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Moisés Palma" refreshedDate="42570.0241306713" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="52">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Moisés Palma" refreshedDate="42572.991094328703" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="52">
   <cacheSource type="worksheet">
     <worksheetSource ref="A2:AJ54" sheet="Study"/>
   </cacheSource>
@@ -4162,16 +4738,12 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Research Method" numFmtId="0">
-      <sharedItems containsBlank="1" count="9">
+      <sharedItems count="5">
         <s v="Case Study (singlecase)"/>
         <s v="NA"/>
         <s v="Survey"/>
         <s v="Ethnografy"/>
         <s v="Case Study (Multicase)"/>
-        <m u="1"/>
-        <s v="Action Research" u="1"/>
-        <s v="-" u="1"/>
-        <s v="Case Study" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Analysis Method" numFmtId="0">
@@ -4214,7 +4786,23 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Agile Method" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="15">
+        <s v="XP+Scrum"/>
+        <s v="XP"/>
+        <s v="XP+FDD"/>
+        <s v="Geral"/>
+        <s v="SCRUM"/>
+        <s v="Scrum+LSD"/>
+        <s v="XP+SCRUM+Others" u="1"/>
+        <s v="Lean Software Dev + Scrum" u="1"/>
+        <s v="XP+Other" u="1"/>
+        <s v="Scrum+Other" u="1"/>
+        <s v="Others" u="1"/>
+        <s v="DSDM;XP" u="1"/>
+        <s v="-" u="1"/>
+        <s v="XP+FDD+SCRUM+Crystal" u="1"/>
+        <s v="other" u="1"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Agile Practices" numFmtId="0">
       <sharedItems containsBlank="1" longText="1"/>
@@ -4283,7 +4871,7 @@
     <s v="software for finance-critical products; embedded applications and services for telecommunication devices; information security field (p682, p684, p685)"/>
     <m/>
     <m/>
-    <s v="XP+Scrum"/>
+    <x v="0"/>
     <s v="&quot;CASE I: The aim of the pilot project was to deploy Scrum. However, a project post-mortem revealed that no agile methods beyond Daily Scrums and Pair-Programming had been applied as such. No evidence concerning systematic iterations or iterative planning could be detected, for example. (p684)&quot;_x000d_&quot;CASE II: The agile practices used by the Case II teams were Scrum sprints, sprint planning meetings, daily meetings, post-game sessions, pair programming, continuous integration, collective code ownership, refactoring and coding standards. Owing to the size of the company the team used was relatively small (3–5) people, although educational level and domain and language expertise were high.(p684)&quot;_x000d_&quot;CASE III: In 2008, the company management made a decision to adopt Scrum and XP practices (i.e. Scrum sprints, sprint planning, daily meeting, post-game sessions, pair programming, continuous integration, collective ownership, simple design, refactoring, coding standards, 40-hour week, TDD) in all projects of the company. Piloting was continued directly afterwards with Scrum and some XP practices (i.e. continuous integration, collective code ownership) in two pilot projects. (p685)"/>
     <m/>
     <s v="Case II: CMMI Level 3"/>
@@ -4321,7 +4909,7 @@
     <s v="The working prototype is currently being used by three different research groups inside the Clinical and Biomedical Proteomics Group, Cancer Research UK Clinical Centre, Leeds Institute of Molecular Medicine. (p289)"/>
     <m/>
     <m/>
-    <s v="XP"/>
+    <x v="1"/>
     <m/>
     <m/>
     <s v="-"/>
@@ -4359,7 +4947,7 @@
     <m/>
     <m/>
     <m/>
-    <s v="XP"/>
+    <x v="1"/>
     <s v="&quot;− releaseplanadherence,_x000d_− percentageoftestcasesthatarerunningsuccessfully,_x000d_− numberofacceptanceteststhatarerunningsuccessfully, − lengthofpairprogrammingsessions,_x000d_− individualvelocity,_x000d_− teamvelocity,_x000d_− velocity,comparedwithestimates.(p82)&quot;"/>
     <m/>
     <s v="-"/>
@@ -4397,7 +4985,7 @@
     <m/>
     <m/>
     <m/>
-    <s v="XP+Scrum"/>
+    <x v="0"/>
     <s v="&quot;Continuous Integration (p12)&quot;"/>
     <m/>
     <m/>
@@ -4435,7 +5023,7 @@
     <s v="&quot;Concerning practical experience with the agile practices we gathered valuable information from seven projects performed in different organizations within the eXpert project (IST-2001-34488; http://www.esi.es/Expert). The trials were focused on applying XP practices in e- commerce and e-business application development. (p11)&quot;"/>
     <m/>
     <m/>
-    <s v="XP+FDD"/>
+    <x v="2"/>
     <s v="&quot;We consider seven principles most important among the ones defined in the investigated methods. Collective code ownership is from XP and the rest of the principles originate from Lean Development._x000d_Avoid sub-optimization. Instead of optimizing the performance of small project parts, optimize the complete system, i.e. focus developers on what’s important, namely meeting the customer’s business needs, not on building a product with the excellent characteristics from technology point of view only._x000d_Decide Late. Take decisions as late as possible, reducing in this way the risk of making mistakes due to insufficient information._x000d_Deliver Fast. Provide rapid delivery to customers. This often translates to increased business flexibility._x000d_Empower the Team. Move decision-making to the lowest possible level in an organization, while developing the capacity of those people to make decisions wisely._x000d_Queuing Theory. Optimize resource management as to reduce the time spent for waiting for a resource to start working on a task._x000d_Simple Rules. Chose a small number of strategically significant processes and craft a few simple rules to guide them. (p10)&quot;"/>
     <m/>
     <m/>
@@ -4473,7 +5061,7 @@
     <s v="Academic domain research"/>
     <s v="a year"/>
     <m/>
-    <s v="XP"/>
+    <x v="1"/>
     <s v="&quot;Planning Game; test-first coding principle; software production is based on_x000d_pair programming; travel light; automated testing&quot; just mentionated in (p2)_x000d__x000d_“XP addresses Level 2’s require- ments management KPA through its use of_x000d_stories, onsite customer, and continuous integration (p3)”_x000d__x000d_"/>
     <m/>
     <s v="CMM Level 2"/>
@@ -4511,7 +5099,7 @@
     <s v="-"/>
     <s v="-"/>
     <s v="-"/>
-    <s v="DSDM;XP"/>
+    <x v="3"/>
     <s v="&quot;As with the customer agile skill assessment, the developer’s agile skills are again not assessed from good to bad, but instead ranked based on their experience with an agile toolset and techniques (xUnit, FIT, refactoring, pair-programming, etc.). The ranking should reflect the developer’s comfort with the agile practices and associated tools. (p107)&quot;_x000d__x000d_&quot;User stories on cards; Burn-down charts, tests; Continuous integration; Pair Programming; Test-driven (p109)&quot;_x000d__x000d_&quot;Developer skills are a high-influencer because of the extent that agile teams automate the build process – some teams implement the agile practice of “continuous integration” using solutions such as Cruise Control that creates a new build and runs associated tests on every source code check-in event. However, these approaches have a steep learning curve. (p110)&quot;"/>
     <m/>
     <s v="-"/>
@@ -4549,7 +5137,7 @@
     <s v="&quot;One of the primary focus areas is to undertake offshored software development and maintenance for clients in the financial services, insurance, travel, transport, retail, distribution, and government sectors. (p70)&quot;"/>
     <s v="3 months"/>
     <m/>
-    <s v="SCRUM"/>
+    <x v="4"/>
     <s v="&quot;The focus on customer collaboration, continuous testing/integration, short iterations and test-first development seem to be the most important agile practices [10]. (p71)&quot;"/>
     <m/>
     <s v="CMMi Level 5"/>
@@ -4587,7 +5175,7 @@
     <s v="The study presents a comparison between agile and more prescriptive methodologies to meet the demands of companies that need to reach maturity levels in CMMI. It explored the enterprise software development market demonstrating the use of MSF in TFS tools promoted by Microsoft Company."/>
     <s v="-"/>
     <s v="-"/>
-    <s v="-"/>
+    <x v="3"/>
     <s v="Iteration Plan, TDD (p188)"/>
     <s v="-"/>
     <s v="CMMi Level 3"/>
@@ -4625,7 +5213,7 @@
     <s v="The survey is conducted in the context of a workshop bringing together different profiles as researchers, sponsors and agilists experts."/>
     <s v="-"/>
     <s v="-"/>
-    <s v="XP+Scrum"/>
+    <x v="0"/>
     <m/>
     <s v="-"/>
     <m/>
@@ -4663,7 +5251,7 @@
     <s v="software outsourcing and application system solutions (p609)"/>
     <s v="-"/>
     <m/>
-    <s v="XP+FDD+SCRUM+Crystal"/>
+    <x v="3"/>
     <s v="&quot;Metaphor (XP);_x000d_Product Backlog (SCRUM); _x000d_Domain Object Modeling (FDD); _x000d_Planning game (XP);_x000d_Pre-game planning and staging (SCRUM); _x000d_Staging (Crystal); _x000d_Small releases (XP)_x000d_Pair Programming (XP);_x000d_Collective Ownership (XP);_x000d_Monitoring (SCRUM);_x000d_Revision and Control (Crystal);_x000d_Inspections (FDD) _x000d_Sprint Review Meeting (SCRUM);_x000d_Feature teams (FDD); _x000d_Planning game (XP)_x000d_Effort estimation (SCRUM); _x000d_Developing by feature (FDD);_x000d_Testing (XP)_x000d_On-site Customer (XP)_x000d_Methodology tuning technique (Crystal);_x000d_ Progress reporting (FDD)&quot; (p08)"/>
     <m/>
     <s v="CMM Level 2"/>
@@ -4701,7 +5289,7 @@
     <s v="small scale software organizations"/>
     <s v="-"/>
     <m/>
-    <s v="XP"/>
+    <x v="1"/>
     <s v="&quot;1. User stories_x000d_2. On-site customer_x000d_3. Release planning _x000d_4. Small releases_x000d_5. Iteration planning_x000d_6. Collective ownership _x000d_7. Continuous integration _x000d_8. Pair programming (p853, 854 and 855)&quot;"/>
     <m/>
     <s v="CMMi Level 1 ad-hoc"/>
@@ -4739,7 +5327,7 @@
     <s v="defense, healthcare, manufacturing, and service industries. business (p4)"/>
     <m/>
     <m/>
-    <s v="Lean Software Dev + Scrum"/>
+    <x v="5"/>
     <s v="product backlog; sprint backlog; Sprint Planning and Sprint Review; Definition of the roles Scrum Master, Product Owner and Team; Sprint Retrospective Meeting (p2, p3). With Lean Software Development the author cites the principles like: Integrity; Create Value; Empower team; See the whole; Deliver Fast and Amplify Learning."/>
     <m/>
     <s v="CMMi Level 3 and 4"/>
@@ -4777,7 +5365,7 @@
     <s v="the automotive industry (p552)"/>
     <m/>
     <m/>
-    <s v="XP+SCRUM+Others"/>
+    <x v="0"/>
     <s v="&quot;Stories; Product Backlog; Planning Game; Daily meetings; On-site customer; Self-organizing teams; Retrospectives;  Small Releases, Daily Stand Up Meetings; ￼Continuous Integration (p554)&quot;"/>
     <m/>
     <m/>
@@ -4815,7 +5403,7 @@
     <s v="Big scale software organization"/>
     <s v="a year"/>
     <m/>
-    <s v="Scrum+Other"/>
+    <x v="3"/>
     <s v="&quot;pair programming; self-organizing teams; Short iterative delivery cycles (p03)&quot;_x000d_&quot;We can track blocking work-in-process (WIP) by monitoring work queuing for processing. (p05)&quot;"/>
     <m/>
     <s v="CMMi Level 3"/>
@@ -4853,7 +5441,7 @@
     <s v="small scale software organizations"/>
     <m/>
     <m/>
-    <s v="XP"/>
+    <x v="1"/>
     <s v="&quot;user-stories, an On-Site customer, and continuous integration (p5)&quot;_x000d_&quot;planning game and small releases (p5)&quot;; &quot;(...)planning game and small releases.(p5)&quot;"/>
     <m/>
     <s v="CMMi Level 2; 3; 4 and 5"/>
@@ -4891,7 +5479,7 @@
     <m/>
     <m/>
     <m/>
-    <s v="XP"/>
+    <x v="1"/>
     <s v="&quot;Defect Prevention (Contineous Integration, XP); Organization process focus (Team Focus, XP);Software product engineering (simple design, coding standard, resting, XP); Intergroup coordination (pair programming, XP); Peer reviews (team work); Software project planning (small version, XP); Software quality assurance (Pair programming,_x000d_XP) (p578)&quot;_x000d_"/>
     <m/>
     <s v="Level 5 to 2"/>
@@ -4929,7 +5517,7 @@
     <s v="-"/>
     <s v="-"/>
     <s v="-"/>
-    <s v="SCRUM"/>
+    <x v="4"/>
     <s v="&quot;As with the customer agile skill assessment, the developer’s agile skills are again not assessed from good to bad, but instead ranked based on their experience with an agile toolset and techniques (xUnit, FIT, refactoring, pair-programming, etc.). The ranking should reflect the developer’s comfort with the agile practices and associated tools. (p107)&quot;_x000d__x000d_&quot;User stories on cards; Burn-down charts, tests; Continuous integration; Pair Programming; Test-driven (p109)&quot;_x000d__x000d_&quot;Developer skills are a high-influencer because of the extent that agile teams automate the build process – some teams implement the agile practice of “continuous integration” using solutions such as Cruise Control that creates a new build and runs associated tests on every source code check-in event. However, these approaches have a steep learning curve. (p110)&quot;"/>
     <m/>
     <s v="-"/>
@@ -4967,7 +5555,7 @@
     <s v="&quot;One of the primary focus areas is to undertake offshored software development and maintenance for clients in the financial services, insurance, travel, transport, retail, distribution, and government sectors. (p70)&quot;"/>
     <s v="3 months"/>
     <m/>
-    <s v="XP"/>
+    <x v="1"/>
     <s v="&quot;The focus on customer collaboration, continuous testing/integration, short iterations and test-first development seem to be the most important agile practices [10]. (p71)&quot;"/>
     <m/>
     <s v="CMMi Level 5"/>
@@ -5005,7 +5593,7 @@
     <s v="The study presents a comparison between agile and more prescriptive methodologies to meet the demands of companies that need to reach maturity levels in CMMI. It explored the enterprise software development market demonstrating the use of MSF in TFS tools promoted by Microsoft Company."/>
     <s v="-"/>
     <s v="-"/>
-    <s v="XP"/>
+    <x v="1"/>
     <s v="Iteration Plan, TDD (p188)"/>
     <s v="-"/>
     <s v="CMMi Level 3"/>
@@ -5043,7 +5631,7 @@
     <s v="software outsourcing and application system solutions (p609)"/>
     <s v="-"/>
     <m/>
-    <s v="XP+Other"/>
+    <x v="3"/>
     <s v="&quot;Besides RUP, a rich set of software engineering practices, including some of XP and SCRUM practices, were introduced in the process, such as testing driven development, refactoring and product backlog.&quot; (p610); "/>
     <m/>
     <s v="CMM Level 2"/>
@@ -5081,7 +5669,7 @@
     <s v="software for finance-critical products; embedded applications and services for telecommunication devices; information security field (p682, p684, p685)"/>
     <m/>
     <m/>
-    <s v="SCRUM"/>
+    <x v="4"/>
     <s v="&quot;CASE I: The aim of the pilot project was to deploy Scrum. However, a project post-mortem revealed that no agile methods beyond Daily Scrums and Pair-Programming had been applied as such. No evidence concerning systematic iterations or iterative planning could be detected, for example. (p684)&quot;_x000d_&quot;CASE II: The agile practices used by the Case II teams were Scrum sprints, sprint planning meetings, daily meetings, post-game sessions, pair programming, continuous integration, collective code ownership, refactoring and coding standards. Owing to the size of the company the team used was relatively small (3–5) people, although educational level and domain and language expertise were high.(p684)&quot;_x000d_&quot;CASE III: In 2008, the company management made a decision to adopt Scrum and XP practices (i.e. Scrum sprints, sprint planning, daily meeting, post-game sessions, pair programming, continuous integration, collective ownership, simple design, refactoring, coding standards, 40-hour week, TDD) in all projects of the company. Piloting was continued directly afterwards with Scrum and some XP practices (i.e. continuous integration, collective code ownership) in two pilot projects. (p685)"/>
     <m/>
     <s v="Case II: CMMI Level 3"/>
@@ -5119,7 +5707,7 @@
     <s v="The working prototype is currently being used by three different research groups inside the Clinical and Biomedical Proteomics Group, Cancer Research UK Clinical Centre, Leeds Institute of Molecular Medicine. (p289)"/>
     <m/>
     <m/>
-    <s v="SCRUM"/>
+    <x v="4"/>
     <m/>
     <m/>
     <s v="-"/>
@@ -5157,7 +5745,7 @@
     <m/>
     <m/>
     <m/>
-    <s v="SCRUM"/>
+    <x v="4"/>
     <s v="&quot;− releaseplanadherence,_x000d_− percentageoftestcasesthatarerunningsuccessfully,_x000d_− numberofacceptanceteststhatarerunningsuccessfully, − lengthofpairprogrammingsessions,_x000d_− individualvelocity,_x000d_− teamvelocity,_x000d_− velocity,comparedwithestimates.(p82)&quot;"/>
     <m/>
     <s v="-"/>
@@ -5195,7 +5783,7 @@
     <m/>
     <m/>
     <m/>
-    <s v="XP"/>
+    <x v="1"/>
     <s v="&quot;Continuous Integration (p12)&quot;"/>
     <m/>
     <m/>
@@ -5233,7 +5821,7 @@
     <s v="&quot;Concerning practical experience with the agile practices we gathered valuable information from seven projects performed in different organizations within the eXpert project (IST-2001-34488; http://www.esi.es/Expert). The trials were focused on applying XP practices in e- commerce and e-business application development. (p11)&quot;"/>
     <m/>
     <m/>
-    <s v="other"/>
+    <x v="3"/>
     <s v="&quot;We consider seven principles most important among the ones defined in the investigated methods. Collective code ownership is from XP and the rest of the principles originate from Lean Development._x000d_Avoid sub-optimization. Instead of optimizing the performance of small project parts, optimize the complete system, i.e. focus developers on what’s important, namely meeting the customer’s business needs, not on building a product with the excellent characteristics from technology point of view only._x000d_Decide Late. Take decisions as late as possible, reducing in this way the risk of making mistakes due to insufficient information._x000d_Deliver Fast. Provide rapid delivery to customers. This often translates to increased business flexibility._x000d_Empower the Team. Move decision-making to the lowest possible level in an organization, while developing the capacity of those people to make decisions wisely._x000d_Queuing Theory. Optimize resource management as to reduce the time spent for waiting for a resource to start working on a task._x000d_Simple Rules. Chose a small number of strategically significant processes and craft a few simple rules to guide them. (p10)&quot;"/>
     <m/>
     <m/>
@@ -5271,7 +5859,7 @@
     <s v="Telecommunication sector"/>
     <s v="a year"/>
     <m/>
-    <s v="XP+Scrum"/>
+    <x v="0"/>
     <s v="&quot;Planning Game; test-first coding principle; software production is based on_x000d_pair programming; travel light; automated testing&quot; just mentionated in (p2)_x000d__x000d_“XP addresses Level 2’s require- ments management KPA through its use of_x000d_stories, onsite customer, and continuous integration (p3)”_x000d__x000d_"/>
     <m/>
     <s v="CMM Level 2"/>
@@ -5309,7 +5897,7 @@
     <s v="-"/>
     <s v="-"/>
     <s v="-"/>
-    <s v="other"/>
+    <x v="3"/>
     <s v="&quot;As with the customer agile skill assessment, the developer’s agile skills are again not assessed from good to bad, but instead ranked based on their experience with an agile toolset and techniques (xUnit, FIT, refactoring, pair-programming, etc.). The ranking should reflect the developer’s comfort with the agile practices and associated tools. (p107)&quot;_x000d__x000d_&quot;User stories on cards; Burn-down charts, tests; Continuous integration; Pair Programming; Test-driven (p109)&quot;_x000d__x000d_&quot;Developer skills are a high-influencer because of the extent that agile teams automate the build process – some teams implement the agile practice of “continuous integration” using solutions such as Cruise Control that creates a new build and runs associated tests on every source code check-in event. However, these approaches have a steep learning curve. (p110)&quot;"/>
     <m/>
     <s v="-"/>
@@ -5347,7 +5935,7 @@
     <s v="&quot;One of the primary focus areas is to undertake offshored software development and maintenance for clients in the financial services, insurance, travel, transport, retail, distribution, and government sectors. (p70)&quot;"/>
     <s v="3 months"/>
     <m/>
-    <s v="XP+Scrum"/>
+    <x v="0"/>
     <s v="&quot;The focus on customer collaboration, continuous testing/integration, short iterations and test-first development seem to be the most important agile practices [10]. (p71)&quot;"/>
     <m/>
     <s v="CMMi Level 5"/>
@@ -5385,7 +5973,7 @@
     <s v="The study presents a comparison between agile and more prescriptive methodologies to meet the demands of companies that need to reach maturity levels in CMMI. It explored the enterprise software development market demonstrating the use of MSF in TFS tools promoted by Microsoft Company."/>
     <s v="-"/>
     <s v="-"/>
-    <s v="other"/>
+    <x v="3"/>
     <s v="Iteration Plan, TDD (p188)"/>
     <s v="-"/>
     <s v="CMMi Level 3"/>
@@ -5423,7 +6011,7 @@
     <s v="software outsourcing and application system solutions (p609)"/>
     <s v="-"/>
     <m/>
-    <s v="XP+Other"/>
+    <x v="3"/>
     <s v="&quot;Besides RUP, a rich set of software engineering practices, including some of XP and SCRUM practices, were introduced in the process, such as testing driven development, refactoring and product backlog.&quot; (p610); "/>
     <m/>
     <s v="CMM Level 2"/>
@@ -5461,7 +6049,7 @@
     <s v="software for finance-critical products; embedded applications and services for telecommunication devices; information security field (p682, p684, p685)"/>
     <m/>
     <m/>
-    <s v="XP"/>
+    <x v="1"/>
     <s v="&quot;CASE I: The aim of the pilot project was to deploy Scrum. However, a project post-mortem revealed that no agile methods beyond Daily Scrums and Pair-Programming had been applied as such. No evidence concerning systematic iterations or iterative planning could be detected, for example. (p684)&quot;_x000d_&quot;CASE II: The agile practices used by the Case II teams were Scrum sprints, sprint planning meetings, daily meetings, post-game sessions, pair programming, continuous integration, collective code ownership, refactoring and coding standards. Owing to the size of the company the team used was relatively small (3–5) people, although educational level and domain and language expertise were high.(p684)&quot;_x000d_&quot;CASE III: In 2008, the company management made a decision to adopt Scrum and XP practices (i.e. Scrum sprints, sprint planning, daily meeting, post-game sessions, pair programming, continuous integration, collective ownership, simple design, refactoring, coding standards, 40-hour week, TDD) in all projects of the company. Piloting was continued directly afterwards with Scrum and some XP practices (i.e. continuous integration, collective code ownership) in two pilot projects. (p685)"/>
     <m/>
     <s v="Case II: CMMI Level 3"/>
@@ -5499,7 +6087,7 @@
     <s v="The working prototype is currently being used by three different research groups inside the Clinical and Biomedical Proteomics Group, Cancer Research UK Clinical Centre, Leeds Institute of Molecular Medicine. (p289)"/>
     <m/>
     <m/>
-    <s v="SCRUM"/>
+    <x v="4"/>
     <m/>
     <m/>
     <s v="-"/>
@@ -5537,7 +6125,7 @@
     <m/>
     <m/>
     <m/>
-    <s v="SCRUM"/>
+    <x v="4"/>
     <s v="&quot;− releaseplanadherence,_x000d_− percentageoftestcasesthatarerunningsuccessfully,_x000d_− numberofacceptanceteststhatarerunningsuccessfully, − lengthofpairprogrammingsessions,_x000d_− individualvelocity,_x000d_− teamvelocity,_x000d_− velocity,comparedwithestimates.(p82)&quot;"/>
     <m/>
     <s v="-"/>
@@ -5575,7 +6163,7 @@
     <s v="small scale software organizations (p01)"/>
     <m/>
     <m/>
-    <s v="XP"/>
+    <x v="1"/>
     <s v="&quot;Continuous Integration (p12)&quot;"/>
     <m/>
     <m/>
@@ -5613,7 +6201,7 @@
     <s v="&quot;Concerning practical experience with the agile practices we gathered valuable information from seven projects performed in different organizations within the eXpert project (IST-2001-34488; http://www.esi.es/Expert). The trials were focused on applying XP practices in e- commerce and e-business application development. (p11)&quot;"/>
     <m/>
     <m/>
-    <s v="XP+SCRUM+Others"/>
+    <x v="0"/>
     <s v="&quot;We consider seven principles most important among the ones defined in the investigated methods. Collective code ownership is from XP and the rest of the principles originate from Lean Development._x000d_Avoid sub-optimization. Instead of optimizing the performance of small project parts, optimize the complete system, i.e. focus developers on what’s important, namely meeting the customer’s business needs, not on building a product with the excellent characteristics from technology point of view only._x000d_Decide Late. Take decisions as late as possible, reducing in this way the risk of making mistakes due to insufficient information._x000d_Deliver Fast. Provide rapid delivery to customers. This often translates to increased business flexibility._x000d_Empower the Team. Move decision-making to the lowest possible level in an organization, while developing the capacity of those people to make decisions wisely._x000d_Queuing Theory. Optimize resource management as to reduce the time spent for waiting for a resource to start working on a task._x000d_Simple Rules. Chose a small number of strategically significant processes and craft a few simple rules to guide them. (p10)&quot;"/>
     <m/>
     <m/>
@@ -5651,7 +6239,7 @@
     <s v="Academic domain research"/>
     <s v="a year"/>
     <m/>
-    <s v="XP+Scrum"/>
+    <x v="0"/>
     <s v="&quot;Planning Game; test-first coding principle; software production is based on_x000d_pair programming; travel light; automated testing&quot; just mentionated in (p2)_x000d__x000d_“XP addresses Level 2’s require- ments management KPA through its use of_x000d_stories, onsite customer, and continuous integration (p3)”_x000d__x000d_"/>
     <m/>
     <s v="CMM Level 2"/>
@@ -5689,7 +6277,7 @@
     <s v="-"/>
     <s v="-"/>
     <s v="-"/>
-    <s v="Others"/>
+    <x v="3"/>
     <s v="&quot;As with the customer agile skill assessment, the developer’s agile skills are again not assessed from good to bad, but instead ranked based on their experience with an agile toolset and techniques (xUnit, FIT, refactoring, pair-programming, etc.). The ranking should reflect the developer’s comfort with the agile practices and associated tools. (p107)&quot;_x000d__x000d_&quot;User stories on cards; Burn-down charts, tests; Continuous integration; Pair Programming; Test-driven (p109)&quot;_x000d__x000d_&quot;Developer skills are a high-influencer because of the extent that agile teams automate the build process – some teams implement the agile practice of “continuous integration” using solutions such as Cruise Control that creates a new build and runs associated tests on every source code check-in event. However, these approaches have a steep learning curve. (p110)&quot;"/>
     <m/>
     <s v="-"/>
@@ -5727,7 +6315,7 @@
     <s v="&quot;One of the primary focus areas is to undertake offshored software development and maintenance for clients in the financial services, insurance, travel, transport, retail, distribution, and government sectors. (p70)&quot;"/>
     <s v="3 months"/>
     <m/>
-    <s v="XP+Scrum"/>
+    <x v="0"/>
     <s v="&quot;The focus on customer collaboration, continuous testing/integration, short iterations and test-first development seem to be the most important agile practices [10]. (p71)&quot;"/>
     <m/>
     <s v="CMMi Level 5"/>
@@ -5765,7 +6353,7 @@
     <s v="The study presents a comparison between agile and more prescriptive methodologies to meet the demands of companies that need to reach maturity levels in CMMI. It explored the enterprise software development market demonstrating the use of MSF in TFS tools promoted by Microsoft Company."/>
     <s v="-"/>
     <s v="-"/>
-    <s v="XP"/>
+    <x v="1"/>
     <s v="Iteration Plan, TDD (p188)"/>
     <s v="-"/>
     <s v="CMMi Level 3"/>
@@ -5803,7 +6391,7 @@
     <s v="software outsourcing and application system solutions (p609)"/>
     <s v="-"/>
     <m/>
-    <s v="SCRUM"/>
+    <x v="4"/>
     <s v="&quot;Besides RUP, a rich set of software engineering practices, including some of XP and SCRUM practices, were introduced in the process, such as testing driven development, refactoring and product backlog.&quot; (p610); "/>
     <m/>
     <s v="CMM Level 2"/>
@@ -5841,7 +6429,7 @@
     <s v="technology-based innovations in the healthcare, lifestyle and technology domains (p390)"/>
     <s v="-"/>
     <m/>
-    <s v="XP+Scrum"/>
+    <x v="0"/>
     <s v="All from XP, some managerial and organizational from Scrum and PDCA as aditional practice (p391)"/>
     <s v="&quot;certification was not, and shall never be, a goal by itself! We used it in order to measure the progress of our quality activities with guided self-assessments, called Interim Maturity Evaluations (IME) in CMM, and to be able to benchmark our software development process with other organisations.&quot; (p391)"/>
     <s v="CMM Level 2"/>
@@ -5879,7 +6467,7 @@
     <s v="small scale software organizations"/>
     <m/>
     <m/>
-    <s v="XP+Scrum"/>
+    <x v="0"/>
     <m/>
     <m/>
     <s v="Case II: CMMI Level 3"/>
@@ -5917,7 +6505,7 @@
     <s v="The working prototype is currently being used by three different research groups inside the Clinical and Biomedical Proteomics Group, Cancer Research UK Clinical Centre, Leeds Institute of Molecular Medicine. (p289)"/>
     <m/>
     <m/>
-    <s v="XP"/>
+    <x v="1"/>
     <m/>
     <m/>
     <s v="-"/>
@@ -5955,7 +6543,7 @@
     <m/>
     <m/>
     <m/>
-    <s v="Others"/>
+    <x v="3"/>
     <s v="&quot;− releaseplanadherence,_x000d_− percentageoftestcasesthatarerunningsuccessfully,_x000d_− numberofacceptanceteststhatarerunningsuccessfully, − lengthofpairprogrammingsessions,_x000d_− individualvelocity,_x000d_− teamvelocity,_x000d_− velocity,comparedwithestimates.(p82)&quot;"/>
     <m/>
     <s v="-"/>
@@ -5993,7 +6581,7 @@
     <m/>
     <m/>
     <m/>
-    <s v="Others"/>
+    <x v="3"/>
     <s v="&quot;Continuous Integration (p12)&quot;"/>
     <m/>
     <m/>
@@ -6031,7 +6619,7 @@
     <s v="&quot;Concerning practical experience with the agile practices we gathered valuable information from seven projects performed in different organizations within the eXpert project (IST-2001-34488; http://www.esi.es/Expert). The trials were focused on applying XP practices in e- commerce and e-business application development. (p11)&quot;"/>
     <m/>
     <m/>
-    <s v="SCRUM"/>
+    <x v="4"/>
     <s v="&quot;We consider seven principles most important among the ones defined in the investigated methods. Collective code ownership is from XP and the rest of the principles originate from Lean Development._x000d_Avoid sub-optimization. Instead of optimizing the performance of small project parts, optimize the complete system, i.e. focus developers on what’s important, namely meeting the customer’s business needs, not on building a product with the excellent characteristics from technology point of view only._x000d_Decide Late. Take decisions as late as possible, reducing in this way the risk of making mistakes due to insufficient information._x000d_Deliver Fast. Provide rapid delivery to customers. This often translates to increased business flexibility._x000d_Empower the Team. Move decision-making to the lowest possible level in an organization, while developing the capacity of those people to make decisions wisely._x000d_Queuing Theory. Optimize resource management as to reduce the time spent for waiting for a resource to start working on a task._x000d_Simple Rules. Chose a small number of strategically significant processes and craft a few simple rules to guide them. (p10)&quot;"/>
     <m/>
     <m/>
@@ -6069,7 +6657,7 @@
     <s v="Academic domain research"/>
     <m/>
     <m/>
-    <s v="XP"/>
+    <x v="1"/>
     <s v="&quot;Planning Game; test-first coding principle; software production is based on_x000d_pair programming; travel light; automated testing&quot; just mentionated in (p2)_x000d__x000d_“XP addresses Level 2’s require- ments management KPA through its use of_x000d_stories, onsite customer, and continuous integration (p3)”_x000d__x000d_"/>
     <m/>
     <s v="CMM Level 2"/>
@@ -6107,7 +6695,7 @@
     <s v="-"/>
     <s v="-"/>
     <s v="-"/>
-    <s v="XP+Scrum"/>
+    <x v="0"/>
     <s v="&quot;As with the customer agile skill assessment, the developer’s agile skills are again not assessed from good to bad, but instead ranked based on their experience with an agile toolset and techniques (xUnit, FIT, refactoring, pair-programming, etc.). The ranking should reflect the developer’s comfort with the agile practices and associated tools. (p107)&quot;_x000d__x000d_&quot;User stories on cards; Burn-down charts, tests; Continuous integration; Pair Programming; Test-driven (p109)&quot;_x000d__x000d_&quot;Developer skills are a high-influencer because of the extent that agile teams automate the build process – some teams implement the agile practice of “continuous integration” using solutions such as Cruise Control that creates a new build and runs associated tests on every source code check-in event. However, these approaches have a steep learning curve. (p110)&quot;"/>
     <m/>
     <s v="-"/>
@@ -6145,7 +6733,7 @@
     <m/>
     <m/>
     <m/>
-    <s v="SCRUM"/>
+    <x v="4"/>
     <s v="&quot;− releaseplanadherence,_x000d_− percentageoftestcasesthatarerunningsuccessfully,_x000d_− numberofacceptanceteststhatarerunningsuccessfully, − lengthofpairprogrammingsessions,_x000d_− individualvelocity,_x000d_− teamvelocity,_x000d_− velocity,comparedwithestimates.(p82)&quot;"/>
     <m/>
     <s v="-"/>
@@ -6183,7 +6771,7 @@
     <s v="software outsourcing and application system solutions (p609)"/>
     <s v="-"/>
     <m/>
-    <s v="SCRUM"/>
+    <x v="4"/>
     <m/>
     <m/>
     <s v="CMM Level 2"/>
@@ -6221,7 +6809,7 @@
     <s v="software for finance-critical products; embedded applications and services for telecommunication devices; information security field (p682, p684, p685)"/>
     <m/>
     <m/>
-    <s v="XP+Scrum"/>
+    <x v="0"/>
     <s v="&quot;CASE I: The aim of the pilot project was to deploy Scrum. However, a project post-mortem revealed that no agile methods beyond Daily Scrums and Pair-Programming had been applied as such. No evidence concerning systematic iterations or iterative planning could be detected, for example. (p684)&quot;_x000d_&quot;CASE II: The agile practices used by the Case II teams were Scrum sprints, sprint planning meetings, daily meetings, post-game sessions, pair programming, continuous integration, collective code ownership, refactoring and coding standards. Owing to the size of the company the team used was relatively small (3–5) people, although educational level and domain and language expertise were high.(p684)&quot;_x000d_&quot;CASE III: In 2008, the company management made a decision to adopt Scrum and XP practices (i.e. Scrum sprints, sprint planning, daily meeting, post-game sessions, pair programming, continuous integration, collective ownership, simple design, refactoring, coding standards, 40-hour week, TDD) in all projects of the company. Piloting was continued directly afterwards with Scrum and some XP practices (i.e. continuous integration, collective code ownership) in two pilot projects. (p685)"/>
     <m/>
     <s v="Case II: CMMI Level 3"/>
@@ -6237,8 +6825,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="A4:C6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="42" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="A4:B16" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="36">
     <pivotField showAll="0"/>
     <pivotField numFmtId="164" showAll="0"/>
@@ -6250,7 +6838,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisPage" dataField="1" showAll="0">
+    <pivotField axis="axisRow" showAll="0">
       <items count="4">
         <item x="0"/>
         <item x="1"/>
@@ -6258,17 +6846,13 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisPage" dataField="1" showAll="0">
-      <items count="10">
-        <item m="1" x="7"/>
-        <item m="1" x="6"/>
-        <item m="1" x="8"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
         <item x="4"/>
         <item x="0"/>
         <item x="3"/>
         <item x="1"/>
         <item x="2"/>
-        <item m="1" x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -6285,7 +6869,26 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="16">
+        <item m="1" x="12"/>
+        <item m="1" x="11"/>
+        <item m="1" x="7"/>
+        <item m="1" x="14"/>
+        <item m="1" x="10"/>
+        <item sd="0" x="4"/>
+        <item m="1" x="9"/>
+        <item sd="0" x="1"/>
+        <item x="2"/>
+        <item m="1" x="13"/>
+        <item m="1" x="8"/>
+        <item sd="0" x="0"/>
+        <item m="1" x="6"/>
+        <item sd="0" x="3"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -6297,27 +6900,51 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
+  <rowFields count="3">
+    <field x="25"/>
+    <field x="10"/>
+    <field x="11"/>
+  </rowFields>
+  <rowItems count="11">
     <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i t="grand">
       <x/>
     </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
   </colItems>
-  <pageFields count="2">
-    <pageField fld="10" hier="-1"/>
-    <pageField fld="11" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Count of Design" fld="10" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Count of Research Method" fld="11" subtotal="count" baseField="0" baseItem="0"/>
+  <dataFields count="1">
+    <dataField name="Count of Agile Method" fld="25" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -6615,13 +7242,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AK59"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="I6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="5" ySplit="5" topLeftCell="M48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="L36" sqref="L36"/>
+      <selection pane="bottomRight" activeCell="Q51" sqref="Q51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6663,14 +7291,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="28">
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
       <c r="K1" s="21" t="s">
         <v>36</v>
       </c>
@@ -6772,7 +7400,7 @@
         <v>34</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC2" s="7" t="s">
         <v>32</v>
@@ -6799,43 +7427,43 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:37" s="13" customFormat="1" ht="70">
+    <row r="3" spans="1:37" s="13" customFormat="1" ht="70" hidden="1">
       <c r="A3" s="47" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="B3" s="48">
         <f t="shared" ref="B3:B43" si="0">E3</f>
         <v>2012</v>
       </c>
       <c r="C3" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="55" t="s">
         <v>122</v>
-      </c>
-      <c r="D3" s="55" t="s">
-        <v>123</v>
       </c>
       <c r="E3" s="56">
         <v>2012</v>
       </c>
       <c r="F3" s="55" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G3" s="55" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H3" s="57" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J3" s="17" t="s">
         <v>52</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="L3" s="39" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M3" t="s">
         <v>64</v>
@@ -6847,83 +7475,83 @@
         <v>57</v>
       </c>
       <c r="P3" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q3" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="R3" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="S3" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="T3" s="39" t="s">
         <v>274</v>
       </c>
-      <c r="Q3" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="R3" s="19" t="s">
+      <c r="U3" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="S3" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="T3" s="39" t="s">
-        <v>275</v>
-      </c>
-      <c r="U3" s="39" t="s">
+      <c r="V3" s="39" t="s">
         <v>277</v>
       </c>
-      <c r="V3" s="39" t="s">
+      <c r="W3" s="40" t="s">
         <v>278</v>
-      </c>
-      <c r="W3" s="40" t="s">
-        <v>279</v>
       </c>
       <c r="X3"/>
       <c r="Y3"/>
       <c r="Z3" s="39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AA3" s="40" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AB3"/>
       <c r="AC3" t="s">
+        <v>280</v>
+      </c>
+      <c r="AD3" t="s">
         <v>281</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="AE3" s="11" t="s">
+      <c r="AF3" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG3" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="AF3" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG3" s="11" t="s">
+      <c r="AH3" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="AI3" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="AH3" s="11" t="s">
+      <c r="AJ3" s="11" t="s">
         <v>286</v>
-      </c>
-      <c r="AI3" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="AJ3" s="11" t="s">
-        <v>287</v>
       </c>
       <c r="AK3" s="10"/>
     </row>
     <row r="4" spans="1:37" ht="70">
       <c r="A4" s="38" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="B4" s="37">
         <f t="shared" si="0"/>
         <v>2011</v>
       </c>
       <c r="C4" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="25" t="s">
         <v>126</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>127</v>
       </c>
       <c r="E4" s="26">
         <v>2011</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G4" s="25" t="s">
         <v>50</v>
@@ -6932,7 +7560,7 @@
         <v>51</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J4" s="19" t="s">
         <v>52</v>
@@ -6952,22 +7580,24 @@
       </c>
       <c r="P4" s="13"/>
       <c r="Q4" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="R4" s="13"/>
+        <v>82</v>
+      </c>
+      <c r="R4" s="13" t="s">
+        <v>525</v>
+      </c>
       <c r="S4" s="13"/>
       <c r="T4" s="13"/>
       <c r="U4" s="13"/>
       <c r="V4" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="W4" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="X4" s="13"/>
       <c r="Y4" s="13"/>
       <c r="Z4" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AA4" s="13"/>
       <c r="AB4" s="13"/>
@@ -6975,54 +7605,54 @@
         <v>54</v>
       </c>
       <c r="AD4" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AE4" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="AF4" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG4" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="AH4" s="15" t="s">
         <v>289</v>
-      </c>
-      <c r="AF4" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG4" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="AH4" s="15" t="s">
-        <v>290</v>
       </c>
       <c r="AI4" s="14"/>
       <c r="AJ4" s="14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AK4" s="12"/>
     </row>
     <row r="5" spans="1:37" s="13" customFormat="1" ht="56">
       <c r="A5" s="38" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="B5" s="37">
         <f t="shared" si="0"/>
         <v>2003</v>
       </c>
       <c r="C5" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="25" t="s">
         <v>129</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>130</v>
       </c>
       <c r="E5" s="26">
         <v>2003</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J5" s="17" t="s">
         <v>52</v>
@@ -7043,13 +7673,13 @@
         <v>57</v>
       </c>
       <c r="P5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q5" t="s">
-        <v>83</v>
-      </c>
-      <c r="R5" t="s">
-        <v>54</v>
+        <v>82</v>
+      </c>
+      <c r="R5" s="13" t="s">
+        <v>525</v>
       </c>
       <c r="S5" t="s">
         <v>54</v>
@@ -7057,26 +7687,26 @@
       <c r="T5"/>
       <c r="U5"/>
       <c r="V5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="W5"/>
       <c r="X5"/>
       <c r="Y5"/>
       <c r="Z5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AA5" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AB5"/>
       <c r="AC5" t="s">
         <v>54</v>
       </c>
       <c r="AD5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AE5" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AF5" s="11" t="s">
         <v>54</v>
@@ -7086,47 +7716,47 @@
       </c>
       <c r="AH5"/>
       <c r="AI5" t="s">
+        <v>299</v>
+      </c>
+      <c r="AJ5" s="11" t="s">
         <v>300</v>
-      </c>
-      <c r="AJ5" s="11" t="s">
-        <v>301</v>
       </c>
       <c r="AK5" s="10"/>
     </row>
     <row r="6" spans="1:37" ht="70">
       <c r="A6" s="38" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="B6" s="37">
         <f t="shared" ref="B6:B37" si="1">E6</f>
         <v>2008</v>
       </c>
       <c r="C6" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="25" t="s">
         <v>132</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>133</v>
       </c>
       <c r="E6" s="26">
         <v>2008</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G6" s="25" t="s">
         <v>50</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J6" s="17" t="s">
         <v>52</v>
       </c>
       <c r="K6" s="41" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L6" s="13" t="s">
         <v>52</v>
@@ -7135,64 +7765,67 @@
         <v>64</v>
       </c>
       <c r="N6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O6" t="s">
         <v>57</v>
       </c>
       <c r="P6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q6" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+      <c r="R6" s="13" t="s">
+        <v>525</v>
       </c>
       <c r="V6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Z6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AA6" t="s">
+        <v>305</v>
+      </c>
+      <c r="AD6" t="s">
         <v>306</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AI6" t="s">
+        <v>304</v>
+      </c>
+      <c r="AJ6" t="s">
         <v>307</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>305</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:37" ht="42">
       <c r="A7" s="38" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="B7" s="37">
         <f t="shared" si="1"/>
         <v>2005</v>
       </c>
       <c r="C7" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="25" t="s">
         <v>134</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>135</v>
       </c>
       <c r="E7" s="26">
         <v>2005</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I7" s="54" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J7" s="17" t="s">
         <v>52</v>
@@ -7213,13 +7846,13 @@
         <v>57</v>
       </c>
       <c r="P7" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q7" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="R7" s="39" t="s">
-        <v>54</v>
+        <v>273</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>82</v>
+      </c>
+      <c r="R7" s="13" t="s">
+        <v>525</v>
       </c>
       <c r="S7" s="39" t="s">
         <v>54</v>
@@ -7234,16 +7867,16 @@
         <v>56</v>
       </c>
       <c r="W7" s="40" t="s">
+        <v>309</v>
+      </c>
+      <c r="Z7" t="s">
         <v>310</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="AA7" s="11" t="s">
+      <c r="AE7" s="11" t="s">
         <v>312</v>
-      </c>
-      <c r="AE7" s="11" t="s">
-        <v>313</v>
       </c>
       <c r="AF7" t="s">
         <v>54</v>
@@ -7252,43 +7885,43 @@
         <v>62</v>
       </c>
       <c r="AH7" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AI7" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="70">
+    <row r="8" spans="1:37" ht="70" hidden="1">
       <c r="A8" s="38" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="B8" s="37">
         <f t="shared" si="1"/>
         <v>2002</v>
       </c>
       <c r="C8" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="D8" s="25" t="s">
         <v>187</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>188</v>
       </c>
       <c r="E8" s="24">
         <v>2002</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G8" s="25" t="s">
         <v>50</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I8" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="J8" s="11" t="s">
         <v>316</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>317</v>
       </c>
       <c r="K8" s="17" t="s">
         <v>53</v>
@@ -7306,85 +7939,85 @@
         <v>57</v>
       </c>
       <c r="P8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q8" s="39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R8" t="s">
+        <v>317</v>
+      </c>
+      <c r="S8" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="T8" t="s">
         <v>318</v>
       </c>
-      <c r="S8" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="T8" t="s">
+      <c r="U8" s="39" t="s">
         <v>319</v>
       </c>
-      <c r="U8" s="39" t="s">
+      <c r="V8" t="s">
+        <v>295</v>
+      </c>
+      <c r="W8" s="39" t="s">
         <v>320</v>
       </c>
-      <c r="V8" t="s">
-        <v>296</v>
-      </c>
-      <c r="W8" s="39" t="s">
+      <c r="X8" t="s">
         <v>321</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Z8" t="s">
+        <v>292</v>
+      </c>
+      <c r="AA8" s="11" t="s">
         <v>322</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>293</v>
-      </c>
-      <c r="AA8" s="11" t="s">
-        <v>323</v>
       </c>
       <c r="AC8" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AD8" t="s">
+        <v>323</v>
+      </c>
+      <c r="AE8" s="11" t="s">
         <v>324</v>
-      </c>
-      <c r="AE8" s="11" t="s">
-        <v>325</v>
       </c>
       <c r="AG8" t="s">
         <v>62</v>
       </c>
       <c r="AH8" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AI8" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:37" ht="56">
       <c r="A9" s="38" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="B9" s="37">
         <f t="shared" si="1"/>
         <v>2006</v>
       </c>
       <c r="C9" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="D9" s="25" t="s">
         <v>190</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>191</v>
       </c>
       <c r="E9" s="24">
         <v>2006</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G9" s="25" t="s">
         <v>50</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I9" s="54" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K9" s="17" t="s">
         <v>53</v>
@@ -7396,19 +8029,19 @@
         <v>72</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="O9" t="s">
         <v>57</v>
       </c>
       <c r="P9" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>83</v>
-      </c>
-      <c r="R9" t="s">
-        <v>54</v>
+        <v>273</v>
+      </c>
+      <c r="Q9" s="13" t="s">
+        <v>525</v>
+      </c>
+      <c r="R9" s="13" t="s">
+        <v>525</v>
       </c>
       <c r="S9" t="s">
         <v>54</v>
@@ -7420,73 +8053,73 @@
         <v>54</v>
       </c>
       <c r="V9" t="s">
+        <v>328</v>
+      </c>
+      <c r="W9" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="X9" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y9" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z9" s="40" t="s">
+        <v>522</v>
+      </c>
+      <c r="AA9" s="40" t="s">
         <v>329</v>
       </c>
-      <c r="W9" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="X9" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y9" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z9" s="40" t="s">
+      <c r="AC9" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD9" t="s">
         <v>330</v>
       </c>
-      <c r="AA9" s="40" t="s">
-        <v>331</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>332</v>
-      </c>
       <c r="AE9" s="11" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AG9" t="s">
         <v>62</v>
       </c>
       <c r="AH9" s="11" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AI9" s="11" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AJ9" s="11" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
-    <row r="10" spans="1:37" ht="56">
+    <row r="10" spans="1:37" ht="56" hidden="1">
       <c r="A10" s="38" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="B10" s="37">
         <f t="shared" si="1"/>
         <v>2011</v>
       </c>
       <c r="C10" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="25" t="s">
         <v>137</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>138</v>
       </c>
       <c r="E10" s="26">
         <v>2011</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G10" s="25" t="s">
         <v>50</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K10" s="17" t="s">
         <v>53</v>
@@ -7501,88 +8134,88 @@
         <v>57</v>
       </c>
       <c r="Q10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R10" t="s">
+        <v>340</v>
+      </c>
+      <c r="S10" t="s">
+        <v>54</v>
+      </c>
+      <c r="T10" t="s">
+        <v>54</v>
+      </c>
+      <c r="U10" t="s">
+        <v>54</v>
+      </c>
+      <c r="V10" t="s">
+        <v>328</v>
+      </c>
+      <c r="W10" s="40" t="s">
+        <v>337</v>
+      </c>
+      <c r="X10" s="40" t="s">
+        <v>341</v>
+      </c>
+      <c r="Z10" s="40" t="s">
+        <v>338</v>
+      </c>
+      <c r="AA10" s="40" t="s">
         <v>342</v>
       </c>
-      <c r="S10" t="s">
-        <v>54</v>
-      </c>
-      <c r="T10" t="s">
-        <v>54</v>
-      </c>
-      <c r="U10" t="s">
-        <v>54</v>
-      </c>
-      <c r="V10" t="s">
-        <v>329</v>
-      </c>
-      <c r="W10" s="40" t="s">
-        <v>339</v>
-      </c>
-      <c r="X10" s="40" t="s">
+      <c r="AC10" t="s">
         <v>343</v>
       </c>
-      <c r="Z10" s="40" t="s">
-        <v>340</v>
-      </c>
-      <c r="AA10" s="40" t="s">
-        <v>344</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>345</v>
-      </c>
       <c r="AD10" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AE10" s="11" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AG10" t="s">
         <v>62</v>
       </c>
       <c r="AH10" s="11" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AI10" s="11" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AJ10" s="11" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" spans="1:37" ht="56">
       <c r="A11" s="38" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="B11" s="37">
         <f t="shared" si="1"/>
         <v>2008</v>
       </c>
       <c r="C11" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="25" t="s">
         <v>140</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>141</v>
       </c>
       <c r="E11" s="26">
         <v>2008</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G11" s="25" t="s">
         <v>50</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K11" s="19" t="s">
         <v>53</v>
@@ -7603,10 +8236,10 @@
         <v>54</v>
       </c>
       <c r="Q11" t="s">
-        <v>83</v>
-      </c>
-      <c r="R11" t="s">
-        <v>54</v>
+        <v>82</v>
+      </c>
+      <c r="R11" s="13" t="s">
+        <v>525</v>
       </c>
       <c r="S11" t="s">
         <v>54</v>
@@ -7618,82 +8251,82 @@
         <v>54</v>
       </c>
       <c r="V11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="W11" s="40" t="s">
+        <v>351</v>
+      </c>
+      <c r="X11" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y11" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z11" s="40" t="s">
+        <v>522</v>
+      </c>
+      <c r="AA11" s="40" t="s">
         <v>353</v>
       </c>
-      <c r="X11" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y11" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z11" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA11" s="40" t="s">
+      <c r="AB11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>352</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>354</v>
+      </c>
+      <c r="AE11" s="11" t="s">
         <v>355</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>354</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>356</v>
-      </c>
-      <c r="AE11" s="11" t="s">
-        <v>357</v>
       </c>
       <c r="AG11" t="s">
         <v>62</v>
       </c>
       <c r="AH11" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="AI11" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="AJ11" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="AI11" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="AJ11" s="11" t="s">
-        <v>360</v>
-      </c>
     </row>
-    <row r="12" spans="1:37" ht="56">
+    <row r="12" spans="1:37" ht="56" hidden="1">
       <c r="A12" s="38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B12" s="37">
         <f t="shared" si="1"/>
         <v>2002</v>
       </c>
       <c r="C12" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" s="25" t="s">
         <v>143</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>144</v>
       </c>
       <c r="E12" s="26">
         <v>2002</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="L12" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="M12" t="s">
         <v>64</v>
@@ -7702,28 +8335,28 @@
         <v>57</v>
       </c>
       <c r="P12" s="39" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="Q12" t="s">
-        <v>364</v>
+        <v>526</v>
       </c>
       <c r="R12" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="S12" t="s">
         <v>54</v>
       </c>
       <c r="T12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V12" s="39" t="s">
         <v>56</v>
       </c>
       <c r="W12" s="40" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="X12" s="40" t="s">
         <v>54</v>
@@ -7732,55 +8365,55 @@
         <v>54</v>
       </c>
       <c r="Z12" s="40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AB12" t="s">
         <v>54</v>
       </c>
       <c r="AE12" s="11" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AG12" t="s">
         <v>64</v>
       </c>
       <c r="AI12" s="11" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="60">
+    <row r="13" spans="1:37" ht="60" hidden="1">
       <c r="A13" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B13" s="37">
         <f t="shared" si="1"/>
         <v>2007</v>
       </c>
       <c r="C13" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="D13" s="29" t="s">
         <v>193</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>194</v>
       </c>
       <c r="E13" s="30">
         <v>2007</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G13" s="25" t="s">
         <v>50</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I13" s="53" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="J13" s="53" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L13" s="13" t="s">
         <v>52</v>
@@ -7798,7 +8431,7 @@
         <v>54</v>
       </c>
       <c r="Q13" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R13" s="13" t="s">
         <v>73</v>
@@ -7823,20 +8456,20 @@
       </c>
       <c r="Y13" s="13"/>
       <c r="Z13" s="13" t="s">
-        <v>418</v>
+        <v>522</v>
       </c>
       <c r="AA13" s="14" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="AB13" s="13"/>
       <c r="AC13" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AD13" s="13" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="AE13" s="13" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="AF13" s="13" t="s">
         <v>54</v>
@@ -7845,52 +8478,52 @@
         <v>62</v>
       </c>
       <c r="AH13" s="13" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="AI13" s="14" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AJ13" s="14" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="45">
+    <row r="14" spans="1:37" ht="45" hidden="1">
       <c r="A14" s="38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="37">
         <f t="shared" si="1"/>
         <v>2012</v>
       </c>
       <c r="C14" s="45" t="s">
+        <v>194</v>
+      </c>
+      <c r="D14" s="29" t="s">
         <v>195</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>196</v>
       </c>
       <c r="E14" s="30">
         <v>2012</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G14" s="25" t="s">
         <v>50</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I14" s="49" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="J14" s="17" t="s">
         <v>52</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="L14" s="39" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="M14" s="13" t="s">
         <v>72</v>
@@ -7902,85 +8535,85 @@
         <v>57</v>
       </c>
       <c r="P14" s="40" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="Q14" s="39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R14" s="19" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="S14" s="39"/>
       <c r="T14" s="39"/>
       <c r="U14" s="39" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="V14" s="39" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="W14" s="39" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="X14" s="39" t="s">
         <v>54</v>
       </c>
       <c r="Z14" s="39" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AA14" s="40" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="AC14" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="AD14" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="AE14" s="11" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="AF14" s="11"/>
       <c r="AG14" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AH14" s="11" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="AI14" s="11" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="AJ14" s="11" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="45">
+    <row r="15" spans="1:37" ht="45" hidden="1">
       <c r="A15" s="38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B15" s="37">
         <f t="shared" si="1"/>
         <v>2008</v>
       </c>
       <c r="C15" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="29" t="s">
         <v>145</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>146</v>
       </c>
       <c r="E15" s="30">
         <v>2008</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G15" s="25" t="s">
         <v>50</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I15" s="51" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="J15" s="19" t="s">
         <v>52</v>
@@ -8001,13 +8634,13 @@
         <v>57</v>
       </c>
       <c r="P15" s="13" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="Q15" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R15" s="13" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="S15" s="13" t="s">
         <v>54</v>
@@ -8019,73 +8652,73 @@
         <v>54</v>
       </c>
       <c r="V15" s="13" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="W15" s="13" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="Y15" s="13"/>
       <c r="Z15" s="13" t="s">
-        <v>435</v>
+        <v>523</v>
       </c>
       <c r="AA15" s="13" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="AB15" s="13"/>
       <c r="AC15" s="13" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AD15" s="13"/>
       <c r="AE15" s="14" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AF15" s="13" t="s">
         <v>54</v>
       </c>
       <c r="AG15" s="13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH15" s="15" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AI15" s="14" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AJ15" s="14" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="60">
+    <row r="16" spans="1:37" ht="60" hidden="1">
       <c r="A16" s="38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B16" s="37">
         <f t="shared" si="1"/>
         <v>2008</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E16" s="30">
         <v>2008</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G16" s="29" t="s">
         <v>50</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I16" s="49" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="J16" s="54" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="K16" s="19" t="s">
         <v>53</v>
@@ -8100,74 +8733,74 @@
         <v>57</v>
       </c>
       <c r="P16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R16" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="V16" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="W16" t="s">
+        <v>440</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>524</v>
+      </c>
+      <c r="AA16" s="40" t="s">
+        <v>444</v>
+      </c>
+      <c r="AD16" t="s">
         <v>445</v>
       </c>
-      <c r="Z16" t="s">
-        <v>448</v>
-      </c>
-      <c r="AA16" s="40" t="s">
-        <v>450</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>451</v>
-      </c>
       <c r="AE16" s="11" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="AF16" s="11"/>
       <c r="AG16" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AH16" s="11" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="AI16" s="11" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="AJ16" s="11" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="17" spans="1:36" ht="70">
       <c r="A17" s="38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B17" s="37">
         <f t="shared" si="1"/>
         <v>2005</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E17" s="30">
         <v>2005</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G17" s="29" t="s">
         <v>50</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I17" s="50" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="J17" s="17" t="s">
         <v>52</v>
@@ -8188,80 +8821,79 @@
         <v>54</v>
       </c>
       <c r="Q17" t="s">
-        <v>83</v>
-      </c>
-      <c r="R17">
-        <f>-S17</f>
-        <v>0</v>
+        <v>82</v>
+      </c>
+      <c r="R17" t="s">
+        <v>525</v>
       </c>
       <c r="V17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="W17" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="X17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="Z17" t="s">
-        <v>457</v>
+        <v>522</v>
       </c>
       <c r="AA17" s="14" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="AC17" s="13" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AD17" s="13" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="AE17" s="14" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="AG17" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AH17" s="15" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="AI17" s="14" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="AJ17" s="14" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
     <row r="18" spans="1:36" ht="75">
       <c r="A18" s="38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B18" s="37">
         <f t="shared" si="1"/>
         <v>2008</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E18" s="30">
         <v>2008</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G18" s="29" t="s">
         <v>50</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I18" s="49" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="K18" s="17" t="s">
         <v>53</v>
@@ -8279,13 +8911,13 @@
         <v>57</v>
       </c>
       <c r="P18" s="39" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="Q18" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="R18" s="39" t="s">
-        <v>54</v>
+        <v>525</v>
+      </c>
+      <c r="R18" s="13" t="s">
+        <v>525</v>
       </c>
       <c r="S18" s="39" t="s">
         <v>54</v>
@@ -8297,70 +8929,70 @@
         <v>54</v>
       </c>
       <c r="V18" s="39" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="W18" s="39" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="Z18" s="39" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AA18" s="40" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="AC18" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="AD18" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="AE18" s="11" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="AG18" s="11" t="s">
         <v>62</v>
       </c>
       <c r="AH18" s="11" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="AI18" s="11" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="AJ18" s="11" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="19" spans="1:36" ht="90">
       <c r="A19" s="38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B19" s="37">
         <f t="shared" si="1"/>
         <v>2010</v>
       </c>
       <c r="C19" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" s="29" t="s">
         <v>148</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>149</v>
       </c>
       <c r="E19" s="30">
         <v>2010</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G19" s="29" t="s">
         <v>50</v>
       </c>
       <c r="H19" s="29" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="I19" s="44" t="s">
+        <v>469</v>
+      </c>
+      <c r="J19" s="49" t="s">
         <v>476</v>
-      </c>
-      <c r="J19" s="49" t="s">
-        <v>483</v>
       </c>
       <c r="K19" s="17" t="s">
         <v>53</v>
@@ -8378,72 +9010,75 @@
         <v>57</v>
       </c>
       <c r="P19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q19" s="39" t="s">
-        <v>83</v>
+        <v>525</v>
+      </c>
+      <c r="R19" s="13" t="s">
+        <v>525</v>
       </c>
       <c r="S19" s="39" t="s">
         <v>54</v>
       </c>
       <c r="U19" s="39"/>
       <c r="V19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="W19" s="39"/>
       <c r="Z19" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AA19" s="11" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="AC19" s="13" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="AE19" s="14" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="AG19" t="s">
         <v>62</v>
       </c>
       <c r="AH19" s="15" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="AI19" s="14" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="AJ19" s="14" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
     </row>
     <row r="20" spans="1:36" ht="30">
       <c r="A20" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B20" s="37">
         <f t="shared" si="1"/>
         <v>2008</v>
       </c>
       <c r="C20" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="D20" s="29" t="s">
         <v>150</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>151</v>
       </c>
       <c r="E20" s="30">
         <v>2008</v>
       </c>
       <c r="F20" s="29" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G20" s="29" t="s">
         <v>50</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="I20" s="52" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J20" s="58"/>
       <c r="K20" s="17" t="s">
@@ -8456,19 +9091,19 @@
         <v>72</v>
       </c>
       <c r="N20" s="11" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="O20" t="s">
         <v>57</v>
       </c>
       <c r="P20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q20" t="s">
-        <v>83</v>
-      </c>
-      <c r="R20" t="s">
-        <v>54</v>
+        <v>82</v>
+      </c>
+      <c r="R20" s="13" t="s">
+        <v>527</v>
       </c>
       <c r="S20" t="s">
         <v>54</v>
@@ -8480,73 +9115,73 @@
         <v>54</v>
       </c>
       <c r="V20" t="s">
+        <v>328</v>
+      </c>
+      <c r="W20" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="X20" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y20" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z20" s="40" t="s">
+        <v>479</v>
+      </c>
+      <c r="AA20" s="40" t="s">
         <v>329</v>
       </c>
-      <c r="W20" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="X20" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y20" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z20" s="40" t="s">
-        <v>486</v>
-      </c>
-      <c r="AA20" s="40" t="s">
-        <v>331</v>
-      </c>
       <c r="AC20" t="s">
         <v>54</v>
       </c>
       <c r="AD20" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AE20" s="11" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AG20" t="s">
         <v>62</v>
       </c>
       <c r="AH20" s="11" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AI20" s="11" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AJ20" s="11" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
-    <row r="21" spans="1:36" ht="42">
+    <row r="21" spans="1:36" ht="42" hidden="1">
       <c r="A21" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B21" s="37">
         <f t="shared" si="1"/>
         <v>2006</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E21" s="30">
         <v>2006</v>
       </c>
       <c r="F21" s="29" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G21" s="29" t="s">
         <v>50</v>
       </c>
       <c r="H21" s="29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K21" s="17" t="s">
         <v>53</v>
@@ -8561,88 +9196,88 @@
         <v>57</v>
       </c>
       <c r="Q21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R21" t="s">
+        <v>340</v>
+      </c>
+      <c r="S21" t="s">
+        <v>54</v>
+      </c>
+      <c r="T21" t="s">
+        <v>54</v>
+      </c>
+      <c r="U21" t="s">
+        <v>54</v>
+      </c>
+      <c r="V21" t="s">
+        <v>328</v>
+      </c>
+      <c r="W21" s="40" t="s">
+        <v>337</v>
+      </c>
+      <c r="X21" s="40" t="s">
+        <v>341</v>
+      </c>
+      <c r="Z21" s="40" t="s">
+        <v>292</v>
+      </c>
+      <c r="AA21" s="40" t="s">
         <v>342</v>
       </c>
-      <c r="S21" t="s">
-        <v>54</v>
-      </c>
-      <c r="T21" t="s">
-        <v>54</v>
-      </c>
-      <c r="U21" t="s">
-        <v>54</v>
-      </c>
-      <c r="V21" t="s">
-        <v>329</v>
-      </c>
-      <c r="W21" s="40" t="s">
-        <v>339</v>
-      </c>
-      <c r="X21" s="40" t="s">
+      <c r="AC21" t="s">
         <v>343</v>
       </c>
-      <c r="Z21" s="40" t="s">
-        <v>293</v>
-      </c>
-      <c r="AA21" s="40" t="s">
-        <v>344</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>345</v>
-      </c>
       <c r="AD21" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AE21" s="11" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AG21" t="s">
         <v>62</v>
       </c>
       <c r="AH21" s="11" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AI21" s="11" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AJ21" s="11" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="22" spans="1:36" ht="30">
       <c r="A22" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B22" s="37">
         <f t="shared" si="1"/>
         <v>2001</v>
       </c>
       <c r="C22" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="D22" s="29" t="s">
         <v>153</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>154</v>
       </c>
       <c r="E22" s="30">
         <v>2001</v>
       </c>
       <c r="F22" s="29" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I22" s="54" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K22" s="19" t="s">
         <v>53</v>
@@ -8663,10 +9298,10 @@
         <v>54</v>
       </c>
       <c r="Q22" t="s">
-        <v>83</v>
-      </c>
-      <c r="R22" t="s">
-        <v>54</v>
+        <v>525</v>
+      </c>
+      <c r="R22" s="13" t="s">
+        <v>525</v>
       </c>
       <c r="S22" t="s">
         <v>54</v>
@@ -8678,73 +9313,73 @@
         <v>54</v>
       </c>
       <c r="V22" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="W22" s="40" t="s">
+        <v>351</v>
+      </c>
+      <c r="X22" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y22" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z22" s="40" t="s">
+        <v>292</v>
+      </c>
+      <c r="AA22" s="40" t="s">
         <v>353</v>
       </c>
-      <c r="X22" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y22" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z22" s="40" t="s">
-        <v>293</v>
-      </c>
-      <c r="AA22" s="40" t="s">
+      <c r="AB22" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>352</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>354</v>
+      </c>
+      <c r="AE22" s="11" t="s">
         <v>355</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>354</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>356</v>
-      </c>
-      <c r="AE22" s="11" t="s">
-        <v>357</v>
       </c>
       <c r="AG22" t="s">
         <v>62</v>
       </c>
       <c r="AH22" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="AI22" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="AJ22" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="AI22" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="AJ22" s="11" t="s">
-        <v>360</v>
-      </c>
     </row>
-    <row r="23" spans="1:36" ht="45">
+    <row r="23" spans="1:36" ht="45" hidden="1">
       <c r="A23" s="38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B23" s="37">
         <f t="shared" si="1"/>
         <v>2005</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E23" s="30">
         <v>2005</v>
       </c>
       <c r="F23" s="29" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G23" s="29" t="s">
         <v>50</v>
       </c>
       <c r="H23" s="29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I23" s="14" t="s">
         <v>70</v>
@@ -8771,7 +9406,7 @@
         <v>54</v>
       </c>
       <c r="Q23" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R23" s="13" t="s">
         <v>73</v>
@@ -8796,10 +9431,10 @@
       </c>
       <c r="Y23" s="13"/>
       <c r="Z23" s="13" t="s">
-        <v>487</v>
+        <v>522</v>
       </c>
       <c r="AA23" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AB23" s="13"/>
       <c r="AC23" s="13" t="s">
@@ -8809,7 +9444,7 @@
         <v>76</v>
       </c>
       <c r="AE23" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AF23" s="13" t="s">
         <v>54</v>
@@ -8818,43 +9453,43 @@
         <v>62</v>
       </c>
       <c r="AH23" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI23" s="13" t="s">
         <v>79</v>
-      </c>
-      <c r="AI23" s="13" t="s">
-        <v>80</v>
       </c>
       <c r="AJ23" s="14" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="45">
+    <row r="24" spans="1:36" ht="45" hidden="1">
       <c r="A24" s="38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B24" s="37">
         <f t="shared" si="1"/>
         <v>2009</v>
       </c>
       <c r="C24" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="D24" s="35" t="s">
         <v>155</v>
-      </c>
-      <c r="D24" s="35" t="s">
-        <v>156</v>
       </c>
       <c r="E24" s="30">
         <v>2009</v>
       </c>
       <c r="F24" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G24" s="29" t="s">
         <v>50</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I24" s="54" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J24" s="17" t="s">
         <v>52</v>
@@ -8875,88 +9510,88 @@
         <v>57</v>
       </c>
       <c r="P24" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q24" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="R24" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="S24" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="T24" s="39" t="s">
         <v>274</v>
       </c>
-      <c r="Q24" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="R24" s="19" t="s">
+      <c r="U24" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="S24" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="T24" s="39" t="s">
-        <v>275</v>
-      </c>
-      <c r="U24" s="39" t="s">
+      <c r="V24" s="39" t="s">
         <v>277</v>
       </c>
-      <c r="V24" s="39" t="s">
+      <c r="W24" s="40" t="s">
         <v>278</v>
       </c>
-      <c r="W24" s="40" t="s">
+      <c r="Z24" s="39" t="s">
+        <v>479</v>
+      </c>
+      <c r="AA24" s="40" t="s">
         <v>279</v>
       </c>
-      <c r="Z24" s="39" t="s">
-        <v>486</v>
-      </c>
-      <c r="AA24" s="40" t="s">
+      <c r="AC24" t="s">
         <v>280</v>
       </c>
-      <c r="AC24" t="s">
+      <c r="AD24" t="s">
         <v>281</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="AE24" s="11" t="s">
+      <c r="AF24" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG24" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="AF24" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG24" s="11" t="s">
+      <c r="AH24" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="AI24" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="AH24" s="11" t="s">
+      <c r="AJ24" s="11" t="s">
         <v>286</v>
-      </c>
-      <c r="AI24" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="AJ24" s="11" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="25" spans="1:36" ht="30">
       <c r="A25" s="38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B25" s="37">
         <f t="shared" si="1"/>
         <v>2009</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E25" s="30">
         <v>2009</v>
       </c>
       <c r="F25" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G25" s="29" t="s">
         <v>50</v>
       </c>
       <c r="H25" s="29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J25" s="19" t="s">
         <v>52</v>
@@ -8976,22 +9611,24 @@
       </c>
       <c r="P25" s="13"/>
       <c r="Q25" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="R25" s="13"/>
+        <v>82</v>
+      </c>
+      <c r="R25" s="13" t="s">
+        <v>528</v>
+      </c>
       <c r="S25" s="13"/>
       <c r="T25" s="13"/>
       <c r="U25" s="13"/>
       <c r="V25" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="W25" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="X25" s="13"/>
       <c r="Y25" s="13"/>
       <c r="Z25" s="13" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="AA25" s="13"/>
       <c r="AB25" s="13"/>
@@ -8999,53 +9636,53 @@
         <v>54</v>
       </c>
       <c r="AD25" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AE25" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="AF25" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG25" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="AH25" s="15" t="s">
         <v>289</v>
-      </c>
-      <c r="AF25" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG25" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="AH25" s="15" t="s">
-        <v>290</v>
       </c>
       <c r="AI25" s="14"/>
       <c r="AJ25" s="14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" spans="1:36" ht="45">
       <c r="A26" s="38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B26" s="37">
         <f t="shared" si="1"/>
         <v>2009</v>
       </c>
       <c r="C26" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="D26" s="29" t="s">
         <v>158</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>159</v>
       </c>
       <c r="E26" s="30">
         <v>2009</v>
       </c>
       <c r="F26" s="29" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G26" s="29" t="s">
         <v>50</v>
       </c>
       <c r="H26" s="29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I26" s="54" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J26" s="17" t="s">
         <v>52</v>
@@ -9066,34 +9703,37 @@
         <v>57</v>
       </c>
       <c r="P26" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q26" t="s">
-        <v>83</v>
-      </c>
-      <c r="R26" t="s">
-        <v>54</v>
+        <v>82</v>
+      </c>
+      <c r="R26" s="14" t="s">
+        <v>529</v>
       </c>
       <c r="S26" t="s">
         <v>54</v>
       </c>
       <c r="V26" t="s">
+        <v>295</v>
+      </c>
+      <c r="W26" t="s">
+        <v>530</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>479</v>
+      </c>
+      <c r="AA26" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD26" t="s">
         <v>296</v>
       </c>
-      <c r="Z26" t="s">
-        <v>486</v>
-      </c>
-      <c r="AA26" s="11" t="s">
+      <c r="AE26" s="11" t="s">
         <v>298</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>297</v>
-      </c>
-      <c r="AE26" s="11" t="s">
-        <v>299</v>
       </c>
       <c r="AF26" s="11" t="s">
         <v>54</v>
@@ -9102,46 +9742,46 @@
         <v>62</v>
       </c>
       <c r="AI26" t="s">
+        <v>299</v>
+      </c>
+      <c r="AJ26" s="11" t="s">
         <v>300</v>
-      </c>
-      <c r="AJ26" s="11" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="27" spans="1:36" ht="45">
       <c r="A27" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B27" s="37">
         <f t="shared" si="1"/>
         <v>2001</v>
       </c>
       <c r="C27" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="D27" s="29" t="s">
         <v>160</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>161</v>
       </c>
       <c r="E27" s="30">
         <v>2001</v>
       </c>
       <c r="F27" s="29" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="G27" s="29" t="s">
         <v>50</v>
       </c>
       <c r="H27" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I27" s="54" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J27" s="60" t="s">
         <v>52</v>
       </c>
       <c r="K27" s="19" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L27" s="13" t="s">
         <v>52</v>
@@ -9150,64 +9790,67 @@
         <v>64</v>
       </c>
       <c r="N27" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O27" t="s">
         <v>57</v>
       </c>
       <c r="P27" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q27" t="s">
-        <v>83</v>
+        <v>526</v>
+      </c>
+      <c r="R27" s="13" t="s">
+        <v>531</v>
       </c>
       <c r="V27" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Z27" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AA27" t="s">
+        <v>305</v>
+      </c>
+      <c r="AD27" t="s">
         <v>306</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AI27" t="s">
+        <v>304</v>
+      </c>
+      <c r="AJ27" t="s">
         <v>307</v>
-      </c>
-      <c r="AI27" t="s">
-        <v>305</v>
-      </c>
-      <c r="AJ27" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="28" spans="1:36" ht="45">
       <c r="A28" s="38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B28" s="37">
         <f t="shared" si="1"/>
         <v>2014</v>
       </c>
       <c r="C28" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="D28" s="29" t="s">
         <v>162</v>
-      </c>
-      <c r="D28" s="29" t="s">
-        <v>163</v>
       </c>
       <c r="E28" s="30">
         <v>2014</v>
       </c>
       <c r="F28" s="29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G28" s="29" t="s">
         <v>50</v>
       </c>
       <c r="H28" s="29" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J28" s="17" t="s">
         <v>52</v>
@@ -9228,13 +9871,13 @@
         <v>57</v>
       </c>
       <c r="P28" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q28" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="R28" s="39" t="s">
-        <v>54</v>
+        <v>82</v>
+      </c>
+      <c r="R28" s="13" t="s">
+        <v>532</v>
       </c>
       <c r="S28" s="39" t="s">
         <v>54</v>
@@ -9249,16 +9892,16 @@
         <v>56</v>
       </c>
       <c r="W28" s="40" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Z28" t="s">
-        <v>488</v>
+        <v>522</v>
       </c>
       <c r="AA28" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="AE28" s="11" t="s">
         <v>312</v>
-      </c>
-      <c r="AE28" s="11" t="s">
-        <v>313</v>
       </c>
       <c r="AF28" t="s">
         <v>54</v>
@@ -9267,49 +9910,49 @@
         <v>62</v>
       </c>
       <c r="AH28" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AI28" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
-    <row r="29" spans="1:36" ht="90">
+    <row r="29" spans="1:36" ht="90" hidden="1">
       <c r="A29" s="38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="37">
         <f t="shared" si="1"/>
         <v>2014</v>
       </c>
       <c r="C29" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D29" s="25" t="s">
         <v>164</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>165</v>
       </c>
       <c r="E29" s="26">
         <v>2014</v>
       </c>
       <c r="F29" s="29" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G29" s="29" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H29" s="29" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I29" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="J29" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="J29" s="11" t="s">
-        <v>317</v>
-      </c>
       <c r="K29" s="17" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="L29" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M29" s="39" t="s">
         <v>64</v>
@@ -9321,85 +9964,85 @@
         <v>57</v>
       </c>
       <c r="P29" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q29" s="39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R29" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="S29" s="39" t="s">
         <v>54</v>
       </c>
       <c r="T29" t="s">
+        <v>318</v>
+      </c>
+      <c r="U29" s="39" t="s">
         <v>319</v>
       </c>
-      <c r="U29" s="39" t="s">
-        <v>320</v>
-      </c>
       <c r="V29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="W29" s="39" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="X29" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA29" s="11" t="s">
         <v>322</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA29" s="11" t="s">
-        <v>323</v>
       </c>
       <c r="AC29" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AD29" t="s">
+        <v>323</v>
+      </c>
+      <c r="AE29" s="11" t="s">
         <v>324</v>
-      </c>
-      <c r="AE29" s="11" t="s">
-        <v>325</v>
       </c>
       <c r="AG29" t="s">
         <v>62</v>
       </c>
       <c r="AH29" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AI29" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="30" spans="1:36" ht="60">
       <c r="A30" s="38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B30" s="37">
         <f t="shared" si="1"/>
         <v>2014</v>
       </c>
       <c r="C30" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="D30" s="25" t="s">
         <v>183</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>184</v>
       </c>
       <c r="E30" s="26">
         <v>2014</v>
       </c>
       <c r="F30" s="29" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G30" s="29" t="s">
         <v>50</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K30" s="17" t="s">
         <v>53</v>
@@ -9411,19 +10054,19 @@
         <v>72</v>
       </c>
       <c r="N30" s="11" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="O30" t="s">
         <v>57</v>
       </c>
       <c r="P30" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q30" t="s">
-        <v>83</v>
-      </c>
-      <c r="R30" t="s">
-        <v>54</v>
+        <v>82</v>
+      </c>
+      <c r="R30" s="13" t="s">
+        <v>525</v>
       </c>
       <c r="S30" t="s">
         <v>54</v>
@@ -9435,64 +10078,64 @@
         <v>54</v>
       </c>
       <c r="V30" t="s">
+        <v>328</v>
+      </c>
+      <c r="W30" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="X30" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y30" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>522</v>
+      </c>
+      <c r="AA30" s="40" t="s">
         <v>329</v>
       </c>
-      <c r="W30" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="X30" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y30" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z30" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA30" s="40" t="s">
-        <v>331</v>
-      </c>
       <c r="AC30" t="s">
         <v>54</v>
       </c>
       <c r="AD30" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AE30" s="11" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AG30" t="s">
         <v>62</v>
       </c>
       <c r="AH30" s="11" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AI30" s="11" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AJ30" s="11" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
-    <row r="31" spans="1:36" ht="45">
+    <row r="31" spans="1:36" ht="45" hidden="1">
       <c r="A31" s="38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B31" s="37">
         <f t="shared" si="1"/>
         <v>2014</v>
       </c>
       <c r="C31" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="D31" s="25" t="s">
         <v>166</v>
-      </c>
-      <c r="D31" s="25" t="s">
-        <v>167</v>
       </c>
       <c r="E31" s="26">
         <v>2014</v>
       </c>
       <c r="F31" s="29" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G31" s="29" t="s">
         <v>50</v>
@@ -9501,7 +10144,7 @@
         <v>51</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K31" s="17" t="s">
         <v>53</v>
@@ -9516,100 +10159,100 @@
         <v>57</v>
       </c>
       <c r="Q31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R31" t="s">
+        <v>340</v>
+      </c>
+      <c r="S31" t="s">
+        <v>54</v>
+      </c>
+      <c r="T31" t="s">
+        <v>54</v>
+      </c>
+      <c r="U31" t="s">
+        <v>54</v>
+      </c>
+      <c r="V31" t="s">
+        <v>328</v>
+      </c>
+      <c r="W31" s="40" t="s">
+        <v>337</v>
+      </c>
+      <c r="X31" s="40" t="s">
+        <v>341</v>
+      </c>
+      <c r="Z31" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA31" s="40" t="s">
         <v>342</v>
       </c>
-      <c r="S31" t="s">
-        <v>54</v>
-      </c>
-      <c r="T31" t="s">
-        <v>54</v>
-      </c>
-      <c r="U31" t="s">
-        <v>54</v>
-      </c>
-      <c r="V31" t="s">
-        <v>329</v>
-      </c>
-      <c r="W31" s="40" t="s">
-        <v>339</v>
-      </c>
-      <c r="X31" s="40" t="s">
+      <c r="AC31" t="s">
         <v>343</v>
       </c>
-      <c r="Z31" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA31" s="40" t="s">
-        <v>344</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>345</v>
-      </c>
       <c r="AD31" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AE31" s="11" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AG31" t="s">
         <v>62</v>
       </c>
       <c r="AH31" s="11" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AI31" s="11" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AJ31" s="11" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="32" spans="1:36" ht="56">
       <c r="A32" s="38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B32" s="37">
         <f t="shared" si="1"/>
         <v>2011</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E32" s="26">
         <v>2011</v>
       </c>
       <c r="F32" s="29" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G32" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H32" s="29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K32" s="19" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="L32" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="M32" t="s">
         <v>72</v>
       </c>
-      <c r="N32" t="s">
-        <v>54</v>
+      <c r="N32" s="11" t="s">
+        <v>533</v>
       </c>
       <c r="O32" t="s">
         <v>57</v>
@@ -9618,10 +10261,10 @@
         <v>54</v>
       </c>
       <c r="Q32" t="s">
-        <v>83</v>
-      </c>
-      <c r="R32" t="s">
-        <v>54</v>
+        <v>82</v>
+      </c>
+      <c r="R32" s="13" t="s">
+        <v>525</v>
       </c>
       <c r="S32" t="s">
         <v>54</v>
@@ -9633,82 +10276,82 @@
         <v>54</v>
       </c>
       <c r="V32" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="W32" s="40" t="s">
+        <v>351</v>
+      </c>
+      <c r="X32" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y32" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>522</v>
+      </c>
+      <c r="AA32" s="40" t="s">
         <v>353</v>
       </c>
-      <c r="X32" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y32" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z32" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA32" s="40" t="s">
+      <c r="AB32" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>352</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>354</v>
+      </c>
+      <c r="AE32" s="11" t="s">
         <v>355</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>354</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>356</v>
-      </c>
-      <c r="AE32" s="11" t="s">
-        <v>357</v>
       </c>
       <c r="AG32" t="s">
         <v>62</v>
       </c>
       <c r="AH32" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="AI32" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="AJ32" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="AI32" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="AJ32" s="11" t="s">
-        <v>360</v>
-      </c>
     </row>
-    <row r="33" spans="1:36" ht="70">
+    <row r="33" spans="1:36" ht="70" hidden="1">
       <c r="A33" s="38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B33" s="37">
         <f t="shared" si="1"/>
         <v>2009</v>
       </c>
       <c r="C33" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="D33" s="25" t="s">
         <v>168</v>
-      </c>
-      <c r="D33" s="25" t="s">
-        <v>169</v>
       </c>
       <c r="E33" s="26">
         <v>2009</v>
       </c>
       <c r="F33" s="29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G33" s="29" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H33" s="29" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="J33" s="14" t="s">
         <v>71</v>
       </c>
       <c r="K33" s="19" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L33" s="13" t="s">
         <v>52</v>
@@ -9726,7 +10369,7 @@
         <v>54</v>
       </c>
       <c r="Q33" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R33" s="13" t="s">
         <v>73</v>
@@ -9751,10 +10394,10 @@
       </c>
       <c r="Y33" s="13"/>
       <c r="Z33" s="13" t="s">
-        <v>487</v>
+        <v>522</v>
       </c>
       <c r="AA33" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AB33" s="13"/>
       <c r="AC33" s="13" t="s">
@@ -9764,7 +10407,7 @@
         <v>76</v>
       </c>
       <c r="AE33" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AF33" s="13" t="s">
         <v>54</v>
@@ -9773,43 +10416,43 @@
         <v>62</v>
       </c>
       <c r="AH33" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI33" s="13" t="s">
         <v>79</v>
-      </c>
-      <c r="AI33" s="13" t="s">
-        <v>80</v>
       </c>
       <c r="AJ33" s="14" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:36" ht="45">
+    <row r="34" spans="1:36" ht="45" hidden="1">
       <c r="A34" s="38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B34" s="37">
         <f t="shared" si="1"/>
         <v>2004</v>
       </c>
       <c r="C34" s="36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E34" s="26">
         <v>2004</v>
       </c>
       <c r="F34" s="29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H34" s="29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J34" s="17" t="s">
         <v>52</v>
@@ -9830,97 +10473,97 @@
         <v>57</v>
       </c>
       <c r="P34" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q34" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="R34" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="S34" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="T34" s="39" t="s">
         <v>274</v>
       </c>
-      <c r="Q34" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="R34" s="19" t="s">
+      <c r="U34" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="S34" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="T34" s="39" t="s">
-        <v>275</v>
-      </c>
-      <c r="U34" s="39" t="s">
+      <c r="V34" s="39" t="s">
         <v>277</v>
       </c>
-      <c r="V34" s="39" t="s">
+      <c r="W34" s="40" t="s">
         <v>278</v>
       </c>
-      <c r="W34" s="40" t="s">
+      <c r="Z34" s="39" t="s">
+        <v>292</v>
+      </c>
+      <c r="AA34" s="40" t="s">
         <v>279</v>
       </c>
-      <c r="Z34" s="39" t="s">
-        <v>293</v>
-      </c>
-      <c r="AA34" s="40" t="s">
+      <c r="AC34" t="s">
         <v>280</v>
       </c>
-      <c r="AC34" t="s">
+      <c r="AD34" t="s">
         <v>281</v>
       </c>
-      <c r="AD34" t="s">
+      <c r="AE34" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="AE34" s="11" t="s">
+      <c r="AF34" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG34" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="AF34" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG34" s="11" t="s">
+      <c r="AH34" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="AI34" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="AH34" s="11" t="s">
+      <c r="AJ34" s="11" t="s">
         <v>286</v>
-      </c>
-      <c r="AI34" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="AJ34" s="11" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="35" spans="1:36" ht="112">
       <c r="A35" s="38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B35" s="37">
         <f t="shared" si="1"/>
         <v>2008</v>
       </c>
       <c r="C35" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="D35" s="25" t="s">
         <v>171</v>
-      </c>
-      <c r="D35" s="25" t="s">
-        <v>172</v>
       </c>
       <c r="E35" s="26">
         <v>2008</v>
       </c>
       <c r="F35" s="29" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G35" s="29" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H35" s="29" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="J35" s="19" t="s">
-        <v>52</v>
+        <v>535</v>
+      </c>
+      <c r="J35" s="14" t="s">
+        <v>534</v>
       </c>
       <c r="K35" s="19" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="L35" s="13" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="13" t="s">
@@ -9931,22 +10574,24 @@
       </c>
       <c r="P35" s="13"/>
       <c r="Q35" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="R35" s="13"/>
+        <v>82</v>
+      </c>
+      <c r="R35" s="13" t="s">
+        <v>525</v>
+      </c>
       <c r="S35" s="13"/>
       <c r="T35" s="13"/>
       <c r="U35" s="13"/>
       <c r="V35" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="W35" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="X35" s="13"/>
       <c r="Y35" s="13"/>
       <c r="Z35" s="13" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="AA35" s="13"/>
       <c r="AB35" s="13"/>
@@ -9954,53 +10599,53 @@
         <v>54</v>
       </c>
       <c r="AD35" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AE35" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="AF35" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG35" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="AH35" s="15" t="s">
         <v>289</v>
-      </c>
-      <c r="AF35" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG35" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="AH35" s="15" t="s">
-        <v>290</v>
       </c>
       <c r="AI35" s="14"/>
       <c r="AJ35" s="14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="36" spans="1:36" ht="60">
       <c r="A36" s="38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B36" s="37">
         <f t="shared" si="1"/>
         <v>2009</v>
       </c>
       <c r="C36" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="D36" s="25" t="s">
         <v>173</v>
-      </c>
-      <c r="D36" s="25" t="s">
-        <v>174</v>
       </c>
       <c r="E36" s="26">
         <v>2009</v>
       </c>
       <c r="F36" s="29" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="G36" s="29" t="s">
         <v>50</v>
       </c>
       <c r="H36" s="29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J36" s="17" t="s">
         <v>52</v>
@@ -10021,34 +10666,34 @@
         <v>57</v>
       </c>
       <c r="P36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q36" t="s">
-        <v>83</v>
-      </c>
-      <c r="R36" t="s">
-        <v>54</v>
+        <v>82</v>
+      </c>
+      <c r="R36" s="13" t="s">
+        <v>536</v>
       </c>
       <c r="S36" t="s">
         <v>54</v>
       </c>
       <c r="V36" t="s">
+        <v>295</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>479</v>
+      </c>
+      <c r="AA36" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD36" t="s">
         <v>296</v>
       </c>
-      <c r="Z36" t="s">
-        <v>486</v>
-      </c>
-      <c r="AA36" s="11" t="s">
+      <c r="AE36" s="11" t="s">
         <v>298</v>
-      </c>
-      <c r="AC36" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD36" t="s">
-        <v>297</v>
-      </c>
-      <c r="AE36" s="11" t="s">
-        <v>299</v>
       </c>
       <c r="AF36" s="11" t="s">
         <v>54</v>
@@ -10057,46 +10702,46 @@
         <v>62</v>
       </c>
       <c r="AI36" t="s">
+        <v>299</v>
+      </c>
+      <c r="AJ36" s="11" t="s">
         <v>300</v>
-      </c>
-      <c r="AJ36" s="11" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="37" spans="1:36" ht="45">
       <c r="A37" s="38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B37" s="37">
         <f t="shared" si="1"/>
         <v>2008</v>
       </c>
       <c r="C37" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="D37" s="25" t="s">
         <v>175</v>
-      </c>
-      <c r="D37" s="25" t="s">
-        <v>176</v>
       </c>
       <c r="E37" s="26">
         <v>2008</v>
       </c>
       <c r="F37" s="29" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G37" s="29" t="s">
         <v>50</v>
       </c>
       <c r="H37" s="29" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="I37" s="54" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J37" s="60" t="s">
         <v>52</v>
       </c>
       <c r="K37" s="41" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L37" s="13" t="s">
         <v>52</v>
@@ -10108,52 +10753,55 @@
         <v>57</v>
       </c>
       <c r="P37" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q37" t="s">
-        <v>83</v>
+        <v>525</v>
+      </c>
+      <c r="R37" s="13" t="s">
+        <v>525</v>
       </c>
       <c r="W37" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="Z37" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AA37" t="s">
+        <v>305</v>
+      </c>
+      <c r="AD37" t="s">
         <v>306</v>
-      </c>
-      <c r="AD37" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="38" spans="1:36" ht="60">
       <c r="A38" s="38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B38" s="37">
         <f t="shared" si="0"/>
         <v>2009</v>
       </c>
       <c r="C38" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="D38" s="25" t="s">
         <v>201</v>
-      </c>
-      <c r="D38" s="25" t="s">
-        <v>202</v>
       </c>
       <c r="E38" s="26">
         <v>2009</v>
       </c>
       <c r="F38" s="29" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G38" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H38" s="29" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="I38" s="54" t="s">
-        <v>309</v>
+        <v>537</v>
       </c>
       <c r="J38" s="17" t="s">
         <v>52</v>
@@ -10174,13 +10822,13 @@
         <v>57</v>
       </c>
       <c r="P38" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q38" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="R38" s="39" t="s">
-        <v>54</v>
+        <v>82</v>
+      </c>
+      <c r="R38" s="13" t="s">
+        <v>538</v>
       </c>
       <c r="S38" s="39" t="s">
         <v>54</v>
@@ -10195,16 +10843,16 @@
         <v>56</v>
       </c>
       <c r="W38" s="40" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Z38" t="s">
-        <v>448</v>
+        <v>524</v>
       </c>
       <c r="AA38" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="AE38" s="11" t="s">
         <v>312</v>
-      </c>
-      <c r="AE38" s="11" t="s">
-        <v>313</v>
       </c>
       <c r="AF38" t="s">
         <v>54</v>
@@ -10213,43 +10861,43 @@
         <v>62</v>
       </c>
       <c r="AH38" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AI38" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
-    <row r="39" spans="1:36" ht="98">
+    <row r="39" spans="1:36" ht="98" hidden="1">
       <c r="A39" s="38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B39" s="37">
         <f t="shared" si="0"/>
         <v>2009</v>
       </c>
       <c r="C39" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D39" s="25" t="s">
         <v>177</v>
-      </c>
-      <c r="D39" s="25" t="s">
-        <v>178</v>
       </c>
       <c r="E39" s="26">
         <v>2009</v>
       </c>
       <c r="F39" s="29" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G39" s="29" t="s">
         <v>50</v>
       </c>
       <c r="H39" s="29" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I39" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="J39" s="11" t="s">
         <v>316</v>
-      </c>
-      <c r="J39" s="11" t="s">
-        <v>317</v>
       </c>
       <c r="K39" s="17" t="s">
         <v>53</v>
@@ -10267,109 +10915,109 @@
         <v>57</v>
       </c>
       <c r="P39" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q39" s="39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R39" t="s">
+        <v>317</v>
+      </c>
+      <c r="S39" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="T39" t="s">
         <v>318</v>
       </c>
-      <c r="S39" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="T39" t="s">
+      <c r="U39" s="39" t="s">
         <v>319</v>
       </c>
-      <c r="U39" s="39" t="s">
+      <c r="V39" t="s">
+        <v>295</v>
+      </c>
+      <c r="W39" s="39" t="s">
         <v>320</v>
       </c>
-      <c r="V39" t="s">
-        <v>296</v>
-      </c>
-      <c r="W39" s="39" t="s">
+      <c r="X39" t="s">
         <v>321</v>
       </c>
-      <c r="X39" t="s">
+      <c r="Z39" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA39" s="11" t="s">
         <v>322</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA39" s="11" t="s">
-        <v>323</v>
       </c>
       <c r="AC39" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AD39" t="s">
+        <v>323</v>
+      </c>
+      <c r="AE39" s="11" t="s">
         <v>324</v>
-      </c>
-      <c r="AE39" s="11" t="s">
-        <v>325</v>
       </c>
       <c r="AG39" t="s">
         <v>62</v>
       </c>
       <c r="AH39" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AI39" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="40" spans="1:36" ht="90">
       <c r="A40" s="38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B40" s="37">
         <f t="shared" si="0"/>
         <v>2014</v>
       </c>
       <c r="C40" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="D40" s="25" t="s">
         <v>179</v>
-      </c>
-      <c r="D40" s="25" t="s">
-        <v>180</v>
       </c>
       <c r="E40" s="26">
         <v>2014</v>
       </c>
       <c r="F40" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="G40" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="H40" s="29" t="s">
         <v>264</v>
       </c>
-      <c r="G40" s="29" t="s">
-        <v>240</v>
-      </c>
-      <c r="H40" s="29" t="s">
-        <v>265</v>
-      </c>
       <c r="I40" s="50" t="s">
-        <v>328</v>
+        <v>539</v>
       </c>
       <c r="K40" s="17" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="L40" s="13" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="M40" t="s">
         <v>72</v>
       </c>
       <c r="N40" s="11" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="O40" t="s">
         <v>57</v>
       </c>
       <c r="P40" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q40" t="s">
-        <v>83</v>
-      </c>
-      <c r="R40" t="s">
-        <v>54</v>
+        <v>82</v>
+      </c>
+      <c r="R40" s="13" t="s">
+        <v>525</v>
       </c>
       <c r="S40" t="s">
         <v>54</v>
@@ -10381,64 +11029,64 @@
         <v>54</v>
       </c>
       <c r="V40" t="s">
+        <v>328</v>
+      </c>
+      <c r="W40" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="X40" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y40" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>522</v>
+      </c>
+      <c r="AA40" s="40" t="s">
         <v>329</v>
       </c>
-      <c r="W40" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="X40" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y40" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z40" s="40" t="s">
-        <v>489</v>
-      </c>
-      <c r="AA40" s="40" t="s">
-        <v>331</v>
-      </c>
       <c r="AC40" t="s">
         <v>54</v>
       </c>
       <c r="AD40" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AE40" s="11" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AG40" t="s">
         <v>62</v>
       </c>
       <c r="AH40" s="11" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AI40" s="11" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AJ40" s="11" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
-    <row r="41" spans="1:36" ht="75">
+    <row r="41" spans="1:36" ht="75" hidden="1">
       <c r="A41" s="38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B41" s="37">
         <f t="shared" si="0"/>
         <v>2004</v>
       </c>
       <c r="C41" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="D41" s="25" t="s">
         <v>181</v>
-      </c>
-      <c r="D41" s="25" t="s">
-        <v>182</v>
       </c>
       <c r="E41" s="26">
         <v>2004</v>
       </c>
       <c r="F41" s="29" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G41" s="29" t="s">
         <v>50</v>
@@ -10447,7 +11095,7 @@
         <v>51</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K41" s="17" t="s">
         <v>53</v>
@@ -10462,88 +11110,88 @@
         <v>57</v>
       </c>
       <c r="Q41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R41" t="s">
+        <v>340</v>
+      </c>
+      <c r="S41" t="s">
+        <v>54</v>
+      </c>
+      <c r="T41" t="s">
+        <v>54</v>
+      </c>
+      <c r="U41" t="s">
+        <v>54</v>
+      </c>
+      <c r="V41" t="s">
+        <v>328</v>
+      </c>
+      <c r="W41" s="40" t="s">
+        <v>337</v>
+      </c>
+      <c r="X41" s="40" t="s">
+        <v>341</v>
+      </c>
+      <c r="Z41" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA41" s="40" t="s">
         <v>342</v>
       </c>
-      <c r="S41" t="s">
-        <v>54</v>
-      </c>
-      <c r="T41" t="s">
-        <v>54</v>
-      </c>
-      <c r="U41" t="s">
-        <v>54</v>
-      </c>
-      <c r="V41" t="s">
-        <v>329</v>
-      </c>
-      <c r="W41" s="40" t="s">
-        <v>339</v>
-      </c>
-      <c r="X41" s="40" t="s">
+      <c r="AC41" t="s">
         <v>343</v>
       </c>
-      <c r="Z41" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA41" s="40" t="s">
-        <v>344</v>
-      </c>
-      <c r="AC41" t="s">
-        <v>345</v>
-      </c>
       <c r="AD41" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AE41" s="11" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AG41" t="s">
         <v>62</v>
       </c>
       <c r="AH41" s="11" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AI41" s="11" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AJ41" s="11" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="42" spans="1:36" ht="60">
       <c r="A42" s="38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B42" s="37">
         <f t="shared" si="0"/>
         <v>2001</v>
       </c>
       <c r="C42" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="D42" s="25" t="s">
         <v>203</v>
-      </c>
-      <c r="D42" s="25" t="s">
-        <v>204</v>
       </c>
       <c r="E42" s="26">
         <v>2001</v>
       </c>
       <c r="F42" s="29" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G42" s="29" t="s">
         <v>50</v>
       </c>
       <c r="H42" s="29" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="I42" s="54" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K42" s="19" t="s">
         <v>53</v>
@@ -10564,10 +11212,10 @@
         <v>54</v>
       </c>
       <c r="Q42" t="s">
-        <v>83</v>
-      </c>
-      <c r="R42" t="s">
-        <v>54</v>
+        <v>525</v>
+      </c>
+      <c r="R42" s="13" t="s">
+        <v>525</v>
       </c>
       <c r="S42" t="s">
         <v>54</v>
@@ -10579,73 +11227,71 @@
         <v>54</v>
       </c>
       <c r="V42" t="s">
-        <v>329</v>
-      </c>
-      <c r="W42" s="40" t="s">
+        <v>328</v>
+      </c>
+      <c r="W42" s="40"/>
+      <c r="X42" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y42" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z42" s="40" t="s">
+        <v>292</v>
+      </c>
+      <c r="AA42" s="40" t="s">
         <v>353</v>
       </c>
-      <c r="X42" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y42" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z42" s="40" t="s">
-        <v>293</v>
-      </c>
-      <c r="AA42" s="40" t="s">
+      <c r="AB42" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>352</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>354</v>
+      </c>
+      <c r="AE42" s="11" t="s">
         <v>355</v>
-      </c>
-      <c r="AB42" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC42" t="s">
-        <v>354</v>
-      </c>
-      <c r="AD42" t="s">
-        <v>356</v>
-      </c>
-      <c r="AE42" s="11" t="s">
-        <v>357</v>
       </c>
       <c r="AG42" t="s">
         <v>62</v>
       </c>
       <c r="AH42" s="11" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="AI42" s="11" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AJ42" s="11" t="s">
-        <v>494</v>
+        <v>540</v>
       </c>
     </row>
-    <row r="43" spans="1:36" ht="56">
+    <row r="43" spans="1:36" ht="56" hidden="1">
       <c r="A43" s="38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B43" s="37">
         <f t="shared" si="0"/>
         <v>2013</v>
       </c>
       <c r="C43" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="D43" s="32" t="s">
         <v>205</v>
-      </c>
-      <c r="D43" s="32" t="s">
-        <v>206</v>
       </c>
       <c r="E43" s="26">
         <v>2013</v>
       </c>
       <c r="F43" s="29" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G43" s="29" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H43" s="29" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="I43" s="14" t="s">
         <v>70</v>
@@ -10654,10 +11300,10 @@
         <v>71</v>
       </c>
       <c r="K43" s="19" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="L43" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M43" s="13" t="s">
         <v>72</v>
@@ -10672,7 +11318,7 @@
         <v>54</v>
       </c>
       <c r="Q43" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R43" s="13" t="s">
         <v>73</v>
@@ -10697,10 +11343,10 @@
       </c>
       <c r="Y43" s="13"/>
       <c r="Z43" s="13" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="AA43" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AB43" s="13"/>
       <c r="AC43" s="13" t="s">
@@ -10710,7 +11356,7 @@
         <v>76</v>
       </c>
       <c r="AE43" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AF43" s="13" t="s">
         <v>54</v>
@@ -10719,18 +11365,18 @@
         <v>62</v>
       </c>
       <c r="AH43" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI43" s="13" t="s">
         <v>79</v>
-      </c>
-      <c r="AI43" s="13" t="s">
-        <v>80</v>
       </c>
       <c r="AJ43" s="14" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:36" ht="30">
+    <row r="44" spans="1:36" ht="30" hidden="1">
       <c r="A44" s="38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B44" s="37">
         <v>41040</v>
@@ -10745,7 +11391,7 @@
         <v>2008</v>
       </c>
       <c r="F44" s="29" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G44" s="29" t="s">
         <v>50</v>
@@ -10754,7 +11400,7 @@
         <v>51</v>
       </c>
       <c r="J44" s="53" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="K44" s="17" t="s">
         <v>53</v>
@@ -10775,7 +11421,7 @@
         <v>54</v>
       </c>
       <c r="Q44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R44" t="s">
         <v>61</v>
@@ -10799,7 +11445,7 @@
         <v>54</v>
       </c>
       <c r="Z44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AA44" t="s">
         <v>60</v>
@@ -10827,40 +11473,40 @@
         <v>68</v>
       </c>
       <c r="AJ44" s="11" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
     </row>
-    <row r="45" spans="1:36" ht="42">
+    <row r="45" spans="1:36" ht="42" hidden="1">
       <c r="A45" s="38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B45" s="37">
         <f t="shared" ref="B45:B54" si="2">E45</f>
         <v>2007</v>
       </c>
       <c r="C45" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="D45" s="31" t="s">
         <v>207</v>
-      </c>
-      <c r="D45" s="31" t="s">
-        <v>208</v>
       </c>
       <c r="E45" s="33">
         <v>2007</v>
       </c>
       <c r="F45" s="29" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G45" s="29" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H45" s="29" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="I45" s="49" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="J45" s="53" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="K45" s="19" t="s">
         <v>53</v>
@@ -10878,87 +11524,87 @@
         <v>57</v>
       </c>
       <c r="P45" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q45" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="R45" s="19" t="s">
+        <v>486</v>
+      </c>
+      <c r="S45" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="T45" s="39" t="s">
         <v>274</v>
-      </c>
-      <c r="Q45" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="R45" s="19" t="s">
-        <v>497</v>
-      </c>
-      <c r="S45" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="T45" s="39" t="s">
-        <v>275</v>
       </c>
       <c r="U45" s="39"/>
       <c r="V45" s="39" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="W45" s="40" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="Z45" s="39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AA45" s="40"/>
       <c r="AC45" t="s">
+        <v>280</v>
+      </c>
+      <c r="AD45" t="s">
         <v>281</v>
       </c>
-      <c r="AD45" t="s">
+      <c r="AE45" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="AE45" s="11" t="s">
+      <c r="AF45" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG45" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="AF45" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG45" s="11" t="s">
+      <c r="AH45" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="AI45" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="AH45" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="AI45" s="11" t="s">
-        <v>285</v>
-      </c>
       <c r="AJ45" s="11" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
     </row>
     <row r="46" spans="1:36" ht="30">
       <c r="A46" s="38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B46" s="37">
         <f t="shared" si="2"/>
         <v>2004</v>
       </c>
       <c r="C46" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="D46" s="32" t="s">
         <v>210</v>
-      </c>
-      <c r="D46" s="32" t="s">
-        <v>211</v>
       </c>
       <c r="E46" s="34">
         <v>2004</v>
       </c>
       <c r="F46" s="29" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G46" s="29" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H46" s="29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>502</v>
+        <v>541</v>
       </c>
       <c r="J46" s="14" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="K46" s="19" t="s">
         <v>53</v>
@@ -10975,22 +11621,24 @@
       </c>
       <c r="P46" s="13"/>
       <c r="Q46" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="R46" s="13"/>
+        <v>525</v>
+      </c>
+      <c r="R46" s="13" t="s">
+        <v>525</v>
+      </c>
       <c r="S46" s="13"/>
       <c r="T46" s="13"/>
       <c r="U46" s="13"/>
       <c r="V46" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="W46" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="X46" s="13"/>
       <c r="Y46" s="13"/>
       <c r="Z46" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AA46" s="13"/>
       <c r="AB46" s="13"/>
@@ -10998,51 +11646,51 @@
         <v>54</v>
       </c>
       <c r="AD46" s="13" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="AE46" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AF46" s="13" t="s">
         <v>54</v>
       </c>
       <c r="AG46" s="13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH46" s="15" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="AI46" s="14"/>
       <c r="AJ46" s="14"/>
     </row>
     <row r="47" spans="1:36" ht="42">
       <c r="A47" s="38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B47" s="37">
         <f t="shared" si="2"/>
         <v>2007</v>
       </c>
       <c r="C47" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="D47" s="32" t="s">
         <v>213</v>
-      </c>
-      <c r="D47" s="32" t="s">
-        <v>214</v>
       </c>
       <c r="E47" s="34">
         <v>2007</v>
       </c>
       <c r="F47" s="29" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G47" s="29" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H47" s="29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="J47" s="17" t="s">
         <v>52</v>
@@ -11063,34 +11711,34 @@
         <v>57</v>
       </c>
       <c r="P47" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q47" t="s">
-        <v>83</v>
-      </c>
-      <c r="R47" t="s">
-        <v>54</v>
+        <v>82</v>
+      </c>
+      <c r="R47" s="13" t="s">
+        <v>542</v>
       </c>
       <c r="S47" t="s">
         <v>54</v>
       </c>
       <c r="V47" t="s">
+        <v>295</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>522</v>
+      </c>
+      <c r="AA47" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD47" t="s">
         <v>296</v>
       </c>
-      <c r="Z47" t="s">
-        <v>489</v>
-      </c>
-      <c r="AA47" s="11" t="s">
+      <c r="AE47" s="11" t="s">
         <v>298</v>
-      </c>
-      <c r="AC47" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD47" t="s">
-        <v>297</v>
-      </c>
-      <c r="AE47" s="11" t="s">
-        <v>299</v>
       </c>
       <c r="AF47" s="11" t="s">
         <v>54</v>
@@ -11099,44 +11747,44 @@
         <v>62</v>
       </c>
       <c r="AI47" t="s">
+        <v>299</v>
+      </c>
+      <c r="AJ47" s="11" t="s">
         <v>300</v>
-      </c>
-      <c r="AJ47" s="11" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="48" spans="1:36" ht="60">
       <c r="A48" s="38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B48" s="37">
         <f t="shared" si="2"/>
         <v>2011</v>
       </c>
       <c r="C48" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="D48" s="32" t="s">
         <v>216</v>
-      </c>
-      <c r="D48" s="32" t="s">
-        <v>217</v>
       </c>
       <c r="E48" s="34">
         <v>2011</v>
       </c>
       <c r="F48" s="29" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G48" s="29" t="s">
         <v>50</v>
       </c>
       <c r="H48" s="29" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="I48" s="11"/>
       <c r="J48" s="17" t="s">
         <v>52</v>
       </c>
       <c r="K48" s="59" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L48" s="13" t="s">
         <v>52</v>
@@ -11148,55 +11796,58 @@
         <v>57</v>
       </c>
       <c r="Q48" t="s">
-        <v>83</v>
+        <v>525</v>
+      </c>
+      <c r="R48" s="13" t="s">
+        <v>525</v>
       </c>
       <c r="V48" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Z48" t="s">
-        <v>489</v>
+        <v>522</v>
       </c>
       <c r="AA48" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AD48" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="AJ48" s="11" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
     </row>
     <row r="49" spans="1:36" ht="30">
       <c r="A49" s="38" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B49" s="37">
         <f t="shared" si="2"/>
         <v>2007</v>
       </c>
       <c r="C49" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="D49" s="32" t="s">
         <v>218</v>
-      </c>
-      <c r="D49" s="32" t="s">
-        <v>219</v>
       </c>
       <c r="E49" s="34">
         <v>2007</v>
       </c>
       <c r="F49" s="29" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G49" s="29" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H49" s="29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I49" s="54" t="s">
-        <v>508</v>
-      </c>
-      <c r="J49" s="17" t="s">
-        <v>52</v>
+        <v>496</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>543</v>
       </c>
       <c r="K49" s="17" t="s">
         <v>53</v>
@@ -11214,13 +11865,13 @@
         <v>57</v>
       </c>
       <c r="P49" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q49" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="R49" s="39" t="s">
-        <v>54</v>
+        <v>525</v>
+      </c>
+      <c r="R49" s="13" t="s">
+        <v>525</v>
       </c>
       <c r="S49" s="39" t="s">
         <v>54</v>
@@ -11235,16 +11886,16 @@
         <v>56</v>
       </c>
       <c r="W49" s="40" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Z49" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="AA49" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="AE49" s="11" t="s">
         <v>312</v>
-      </c>
-      <c r="AE49" s="11" t="s">
-        <v>313</v>
       </c>
       <c r="AF49" t="s">
         <v>54</v>
@@ -11253,46 +11904,46 @@
         <v>62</v>
       </c>
       <c r="AH49" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AI49" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="50" spans="1:36" ht="31" customHeight="1">
       <c r="A50" s="38" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B50" s="37">
         <f t="shared" si="2"/>
         <v>2003</v>
       </c>
       <c r="C50" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="D50" s="32" t="s">
         <v>221</v>
-      </c>
-      <c r="D50" s="32" t="s">
-        <v>222</v>
       </c>
       <c r="E50" s="34">
         <v>2003</v>
       </c>
       <c r="F50" s="29" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G50" s="29" t="s">
         <v>50</v>
       </c>
       <c r="H50" s="29" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I50" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="J50" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="J50" s="11" t="s">
-        <v>317</v>
-      </c>
       <c r="K50" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L50" s="13" t="s">
         <v>52</v>
@@ -11305,78 +11956,81 @@
         <v>57</v>
       </c>
       <c r="Q50" s="39" t="s">
-        <v>83</v>
+        <v>525</v>
+      </c>
+      <c r="R50" s="13" t="s">
+        <v>525</v>
       </c>
       <c r="S50" s="39" t="s">
         <v>54</v>
       </c>
       <c r="T50" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="U50" s="39"/>
       <c r="V50" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="W50" s="39" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Z50" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AA50" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AC50" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AD50" t="s">
+        <v>323</v>
+      </c>
+      <c r="AE50" s="11" t="s">
         <v>324</v>
-      </c>
-      <c r="AE50" s="11" t="s">
-        <v>325</v>
       </c>
       <c r="AG50" t="s">
         <v>62</v>
       </c>
       <c r="AH50" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AI50" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="51" spans="1:36" ht="30">
       <c r="A51" s="38" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B51" s="37">
         <f t="shared" si="2"/>
         <v>2006</v>
       </c>
       <c r="C51" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="D51" s="32" t="s">
         <v>223</v>
-      </c>
-      <c r="D51" s="32" t="s">
-        <v>224</v>
       </c>
       <c r="E51" s="34">
         <v>2006</v>
       </c>
       <c r="F51" s="29" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="G51" s="29" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H51" s="29" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="I51" s="54"/>
       <c r="K51" s="17" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="L51" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M51" t="s">
         <v>72</v>
@@ -11386,13 +12040,13 @@
         <v>57</v>
       </c>
       <c r="P51" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q51" t="s">
-        <v>83</v>
-      </c>
-      <c r="R51" t="s">
-        <v>54</v>
+        <v>82</v>
+      </c>
+      <c r="R51" s="13" t="s">
+        <v>525</v>
       </c>
       <c r="S51" t="s">
         <v>54</v>
@@ -11404,82 +12058,82 @@
         <v>54</v>
       </c>
       <c r="V51" t="s">
+        <v>328</v>
+      </c>
+      <c r="W51" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="X51" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y51" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z51" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA51" s="40" t="s">
         <v>329</v>
       </c>
-      <c r="W51" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="X51" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y51" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z51" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA51" s="40" t="s">
-        <v>331</v>
-      </c>
       <c r="AC51" t="s">
         <v>54</v>
       </c>
       <c r="AD51" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AE51" s="11" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AG51" t="s">
         <v>62</v>
       </c>
       <c r="AH51" s="11" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AI51" s="11" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AJ51" s="11" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="52" spans="1:36" ht="56">
       <c r="A52" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B52" s="37">
         <f t="shared" si="2"/>
         <v>2006</v>
       </c>
       <c r="C52" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="D52" s="32" t="s">
         <v>225</v>
-      </c>
-      <c r="D52" s="32" t="s">
-        <v>226</v>
       </c>
       <c r="E52" s="34">
         <v>2006</v>
       </c>
       <c r="F52" s="29" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="G52" s="29" t="s">
         <v>50</v>
       </c>
       <c r="H52" s="29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J52" s="17" t="s">
         <v>52</v>
       </c>
       <c r="K52" s="19" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="L52" s="39" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="M52" t="s">
         <v>64</v>
@@ -11491,34 +12145,34 @@
         <v>57</v>
       </c>
       <c r="P52" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="Q52" t="s">
-        <v>83</v>
-      </c>
-      <c r="R52" t="s">
-        <v>54</v>
+        <v>82</v>
+      </c>
+      <c r="R52" s="13" t="s">
+        <v>525</v>
       </c>
       <c r="S52" t="s">
         <v>54</v>
       </c>
       <c r="V52" t="s">
+        <v>295</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>479</v>
+      </c>
+      <c r="AA52" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD52" t="s">
         <v>296</v>
       </c>
-      <c r="Z52" t="s">
-        <v>486</v>
-      </c>
-      <c r="AA52" s="11" t="s">
+      <c r="AE52" s="11" t="s">
         <v>298</v>
-      </c>
-      <c r="AC52" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD52" t="s">
-        <v>297</v>
-      </c>
-      <c r="AE52" s="11" t="s">
-        <v>299</v>
       </c>
       <c r="AF52" s="11" t="s">
         <v>54</v>
@@ -11527,44 +12181,44 @@
         <v>62</v>
       </c>
       <c r="AI52" t="s">
+        <v>299</v>
+      </c>
+      <c r="AJ52" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="AJ52" s="11" t="s">
-        <v>301</v>
-      </c>
     </row>
-    <row r="53" spans="1:36" ht="60">
+    <row r="53" spans="1:36" ht="60" hidden="1">
       <c r="A53" s="38" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B53" s="37">
         <f t="shared" si="2"/>
         <v>2012</v>
       </c>
       <c r="C53" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="D53" s="32" t="s">
         <v>228</v>
-      </c>
-      <c r="D53" s="32" t="s">
-        <v>229</v>
       </c>
       <c r="E53" s="34">
         <v>2012</v>
       </c>
       <c r="F53" s="29" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G53" s="29" t="s">
         <v>50</v>
       </c>
       <c r="H53" s="29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I53" s="14" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="J53" s="14"/>
       <c r="K53" s="19" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L53" s="13" t="s">
         <v>52</v>
@@ -11582,7 +12236,7 @@
         <v>54</v>
       </c>
       <c r="Q53" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R53" s="13" t="s">
         <v>73</v>
@@ -11607,7 +12261,7 @@
       </c>
       <c r="Y53" s="13"/>
       <c r="Z53" s="13" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="AA53" s="13"/>
       <c r="AB53" s="13"/>
@@ -11618,7 +12272,7 @@
         <v>76</v>
       </c>
       <c r="AE53" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AF53" s="13" t="s">
         <v>54</v>
@@ -11627,52 +12281,52 @@
         <v>62</v>
       </c>
       <c r="AH53" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI53" s="13" t="s">
         <v>79</v>
-      </c>
-      <c r="AI53" s="13" t="s">
-        <v>80</v>
       </c>
       <c r="AJ53" s="14" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="1:36" ht="42">
+    <row r="54" spans="1:36" ht="42" hidden="1">
       <c r="A54" s="38" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B54" s="37">
         <f t="shared" si="2"/>
         <v>2012</v>
       </c>
       <c r="C54" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="D54" s="32" t="s">
         <v>230</v>
-      </c>
-      <c r="D54" s="32" t="s">
-        <v>231</v>
       </c>
       <c r="E54" s="34">
         <v>2012</v>
       </c>
       <c r="F54" s="29" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="G54" s="29" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H54" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J54" s="17" t="s">
         <v>52</v>
       </c>
       <c r="K54" s="19" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="L54" s="39" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M54" t="s">
         <v>64</v>
@@ -11684,64 +12338,64 @@
         <v>57</v>
       </c>
       <c r="P54" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q54" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="R54" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="S54" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="T54" s="39" t="s">
         <v>274</v>
       </c>
-      <c r="Q54" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="R54" s="19" t="s">
+      <c r="U54" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="S54" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="T54" s="39" t="s">
-        <v>275</v>
-      </c>
-      <c r="U54" s="39" t="s">
+      <c r="V54" s="39" t="s">
         <v>277</v>
       </c>
-      <c r="V54" s="39" t="s">
+      <c r="W54" s="40" t="s">
         <v>278</v>
       </c>
-      <c r="W54" s="40" t="s">
+      <c r="Z54" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA54" s="40" t="s">
         <v>279</v>
       </c>
-      <c r="Z54" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA54" s="40" t="s">
+      <c r="AC54" t="s">
         <v>280</v>
       </c>
-      <c r="AC54" t="s">
+      <c r="AD54" t="s">
         <v>281</v>
       </c>
-      <c r="AD54" t="s">
+      <c r="AE54" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="AE54" s="11" t="s">
+      <c r="AF54" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG54" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="AF54" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG54" s="11" t="s">
+      <c r="AH54" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="AI54" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="AH54" s="11" t="s">
+      <c r="AJ54" s="11" t="s">
         <v>286</v>
-      </c>
-      <c r="AI54" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="AJ54" s="11" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="57" spans="1:36">
       <c r="H57" s="42">
         <f ca="1">TODAY()</f>
-        <v>42570</v>
+        <v>42574</v>
       </c>
     </row>
     <row r="58" spans="1:36">
@@ -11752,15 +12406,20 @@
     <row r="59" spans="1:36">
       <c r="H59">
         <f ca="1">H58-H57</f>
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I59" s="17">
         <f ca="1">H59*8</f>
-        <v>336</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:AK54">
+    <filterColumn colId="17">
+      <filters>
+        <filter val="not cited"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A3:AK54">
       <sortCondition ref="A2:A54"/>
     </sortState>
@@ -11950,37 +12609,37 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="43" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -12009,121 +12668,121 @@
   <sheetData>
     <row r="1" spans="1:39">
       <c r="A1" s="46" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="I1" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="J1" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="K1" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="L1" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="M1" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="N1" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="O1" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="P1" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="P1" s="23" t="s">
+      <c r="Q1" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="R1" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="S1" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="T1" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="T1" s="23" t="s">
+      <c r="U1" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="U1" s="23" t="s">
+      <c r="V1" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="V1" s="23" t="s">
+      <c r="W1" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="W1" s="23" t="s">
+      <c r="X1" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="X1" s="23" t="s">
+      <c r="Y1" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="Y1" s="23" t="s">
+      <c r="Z1" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="Z1" s="23" t="s">
+      <c r="AA1" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="AA1" s="23" t="s">
+      <c r="AB1" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="AB1" s="23" t="s">
+      <c r="AC1" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="AC1" s="23" t="s">
+      <c r="AD1" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="AD1" s="23" t="s">
+      <c r="AE1" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="AE1" s="23" t="s">
+      <c r="AF1" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="AF1" s="23" t="s">
+      <c r="AG1" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="AG1" s="23" t="s">
-        <v>121</v>
-      </c>
       <c r="AH1" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="AI1" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="AI1" s="23" t="s">
+      <c r="AJ1" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="AJ1" s="23" t="s">
+      <c r="AK1" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="AL1" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="AK1" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="AL1" s="23" t="s">
+      <c r="AM1" s="23" t="s">
         <v>236</v>
-      </c>
-      <c r="AM1" s="23" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:39">
@@ -12131,118 +12790,118 @@
         <v>23</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="K2" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="L2" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M2" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="N2" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="O2" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="P2" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="Q2" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="R2" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="S2" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="T2" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="U2" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="V2" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="W2" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="X2" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="Y2" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="Z2" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AA2" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AB2" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AC2" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AD2" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AE2" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AF2" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AG2" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AH2" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AI2" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AJ2" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AK2" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AL2" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AM2" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:39">
@@ -12250,118 +12909,118 @@
         <v>3</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="K3" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="L3" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M3" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="N3" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="O3" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="P3" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="Q3" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="R3" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="S3" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="T3" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="U3" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="V3" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="W3" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="X3" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="Y3" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="Z3" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AA3" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AB3" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AC3" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AD3" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AE3" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AF3" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AG3" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AH3" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AI3" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AJ3" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AK3" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AL3" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AM3" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -12369,118 +13028,118 @@
         <v>48</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="K4" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="L4" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M4" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="N4" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="O4" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="P4" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="Q4" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="R4" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="S4" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="T4" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="U4" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="V4" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="W4" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="X4" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="Y4" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="Z4" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AA4" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AB4" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AC4" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AD4" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AE4" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AF4" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AG4" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AH4" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AI4" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AJ4" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AK4" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AL4" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AM4" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:39">
@@ -12488,118 +13147,118 @@
         <v>4</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="K5" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="L5" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M5" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="N5" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="O5" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="P5" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="Q5" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="R5" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="S5" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="T5" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="U5" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="V5" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="W5" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="X5" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="Y5" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="Z5" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AA5" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AB5" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AC5" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AD5" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AE5" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AF5" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AG5" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AH5" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AI5" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AJ5" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AK5" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AL5" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AM5" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:39">
@@ -12607,118 +13266,118 @@
         <v>41</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="J6" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="K6" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="L6" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M6" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="N6" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="O6" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="P6" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="Q6" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="R6" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="S6" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="T6" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="U6" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="V6" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="W6" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="X6" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="Y6" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="Z6" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AA6" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AB6" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AC6" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AD6" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AE6" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AF6" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AG6" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AH6" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AI6" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AJ6" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AK6" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AL6" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AM6" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -12726,118 +13385,118 @@
         <v>42</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="K7" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="L7" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M7" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="N7" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="O7" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="P7" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="Q7" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="R7" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="S7" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="T7" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="U7" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="V7" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="W7" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="X7" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="Y7" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="Z7" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AA7" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AB7" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AC7" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AD7" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AE7" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AF7" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AG7" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AH7" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AI7" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AJ7" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AK7" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AL7" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AM7" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:39">
@@ -12845,118 +13504,118 @@
         <v>2</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="K8" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="L8" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M8" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="N8" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="O8" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="P8" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="Q8" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="R8" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="S8" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="T8" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="U8" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="V8" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="W8" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="X8" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="Y8" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="Z8" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AA8" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AB8" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AC8" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AD8" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AE8" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AF8" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AG8" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AH8" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AI8" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AJ8" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AK8" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AL8" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AM8" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:39">
@@ -12964,118 +13623,118 @@
         <v>19</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="J9" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="K9" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="L9" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M9" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="N9" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="O9" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="P9" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="Q9" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="R9" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="S9" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="T9" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="U9" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="V9" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="W9" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="X9" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="Y9" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="Z9" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AA9" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AB9" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AC9" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AD9" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AE9" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AF9" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AG9" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AH9" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AI9" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AJ9" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AK9" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AL9" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AM9" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="10" spans="1:39">
@@ -13083,10 +13742,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:39">
@@ -13094,13 +13753,13 @@
         <v>24</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:39">
@@ -13108,10 +13767,10 @@
         <v>6</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13" spans="1:39">
@@ -13119,7 +13778,7 @@
         <v>25</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="1:39">
@@ -13132,10 +13791,10 @@
         <v>33</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="16" spans="1:39">
@@ -13143,7 +13802,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -13151,10 +13810,10 @@
         <v>27</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -13182,10 +13841,10 @@
         <v>31</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -13193,10 +13852,10 @@
         <v>29</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -13204,7 +13863,7 @@
         <v>30</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -13212,10 +13871,10 @@
         <v>11</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -13223,10 +13882,10 @@
         <v>34</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -13234,10 +13893,10 @@
         <v>32</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -13245,10 +13904,10 @@
         <v>15</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -13256,13 +13915,13 @@
         <v>16</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -13275,10 +13934,10 @@
         <v>18</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -13286,10 +13945,10 @@
         <v>20</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -13297,10 +13956,10 @@
         <v>21</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -13308,10 +13967,10 @@
         <v>69</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -13337,10 +13996,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="B1" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -13489,17 +14148,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A4:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.1640625" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
@@ -13530,48 +14189,116 @@
     <col min="31" max="31" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" t="s">
-        <v>527</v>
+    <row r="4" spans="1:2">
+      <c r="A4" s="61" t="s">
+        <v>521</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>527</v>
+    <row r="5" spans="1:2">
+      <c r="A5" s="61" t="s">
+        <v>508</v>
+      </c>
+      <c r="B5" t="s">
+        <v>514</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="B4" s="61" t="s">
-        <v>521</v>
+    <row r="6" spans="1:2">
+      <c r="A6" s="63" t="s">
+        <v>338</v>
+      </c>
+      <c r="B6" s="62">
+        <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="B5" t="s">
-        <v>520</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="63" t="s">
+        <v>292</v>
+      </c>
+      <c r="B7" s="62">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="63" t="s">
+        <v>310</v>
+      </c>
+      <c r="B8" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="62">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="63" t="s">
         <v>522</v>
       </c>
+      <c r="B12" s="62">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>528</v>
-      </c>
-      <c r="B6" s="62">
+    <row r="13" spans="1:2">
+      <c r="A13" s="63" t="s">
+        <v>523</v>
+      </c>
+      <c r="B13" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="62">
+      <c r="B15" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="63" t="s">
+        <v>509</v>
+      </c>
+      <c r="B16" s="62">
         <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23">
+        <f>38/B16</f>
+        <v>0.73076923076923073</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -13579,4 +14306,81 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F49" sqref="C49:F49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" s="66" t="s">
+        <v>515</v>
+      </c>
+      <c r="B2" s="67">
+        <v>11</v>
+      </c>
+      <c r="D2" s="64" t="s">
+        <v>518</v>
+      </c>
+      <c r="E2" s="62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="66" t="s">
+        <v>516</v>
+      </c>
+      <c r="B3" s="67">
+        <v>33</v>
+      </c>
+      <c r="D3" s="64" t="s">
+        <v>519</v>
+      </c>
+      <c r="E3" s="62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="66" t="s">
+        <v>517</v>
+      </c>
+      <c r="B4" s="67">
+        <v>8</v>
+      </c>
+      <c r="D4" s="64" t="s">
+        <v>520</v>
+      </c>
+      <c r="E4" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="D5" s="64" t="s">
+        <v>360</v>
+      </c>
+      <c r="E5" s="62">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/SLR-ExtracaoDados.xlsx
+++ b/SLR-ExtracaoDados.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16360" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16780" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="pivot" sheetId="14" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId11"/>
+    <pivotCache cacheId="4" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -2584,28 +2584,10 @@
     <t>Count of Agile Method</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>Not applicable</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
     <t>Erik Bos; Christ Vriens</t>
   </si>
   <si>
-    <t>Bias</t>
-  </si>
-  <si>
     <t>Quality assessment</t>
-  </si>
-  <si>
-    <t>Threat to External Validity</t>
-  </si>
-  <si>
-    <t>Threat to Internal Validity</t>
   </si>
   <si>
     <t>"[...]  in Table 1 will provide sufficient arguments to support the hypothesis that there are common philosophical origins and intercommunity relationships between classical software engineering and agile methodologies. (p13)"</t>
@@ -3120,6 +3102,24 @@
   <si>
     <t>Metaphor</t>
   </si>
+  <si>
+    <t>F1 - Viés</t>
+  </si>
+  <si>
+    <t>F2 - Ameaça a Validade Interna</t>
+  </si>
+  <si>
+    <t>F3 - Ameaça a Validade Externa</t>
+  </si>
+  <si>
+    <t>NÃO</t>
+  </si>
+  <si>
+    <t>SIM</t>
+  </si>
+  <si>
+    <t>NÃO SE APLICA</t>
+  </si>
 </sst>
 </file>
 
@@ -3128,7 +3128,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yy;@"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3257,13 +3257,6 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3403,7 +3396,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="401">
+  <cellStyleXfs count="415">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3805,8 +3798,22 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3904,9 +3911,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3916,9 +3920,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3934,8 +3935,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="401">
+  <cellStyles count="415">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -4213,6 +4217,20 @@
     <cellStyle name="Followed Hyperlink" xfId="398" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="399" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="401" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="403" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="405" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="407" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="409" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="411" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="413" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="414" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -4720,11 +4738,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2082659928"/>
-        <c:axId val="2082656936"/>
+        <c:axId val="-2143862552"/>
+        <c:axId val="-2143859544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2082659928"/>
+        <c:axId val="-2143862552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4745,7 +4763,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2082656936"/>
+        <c:crossAx val="-2143859544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4753,7 +4771,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2082656936"/>
+        <c:axId val="-2143859544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4764,7 +4782,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2082659928"/>
+        <c:crossAx val="-2143862552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5008,11 +5026,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="1">
+                  <a:defRPr sz="1400" b="1" i="1">
                     <a:solidFill>
-                      <a:schemeClr val="accent6">
-                        <a:lumMod val="75000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:defRPr>
                 </a:pPr>
@@ -5033,49 +5049,49 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>Programação em Par</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Integração Contínua</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Refatoração</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jogo de Planejamento</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Uso de Metáfora</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>TDD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Histórias de Usuário</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Reuniões Diárias</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Iterações Curtas</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Padronização do código-fonte</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Projeto Simples</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Testes de Aceitação</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Propriedade Coletiva</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>Ritmo Sustentável</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>Refatoração</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Projeto Simples</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="14">
                   <c:v>Equipe Inteira</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>TDD</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Histórias de Usuário</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Jogo de Planejamento</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Testes de Aceitação</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Padronização do código-fonte</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Programação em Par</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Iterações Curtas</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Propriedade Coletiva</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Integração Contínua</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Reuniões Diárias</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Uso de Metáfora</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5087,49 +5103,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>15.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.0</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>8.0</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>22.0</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>22.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5144,11 +5160,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="75"/>
-        <c:axId val="2082763432"/>
-        <c:axId val="2116515576"/>
+        <c:axId val="2117019352"/>
+        <c:axId val="2121998744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2082763432"/>
+        <c:axId val="2117019352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5158,16 +5174,16 @@
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
-          <a:bodyPr rot="-2700000"/>
+          <a:bodyPr rot="-2700000" vert="horz" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr baseline="0"/>
+              <a:defRPr sz="1400" baseline="0"/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2116515576"/>
+        <c:crossAx val="2121998744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5175,7 +5191,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2116515576"/>
+        <c:axId val="2121998744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5185,7 +5201,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2082763432"/>
+        <c:crossAx val="2117019352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7503,7 +7519,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:C25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="37">
     <pivotField dataField="1" showAll="0"/>
@@ -8269,8 +8285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -8282,79 +8298,79 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="B1">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>717</v>
+        <v>699</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="B6">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -8362,90 +8378,93 @@
         <v>706</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="B10">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>709</v>
+        <v>696</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>725</v>
+        <v>710</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="B12">
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>726</v>
+        <v>715</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="B13">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>712</v>
+        <v>694</v>
       </c>
       <c r="B14">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>728</v>
+        <v>708</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B15">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>729</v>
+        <v>712</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A1:C15">
+    <sortCondition descending="1" ref="B1:B15"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
   <extLst>
@@ -8460,49 +8479,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO59"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="AB6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="5" ySplit="5" topLeftCell="AL30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AB11" sqref="AB11"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:AN54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="5.6640625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="19" style="6" customWidth="1"/>
-    <col min="3" max="3" width="41.6640625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="19" style="7" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="45.6640625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="21" style="7" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" style="7" customWidth="1"/>
-    <col min="12" max="12" width="16.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" style="7" customWidth="1"/>
-    <col min="14" max="14" width="19.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.33203125" style="7" customWidth="1"/>
-    <col min="16" max="16" width="14.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5" style="7" customWidth="1"/>
-    <col min="18" max="18" width="17.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="22" width="11.33203125" style="7" customWidth="1"/>
-    <col min="23" max="23" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.33203125" style="7" customWidth="1"/>
-    <col min="25" max="25" width="19.1640625" style="7" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="19.1640625" style="7" customWidth="1"/>
-    <col min="27" max="27" width="14.83203125" style="7" customWidth="1"/>
-    <col min="28" max="28" width="13.33203125" style="7" customWidth="1"/>
-    <col min="29" max="29" width="13.33203125" style="7" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="13.33203125" style="7" customWidth="1"/>
-    <col min="31" max="31" width="11.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="23.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.6640625" style="7" customWidth="1"/>
-    <col min="34" max="34" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="26.5" style="7" customWidth="1"/>
-    <col min="36" max="36" width="41.1640625" style="7" customWidth="1"/>
-    <col min="37" max="37" width="19" style="7" customWidth="1"/>
+    <col min="2" max="2" width="19" style="6" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="41.6640625" style="7" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="19" style="7" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="10" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="32.6640625" style="7" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" style="7" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="7" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="45.6640625" style="7" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="21" style="7" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" style="7" hidden="1" customWidth="1"/>
+    <col min="12" max="13" width="16.6640625" style="7" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5" style="7" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" style="7" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5" style="7" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5" style="7" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="17.83203125" style="7" hidden="1" customWidth="1"/>
+    <col min="19" max="22" width="11.33203125" style="7" hidden="1" customWidth="1"/>
+    <col min="23" max="24" width="18.33203125" style="7" hidden="1" customWidth="1"/>
+    <col min="25" max="26" width="19.1640625" style="7" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="14.83203125" style="7" hidden="1" customWidth="1"/>
+    <col min="28" max="30" width="13.33203125" style="7" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="11.83203125" style="7" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="23.33203125" style="7" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="10.6640625" style="7" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="10.1640625" style="7" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="26.5" style="7" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="41.1640625" style="7" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="19" style="7" hidden="1" customWidth="1"/>
     <col min="38" max="38" width="15" style="6" customWidth="1"/>
     <col min="39" max="39" width="14" style="7" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="14.1640625" style="7" bestFit="1" customWidth="1"/>
@@ -8510,58 +8524,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41">
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="K1" s="50" t="s">
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="K1" s="48" t="s">
         <v>36</v>
       </c>
       <c r="L1" s="39"/>
       <c r="M1" s="39"/>
-      <c r="Q1" s="50" t="s">
+      <c r="Q1" s="48" t="s">
         <v>39</v>
       </c>
       <c r="R1" s="39"/>
       <c r="S1" s="39"/>
       <c r="T1" s="39"/>
       <c r="U1" s="39"/>
-      <c r="AF1" s="51" t="s">
+      <c r="AF1" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="51"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
       <c r="AL1" s="40" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="2" spans="1:41">
       <c r="A2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="45" t="s">
         <v>48</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="45" t="s">
         <v>2</v>
       </c>
       <c r="I2" s="3" t="s">
@@ -8652,13 +8666,13 @@
         <v>67</v>
       </c>
       <c r="AL2" s="40" t="s">
-        <v>627</v>
+        <v>724</v>
       </c>
       <c r="AM2" s="41" t="s">
-        <v>630</v>
+        <v>725</v>
       </c>
       <c r="AN2" s="41" t="s">
-        <v>629</v>
+        <v>726</v>
       </c>
     </row>
     <row r="3" spans="1:41" s="8" customFormat="1">
@@ -8669,22 +8683,22 @@
         <f t="shared" ref="B3:B43" si="0">E3</f>
         <v>2012</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="E3" s="52">
+      <c r="E3" s="50">
         <v>2012</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="46" t="s">
         <v>203</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="46" t="s">
         <v>221</v>
       </c>
       <c r="I3" s="29" t="s">
@@ -8762,22 +8776,22 @@
         <v>275</v>
       </c>
       <c r="AI3" s="7" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="AJ3" s="7" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="AK3" s="7" t="s">
         <v>276</v>
       </c>
       <c r="AL3" s="10" t="s">
-        <v>623</v>
-      </c>
-      <c r="AM3" s="42" t="s">
-        <v>623</v>
+        <v>727</v>
+      </c>
+      <c r="AM3" s="10" t="s">
+        <v>727</v>
       </c>
       <c r="AN3" s="42" t="s">
-        <v>624</v>
+        <v>729</v>
       </c>
       <c r="AO3" s="8">
         <v>2</v>
@@ -8806,7 +8820,7 @@
       <c r="G4" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="53" t="s">
+      <c r="H4" s="51" t="s">
         <v>51</v>
       </c>
       <c r="I4" s="8" t="s">
@@ -8869,21 +8883,21 @@
       <c r="AH4" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="AI4" s="44" t="s">
-        <v>642</v>
+      <c r="AI4" s="43" t="s">
+        <v>636</v>
       </c>
       <c r="AJ4" s="8"/>
       <c r="AK4" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="AL4" s="42" t="s">
-        <v>623</v>
-      </c>
-      <c r="AM4" s="42" t="s">
-        <v>623</v>
-      </c>
-      <c r="AN4" s="10" t="s">
-        <v>624</v>
+      <c r="AL4" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="AM4" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="AN4" s="42" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="5" spans="1:41" s="8" customFormat="1">
@@ -8981,7 +8995,7 @@
         <v>61</v>
       </c>
       <c r="AI5" s="7" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="AJ5" s="7" t="s">
         <v>287</v>
@@ -8990,13 +9004,13 @@
         <v>288</v>
       </c>
       <c r="AL5" s="10" t="s">
-        <v>623</v>
-      </c>
-      <c r="AM5" s="42" t="s">
-        <v>623</v>
+        <v>727</v>
+      </c>
+      <c r="AM5" s="10" t="s">
+        <v>727</v>
       </c>
       <c r="AN5" s="42" t="s">
-        <v>623</v>
+        <v>727</v>
       </c>
       <c r="AO5" s="8">
         <v>1</v>
@@ -9034,7 +9048,7 @@
       <c r="J6" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="54" t="s">
+      <c r="K6" s="52" t="s">
         <v>291</v>
       </c>
       <c r="L6" s="8" t="s">
@@ -9077,10 +9091,10 @@
         <v>294</v>
       </c>
       <c r="AF6" s="7" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="AI6" s="7" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="AJ6" s="7" t="s">
         <v>292</v>
@@ -9089,13 +9103,13 @@
         <v>295</v>
       </c>
       <c r="AL6" s="10" t="s">
-        <v>625</v>
+        <v>728</v>
       </c>
       <c r="AM6" s="10" t="s">
-        <v>625</v>
-      </c>
-      <c r="AN6" s="10" t="s">
-        <v>623</v>
+        <v>728</v>
+      </c>
+      <c r="AN6" s="42" t="s">
+        <v>727</v>
       </c>
       <c r="AO6" s="7">
         <v>1</v>
@@ -9191,19 +9205,19 @@
         <v>61</v>
       </c>
       <c r="AI7" s="7" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="AJ7" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="AL7" s="42" t="s">
-        <v>623</v>
-      </c>
-      <c r="AM7" s="42" t="s">
-        <v>623</v>
-      </c>
-      <c r="AN7" s="10" t="s">
-        <v>624</v>
+      <c r="AL7" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="AM7" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="AN7" s="42" t="s">
+        <v>729</v>
       </c>
       <c r="AO7" s="8">
         <v>1</v>
@@ -9305,19 +9319,19 @@
         <v>61</v>
       </c>
       <c r="AI8" s="7" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="AJ8" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="AL8" s="42" t="s">
-        <v>623</v>
-      </c>
-      <c r="AM8" s="42" t="s">
-        <v>623</v>
-      </c>
-      <c r="AN8" s="10" t="s">
-        <v>624</v>
+      <c r="AL8" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="AM8" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="AN8" s="42" t="s">
+        <v>729</v>
       </c>
       <c r="AO8" s="7">
         <v>2</v>
@@ -9419,7 +9433,7 @@
         <v>61</v>
       </c>
       <c r="AI9" s="7" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="AJ9" s="7" t="s">
         <v>319</v>
@@ -9428,13 +9442,13 @@
         <v>317</v>
       </c>
       <c r="AL9" s="10" t="s">
-        <v>623</v>
+        <v>727</v>
       </c>
       <c r="AM9" s="10" t="s">
-        <v>623</v>
-      </c>
-      <c r="AN9" s="10" t="s">
-        <v>623</v>
+        <v>727</v>
+      </c>
+      <c r="AN9" s="42" t="s">
+        <v>727</v>
       </c>
       <c r="AO9" s="8">
         <v>1</v>
@@ -9527,22 +9541,22 @@
         <v>61</v>
       </c>
       <c r="AI10" s="7" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="AJ10" s="7" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="AK10" s="7" t="s">
         <v>327</v>
       </c>
       <c r="AL10" s="10" t="s">
-        <v>623</v>
+        <v>727</v>
       </c>
       <c r="AM10" s="10" t="s">
-        <v>623</v>
-      </c>
-      <c r="AN10" s="10" t="s">
-        <v>623</v>
+        <v>727</v>
+      </c>
+      <c r="AN10" s="42" t="s">
+        <v>727</v>
       </c>
       <c r="AO10" s="7">
         <v>1</v>
@@ -9650,22 +9664,22 @@
         <v>61</v>
       </c>
       <c r="AI11" s="7" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="AJ11" s="7" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="AK11" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="AL11" s="42" t="s">
-        <v>623</v>
-      </c>
-      <c r="AM11" s="42" t="s">
-        <v>623</v>
-      </c>
-      <c r="AN11" s="10" t="s">
-        <v>624</v>
+      <c r="AL11" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="AM11" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="AN11" s="42" t="s">
+        <v>729</v>
       </c>
       <c r="AO11" s="7">
         <v>1</v>
@@ -9758,19 +9772,19 @@
         <v>63</v>
       </c>
       <c r="AI12" s="7" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="AJ12" s="7" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="AL12" s="10" t="s">
-        <v>623</v>
+        <v>727</v>
       </c>
       <c r="AM12" s="10" t="s">
-        <v>623</v>
-      </c>
-      <c r="AN12" s="10" t="s">
-        <v>623</v>
+        <v>727</v>
+      </c>
+      <c r="AN12" s="42" t="s">
+        <v>727</v>
       </c>
       <c r="AO12" s="7">
         <v>1</v>
@@ -9877,22 +9891,22 @@
         <v>61</v>
       </c>
       <c r="AI13" s="8" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="AJ13" s="8" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="AK13" s="8" t="s">
         <v>385</v>
       </c>
       <c r="AL13" s="10" t="s">
-        <v>625</v>
+        <v>728</v>
       </c>
       <c r="AM13" s="10" t="s">
-        <v>625</v>
-      </c>
-      <c r="AN13" s="43" t="s">
-        <v>623</v>
+        <v>728</v>
+      </c>
+      <c r="AN13" s="42" t="s">
+        <v>727</v>
       </c>
       <c r="AO13" s="7">
         <v>5</v>
@@ -9990,7 +10004,7 @@
         <v>61</v>
       </c>
       <c r="AI14" s="7" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="AJ14" s="7" t="s">
         <v>392</v>
@@ -9999,13 +10013,13 @@
         <v>393</v>
       </c>
       <c r="AL14" s="10" t="s">
-        <v>625</v>
+        <v>728</v>
       </c>
       <c r="AM14" s="10" t="s">
-        <v>625</v>
-      </c>
-      <c r="AN14" s="10" t="s">
-        <v>623</v>
+        <v>728</v>
+      </c>
+      <c r="AN14" s="42" t="s">
+        <v>727</v>
       </c>
       <c r="AO14" s="7">
         <v>1</v>
@@ -10037,7 +10051,7 @@
       <c r="H15" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="I15" s="48" t="s">
+      <c r="I15" s="47" t="s">
         <v>400</v>
       </c>
       <c r="J15" s="8" t="s">
@@ -10106,23 +10120,23 @@
       <c r="AH15" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="AI15" s="44" t="s">
-        <v>651</v>
+      <c r="AI15" s="43" t="s">
+        <v>645</v>
       </c>
       <c r="AJ15" s="8" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="AK15" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="AL15" s="42" t="s">
-        <v>623</v>
-      </c>
-      <c r="AM15" s="42" t="s">
-        <v>623</v>
-      </c>
-      <c r="AN15" s="10" t="s">
-        <v>624</v>
+      <c r="AL15" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="AM15" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="AN15" s="42" t="s">
+        <v>729</v>
       </c>
       <c r="AO15" s="7">
         <v>4</v>
@@ -10206,7 +10220,7 @@
         <v>61</v>
       </c>
       <c r="AI16" s="7" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="AJ16" s="7" t="s">
         <v>407</v>
@@ -10215,13 +10229,13 @@
         <v>413</v>
       </c>
       <c r="AL16" s="10" t="s">
-        <v>625</v>
+        <v>728</v>
       </c>
       <c r="AM16" s="10" t="s">
-        <v>625</v>
-      </c>
-      <c r="AN16" s="10" t="s">
-        <v>624</v>
+        <v>728</v>
+      </c>
+      <c r="AN16" s="42" t="s">
+        <v>729</v>
       </c>
       <c r="AO16" s="7">
         <v>2</v>
@@ -10307,8 +10321,8 @@
       <c r="AH17" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="AI17" s="44" t="s">
-        <v>653</v>
+      <c r="AI17" s="43" t="s">
+        <v>647</v>
       </c>
       <c r="AJ17" s="8" t="s">
         <v>416</v>
@@ -10316,14 +10330,14 @@
       <c r="AK17" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="AL17" s="42" t="s">
-        <v>623</v>
-      </c>
-      <c r="AM17" s="42" t="s">
-        <v>623</v>
-      </c>
-      <c r="AN17" s="10" t="s">
-        <v>624</v>
+      <c r="AL17" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="AM17" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="AN17" s="42" t="s">
+        <v>729</v>
       </c>
       <c r="AO17" s="7">
         <v>2</v>
@@ -10422,7 +10436,7 @@
         <v>61</v>
       </c>
       <c r="AI18" s="7" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="AJ18" s="7" t="s">
         <v>430</v>
@@ -10431,13 +10445,13 @@
         <v>425</v>
       </c>
       <c r="AL18" s="10" t="s">
-        <v>623</v>
+        <v>727</v>
       </c>
       <c r="AM18" s="10" t="s">
-        <v>623</v>
-      </c>
-      <c r="AN18" s="10" t="s">
-        <v>624</v>
+        <v>727</v>
+      </c>
+      <c r="AN18" s="42" t="s">
+        <v>729</v>
       </c>
       <c r="AO18" s="7">
         <v>4</v>
@@ -10527,8 +10541,8 @@
       <c r="AH19" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="AI19" s="44" t="s">
-        <v>655</v>
+      <c r="AI19" s="43" t="s">
+        <v>649</v>
       </c>
       <c r="AJ19" s="8" t="s">
         <v>433</v>
@@ -10537,13 +10551,13 @@
         <v>436</v>
       </c>
       <c r="AL19" s="10" t="s">
-        <v>623</v>
-      </c>
-      <c r="AM19" s="42" t="s">
-        <v>623</v>
+        <v>727</v>
+      </c>
+      <c r="AM19" s="10" t="s">
+        <v>727</v>
       </c>
       <c r="AN19" s="42" t="s">
-        <v>623</v>
+        <v>727</v>
       </c>
       <c r="AO19" s="7">
         <v>1</v>
@@ -10646,22 +10660,22 @@
         <v>61</v>
       </c>
       <c r="AI20" s="7" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="AJ20" s="7" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="AK20" s="7" t="s">
         <v>317</v>
       </c>
       <c r="AL20" s="10" t="s">
-        <v>623</v>
+        <v>727</v>
       </c>
       <c r="AM20" s="10" t="s">
-        <v>623</v>
-      </c>
-      <c r="AN20" s="10" t="s">
-        <v>624</v>
+        <v>727</v>
+      </c>
+      <c r="AN20" s="42" t="s">
+        <v>729</v>
       </c>
       <c r="AO20" s="7">
         <v>1</v>
@@ -10754,22 +10768,22 @@
         <v>61</v>
       </c>
       <c r="AI21" s="7" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="AJ21" s="7" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="AK21" s="7" t="s">
         <v>327</v>
       </c>
       <c r="AL21" s="10" t="s">
-        <v>623</v>
+        <v>727</v>
       </c>
       <c r="AM21" s="10" t="s">
-        <v>623</v>
-      </c>
-      <c r="AN21" s="10" t="s">
-        <v>624</v>
+        <v>727</v>
+      </c>
+      <c r="AN21" s="42" t="s">
+        <v>729</v>
       </c>
       <c r="AO21" s="7">
         <v>1</v>
@@ -10877,22 +10891,22 @@
         <v>61</v>
       </c>
       <c r="AI22" s="7" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="AJ22" s="7" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="AK22" s="7" t="s">
         <v>336</v>
       </c>
       <c r="AL22" s="10" t="s">
-        <v>623</v>
+        <v>727</v>
       </c>
       <c r="AM22" s="10" t="s">
-        <v>623</v>
-      </c>
-      <c r="AN22" s="10" t="s">
-        <v>623</v>
+        <v>727</v>
+      </c>
+      <c r="AN22" s="42" t="s">
+        <v>727</v>
       </c>
       <c r="AO22" s="7">
         <v>2</v>
@@ -10999,7 +11013,7 @@
         <v>61</v>
       </c>
       <c r="AI23" s="8" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="AJ23" s="8" t="s">
         <v>75</v>
@@ -11007,14 +11021,14 @@
       <c r="AK23" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="AL23" s="42" t="s">
-        <v>623</v>
-      </c>
-      <c r="AM23" s="42" t="s">
-        <v>623</v>
-      </c>
-      <c r="AN23" s="10" t="s">
-        <v>624</v>
+      <c r="AL23" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="AM23" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="AN23" s="42" t="s">
+        <v>729</v>
       </c>
       <c r="AO23" s="7">
         <v>1</v>
@@ -11116,22 +11130,22 @@
         <v>275</v>
       </c>
       <c r="AI24" s="7" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="AJ24" s="7" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="AK24" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="AL24" s="42" t="s">
-        <v>623</v>
-      </c>
-      <c r="AM24" s="42" t="s">
-        <v>623</v>
-      </c>
-      <c r="AN24" s="10" t="s">
-        <v>624</v>
+      <c r="AL24" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="AM24" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="AN24" s="42" t="s">
+        <v>729</v>
       </c>
       <c r="AO24" s="7">
         <v>1</v>
@@ -11223,21 +11237,21 @@
       <c r="AH25" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="AI25" s="44" t="s">
-        <v>642</v>
+      <c r="AI25" s="43" t="s">
+        <v>636</v>
       </c>
       <c r="AJ25" s="8"/>
       <c r="AK25" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="AL25" s="42" t="s">
-        <v>623</v>
-      </c>
-      <c r="AM25" s="42" t="s">
-        <v>623</v>
-      </c>
-      <c r="AN25" s="10" t="s">
-        <v>624</v>
+      <c r="AL25" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="AM25" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="AN25" s="42" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="26" spans="1:41" ht="15">
@@ -11330,22 +11344,22 @@
         <v>61</v>
       </c>
       <c r="AI26" s="7" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="AJ26" s="7" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="AK26" s="7" t="s">
-        <v>634</v>
-      </c>
-      <c r="AL26" s="42" t="s">
-        <v>623</v>
-      </c>
-      <c r="AM26" s="42" t="s">
-        <v>623</v>
-      </c>
-      <c r="AN26" s="10" t="s">
-        <v>624</v>
+        <v>628</v>
+      </c>
+      <c r="AL26" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="AM26" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="AN26" s="42" t="s">
+        <v>729</v>
       </c>
       <c r="AO26" s="7">
         <v>1</v>
@@ -11426,22 +11440,22 @@
         <v>294</v>
       </c>
       <c r="AI27" s="7" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="AJ27" s="7" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="AK27" s="7" t="s">
         <v>295</v>
       </c>
       <c r="AL27" s="10" t="s">
-        <v>625</v>
+        <v>728</v>
       </c>
       <c r="AM27" s="10" t="s">
-        <v>625</v>
-      </c>
-      <c r="AN27" s="10" t="s">
-        <v>623</v>
+        <v>728</v>
+      </c>
+      <c r="AN27" s="42" t="s">
+        <v>727</v>
       </c>
       <c r="AO27" s="7">
         <v>1</v>
@@ -11540,19 +11554,19 @@
         <v>61</v>
       </c>
       <c r="AI28" s="7" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="AJ28" s="7" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="AL28" s="10" t="s">
-        <v>625</v>
+        <v>728</v>
       </c>
       <c r="AM28" s="10" t="s">
-        <v>625</v>
-      </c>
-      <c r="AN28" s="10" t="s">
-        <v>623</v>
+        <v>728</v>
+      </c>
+      <c r="AN28" s="42" t="s">
+        <v>727</v>
       </c>
       <c r="AO28" s="7">
         <v>1</v>
@@ -11588,7 +11602,7 @@
         <v>501</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>441</v>
@@ -11654,16 +11668,16 @@
         <v>61</v>
       </c>
       <c r="AI29" s="7" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="AL29" s="10" t="s">
-        <v>623</v>
+        <v>727</v>
       </c>
       <c r="AM29" s="10" t="s">
-        <v>623</v>
+        <v>727</v>
       </c>
       <c r="AN29" s="42" t="s">
-        <v>624</v>
+        <v>729</v>
       </c>
       <c r="AO29" s="7">
         <v>2</v>
@@ -11765,22 +11779,22 @@
         <v>61</v>
       </c>
       <c r="AI30" s="7" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="AJ30" s="7" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="AK30" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="AL30" s="42" t="s">
-        <v>623</v>
-      </c>
-      <c r="AM30" s="42" t="s">
-        <v>623</v>
-      </c>
-      <c r="AN30" s="10" t="s">
-        <v>624</v>
+      <c r="AL30" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="AM30" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="AN30" s="42" t="s">
+        <v>729</v>
       </c>
       <c r="AO30" s="7">
         <v>1</v>
@@ -11876,19 +11890,19 @@
         <v>61</v>
       </c>
       <c r="AI31" s="7" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="AK31" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="AL31" s="42" t="s">
-        <v>623</v>
-      </c>
-      <c r="AM31" s="42" t="s">
-        <v>623</v>
-      </c>
-      <c r="AN31" s="10" t="s">
-        <v>624</v>
+      <c r="AL31" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="AM31" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="AN31" s="42" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="32" spans="1:41" ht="15">
@@ -11993,19 +12007,19 @@
         <v>61</v>
       </c>
       <c r="AI32" s="7" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="AK32" s="7" t="s">
         <v>336</v>
       </c>
       <c r="AL32" s="10" t="s">
-        <v>623</v>
+        <v>727</v>
       </c>
       <c r="AM32" s="10" t="s">
-        <v>623</v>
-      </c>
-      <c r="AN32" s="10" t="s">
-        <v>623</v>
+        <v>727</v>
+      </c>
+      <c r="AN32" s="42" t="s">
+        <v>727</v>
       </c>
       <c r="AO32" s="7">
         <v>2</v>
@@ -12112,7 +12126,7 @@
         <v>61</v>
       </c>
       <c r="AI33" s="8" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="AJ33" s="8" t="s">
         <v>75</v>
@@ -12121,13 +12135,13 @@
         <v>72</v>
       </c>
       <c r="AL33" s="10" t="s">
-        <v>625</v>
+        <v>728</v>
       </c>
       <c r="AM33" s="10" t="s">
-        <v>625</v>
-      </c>
-      <c r="AN33" s="43" t="s">
-        <v>623</v>
+        <v>728</v>
+      </c>
+      <c r="AN33" s="42" t="s">
+        <v>727</v>
       </c>
       <c r="AO33" s="7">
         <v>1</v>
@@ -12232,22 +12246,22 @@
         <v>275</v>
       </c>
       <c r="AI34" s="7" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="AJ34" s="7" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="AK34" s="7" t="s">
         <v>276</v>
       </c>
       <c r="AL34" s="10" t="s">
-        <v>625</v>
+        <v>728</v>
       </c>
       <c r="AM34" s="10" t="s">
-        <v>625</v>
-      </c>
-      <c r="AN34" s="10" t="s">
-        <v>624</v>
+        <v>728</v>
+      </c>
+      <c r="AN34" s="42" t="s">
+        <v>729</v>
       </c>
       <c r="AO34" s="7">
         <v>1</v>
@@ -12261,7 +12275,7 @@
         <f t="shared" si="0"/>
         <v>2008</v>
       </c>
-      <c r="C35" s="55" t="s">
+      <c r="C35" s="53" t="s">
         <v>166</v>
       </c>
       <c r="D35" s="12" t="s">
@@ -12339,21 +12353,21 @@
       <c r="AH35" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="AI35" s="44" t="s">
-        <v>642</v>
+      <c r="AI35" s="43" t="s">
+        <v>636</v>
       </c>
       <c r="AJ35" s="8"/>
       <c r="AK35" s="8" t="s">
         <v>279</v>
       </c>
       <c r="AL35" s="10" t="s">
-        <v>623</v>
-      </c>
-      <c r="AM35" s="42" t="s">
-        <v>623</v>
+        <v>727</v>
+      </c>
+      <c r="AM35" s="10" t="s">
+        <v>727</v>
       </c>
       <c r="AN35" s="42" t="s">
-        <v>624</v>
+        <v>729</v>
       </c>
     </row>
     <row r="36" spans="1:41" ht="15">
@@ -12446,22 +12460,22 @@
         <v>61</v>
       </c>
       <c r="AI36" s="7" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="AJ36" s="7" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="AK36" s="7" t="s">
         <v>288</v>
       </c>
       <c r="AL36" s="10" t="s">
-        <v>625</v>
+        <v>728</v>
       </c>
       <c r="AM36" s="10" t="s">
-        <v>625</v>
-      </c>
-      <c r="AN36" s="10" t="s">
-        <v>623</v>
+        <v>728</v>
+      </c>
+      <c r="AN36" s="42" t="s">
+        <v>727</v>
       </c>
       <c r="AO36" s="7">
         <v>1</v>
@@ -12499,7 +12513,7 @@
       <c r="J37" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="K37" s="54" t="s">
+      <c r="K37" s="52" t="s">
         <v>291</v>
       </c>
       <c r="L37" s="8" t="s">
@@ -12536,19 +12550,19 @@
         <v>294</v>
       </c>
       <c r="AI37" s="7" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="AJ37" s="7" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="AL37" s="10" t="s">
-        <v>623</v>
+        <v>727</v>
       </c>
       <c r="AM37" s="10" t="s">
-        <v>623</v>
-      </c>
-      <c r="AN37" s="10" t="s">
-        <v>623</v>
+        <v>727</v>
+      </c>
+      <c r="AN37" s="42" t="s">
+        <v>727</v>
       </c>
       <c r="AO37" s="7">
         <v>1</v>
@@ -12644,19 +12658,19 @@
         <v>61</v>
       </c>
       <c r="AI38" s="7" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="AJ38" s="7" t="s">
         <v>300</v>
       </c>
       <c r="AL38" s="10" t="s">
-        <v>623</v>
+        <v>727</v>
       </c>
       <c r="AM38" s="10" t="s">
-        <v>623</v>
-      </c>
-      <c r="AN38" s="10" t="s">
-        <v>623</v>
+        <v>727</v>
+      </c>
+      <c r="AN38" s="42" t="s">
+        <v>727</v>
       </c>
       <c r="AO38" s="7">
         <v>1</v>
@@ -12755,19 +12769,19 @@
         <v>61</v>
       </c>
       <c r="AI39" s="7" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="AJ39" s="7" t="s">
-        <v>691</v>
-      </c>
-      <c r="AL39" s="42" t="s">
-        <v>623</v>
-      </c>
-      <c r="AM39" s="42" t="s">
-        <v>623</v>
-      </c>
-      <c r="AN39" s="10" t="s">
-        <v>624</v>
+        <v>685</v>
+      </c>
+      <c r="AL39" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="AM39" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="AN39" s="42" t="s">
+        <v>729</v>
       </c>
       <c r="AO39" s="7">
         <v>2</v>
@@ -12869,19 +12883,19 @@
         <v>61</v>
       </c>
       <c r="AI40" s="7" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="AK40" s="7" t="s">
         <v>317</v>
       </c>
       <c r="AL40" s="10" t="s">
-        <v>625</v>
+        <v>728</v>
       </c>
       <c r="AM40" s="10" t="s">
-        <v>625</v>
-      </c>
-      <c r="AN40" s="43" t="s">
-        <v>623</v>
+        <v>728</v>
+      </c>
+      <c r="AN40" s="42" t="s">
+        <v>727</v>
       </c>
       <c r="AO40" s="7">
         <v>1</v>
@@ -12899,7 +12913,7 @@
         <v>176</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="E41" s="11">
         <v>2004</v>
@@ -12974,22 +12988,22 @@
         <v>61</v>
       </c>
       <c r="AI41" s="7" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="AJ41" s="7" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="AK41" s="7" t="s">
         <v>327</v>
       </c>
       <c r="AL41" s="10" t="s">
-        <v>623</v>
+        <v>727</v>
       </c>
       <c r="AM41" s="10" t="s">
-        <v>623</v>
-      </c>
-      <c r="AN41" s="10" t="s">
-        <v>624</v>
+        <v>727</v>
+      </c>
+      <c r="AN41" s="42" t="s">
+        <v>729</v>
       </c>
       <c r="AO41" s="7">
         <v>1</v>
@@ -13097,22 +13111,22 @@
         <v>61</v>
       </c>
       <c r="AI42" s="7" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="AJ42" s="7" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="AK42" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="AL42" s="42" t="s">
-        <v>623</v>
-      </c>
-      <c r="AM42" s="42" t="s">
-        <v>623</v>
-      </c>
-      <c r="AN42" s="10" t="s">
-        <v>624</v>
+      <c r="AL42" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="AM42" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="AN42" s="42" t="s">
+        <v>729</v>
       </c>
       <c r="AO42" s="7">
         <v>1</v>
@@ -13219,22 +13233,22 @@
         <v>61</v>
       </c>
       <c r="AI43" s="8" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="AJ43" s="8" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="AK43" s="8" t="s">
         <v>72</v>
       </c>
       <c r="AL43" s="10" t="s">
-        <v>625</v>
-      </c>
-      <c r="AM43" s="42" t="s">
-        <v>625</v>
+        <v>728</v>
+      </c>
+      <c r="AM43" s="10" t="s">
+        <v>728</v>
       </c>
       <c r="AN43" s="42" t="s">
-        <v>624</v>
+        <v>729</v>
       </c>
       <c r="AO43" s="7">
         <v>0</v>
@@ -13334,9 +13348,9 @@
       <c r="AG44" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="AH44" s="56"/>
+      <c r="AH44" s="54"/>
       <c r="AI44" s="7" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="AJ44" s="7" t="s">
         <v>66</v>
@@ -13344,14 +13358,14 @@
       <c r="AK44" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="AL44" s="42" t="s">
-        <v>623</v>
-      </c>
-      <c r="AM44" s="42" t="s">
-        <v>623</v>
-      </c>
-      <c r="AN44" s="10" t="s">
-        <v>624</v>
+      <c r="AL44" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="AM44" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="AN44" s="42" t="s">
+        <v>729</v>
       </c>
       <c r="AO44" s="7">
         <v>1</v>
@@ -13449,22 +13463,22 @@
         <v>275</v>
       </c>
       <c r="AI45" s="7" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="AJ45" s="7" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="AK45" s="7" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="AL45" s="10" t="s">
-        <v>625</v>
+        <v>728</v>
       </c>
       <c r="AM45" s="10" t="s">
-        <v>625</v>
-      </c>
-      <c r="AN45" s="10" t="s">
-        <v>623</v>
+        <v>728</v>
+      </c>
+      <c r="AN45" s="42" t="s">
+        <v>727</v>
       </c>
       <c r="AO45" s="7">
         <v>1</v>
@@ -13556,19 +13570,19 @@
       <c r="AH46" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="AI46" s="44" t="s">
-        <v>669</v>
+      <c r="AI46" s="43" t="s">
+        <v>663</v>
       </c>
       <c r="AJ46" s="8"/>
       <c r="AK46" s="8"/>
       <c r="AL46" s="10" t="s">
-        <v>623</v>
-      </c>
-      <c r="AM46" s="42" t="s">
-        <v>623</v>
+        <v>727</v>
+      </c>
+      <c r="AM46" s="10" t="s">
+        <v>727</v>
       </c>
       <c r="AN46" s="42" t="s">
-        <v>624</v>
+        <v>729</v>
       </c>
     </row>
     <row r="47" spans="1:41" ht="15">
@@ -13661,19 +13675,19 @@
         <v>61</v>
       </c>
       <c r="AI47" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="AK47" s="45" t="s">
+        <v>660</v>
+      </c>
+      <c r="AK47" s="44" t="s">
         <v>288</v>
       </c>
       <c r="AL47" s="10" t="s">
-        <v>623</v>
-      </c>
-      <c r="AM47" s="42" t="s">
-        <v>623</v>
+        <v>727</v>
+      </c>
+      <c r="AM47" s="10" t="s">
+        <v>727</v>
       </c>
       <c r="AN47" s="42" t="s">
-        <v>624</v>
+        <v>729</v>
       </c>
       <c r="AO47" s="7">
         <v>1</v>
@@ -13708,7 +13722,7 @@
       <c r="J48" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K48" s="57" t="s">
+      <c r="K48" s="55" t="s">
         <v>291</v>
       </c>
       <c r="L48" s="8" t="s">
@@ -13745,19 +13759,19 @@
         <v>453</v>
       </c>
       <c r="AI48" s="7" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="AK48" s="7" t="s">
         <v>452</v>
       </c>
       <c r="AL48" s="10" t="s">
-        <v>625</v>
+        <v>728</v>
       </c>
       <c r="AM48" s="10" t="s">
-        <v>625</v>
-      </c>
-      <c r="AN48" s="43" t="s">
-        <v>623</v>
+        <v>728</v>
+      </c>
+      <c r="AN48" s="42" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="49" spans="1:41" ht="15">
@@ -13850,19 +13864,19 @@
         <v>61</v>
       </c>
       <c r="AI49" s="7" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="AJ49" s="7" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="AL49" s="10" t="s">
-        <v>623</v>
+        <v>727</v>
       </c>
       <c r="AM49" s="10" t="s">
-        <v>623</v>
-      </c>
-      <c r="AN49" s="10" t="s">
-        <v>624</v>
+        <v>727</v>
+      </c>
+      <c r="AN49" s="42" t="s">
+        <v>729</v>
       </c>
       <c r="AO49" s="7">
         <v>1</v>
@@ -13954,19 +13968,19 @@
         <v>61</v>
       </c>
       <c r="AI50" s="7" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="AJ50" s="7" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="AL50" s="10" t="s">
-        <v>625</v>
+        <v>728</v>
       </c>
       <c r="AM50" s="10" t="s">
-        <v>625</v>
-      </c>
-      <c r="AN50" s="43" t="s">
-        <v>623</v>
+        <v>728</v>
+      </c>
+      <c r="AN50" s="42" t="s">
+        <v>727</v>
       </c>
       <c r="AO50" s="7">
         <v>1</v>
@@ -14065,22 +14079,22 @@
         <v>61</v>
       </c>
       <c r="AI51" s="7" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="AJ51" s="7" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="AK51" s="7" t="s">
         <v>317</v>
       </c>
       <c r="AL51" s="10" t="s">
-        <v>623</v>
+        <v>727</v>
       </c>
       <c r="AM51" s="10" t="s">
-        <v>623</v>
+        <v>727</v>
       </c>
       <c r="AN51" s="42" t="s">
-        <v>624</v>
+        <v>729</v>
       </c>
       <c r="AO51" s="7">
         <v>1</v>
@@ -14176,22 +14190,22 @@
         <v>61</v>
       </c>
       <c r="AI52" s="7" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="AJ52" s="7" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="AK52" s="7" t="s">
         <v>288</v>
       </c>
       <c r="AL52" s="10" t="s">
-        <v>625</v>
+        <v>728</v>
       </c>
       <c r="AM52" s="10" t="s">
-        <v>625</v>
+        <v>728</v>
       </c>
       <c r="AN52" s="42" t="s">
-        <v>624</v>
+        <v>729</v>
       </c>
       <c r="AO52" s="7">
         <v>1</v>
@@ -14294,22 +14308,22 @@
         <v>61</v>
       </c>
       <c r="AI53" s="8" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="AJ53" s="8" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="AK53" s="8" t="s">
         <v>72</v>
       </c>
       <c r="AL53" s="10" t="s">
-        <v>623</v>
-      </c>
-      <c r="AM53" s="42" t="s">
-        <v>623</v>
+        <v>727</v>
+      </c>
+      <c r="AM53" s="10" t="s">
+        <v>727</v>
       </c>
       <c r="AN53" s="42" t="s">
-        <v>623</v>
+        <v>727</v>
       </c>
       <c r="AO53" s="7">
         <v>1</v>
@@ -14408,32 +14422,32 @@
         <v>275</v>
       </c>
       <c r="AI54" s="7" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="AJ54" s="7" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="AK54" s="7" t="s">
         <v>276</v>
       </c>
       <c r="AL54" s="10" t="s">
-        <v>623</v>
+        <v>727</v>
       </c>
       <c r="AM54" s="10" t="s">
-        <v>625</v>
+        <v>728</v>
       </c>
       <c r="AN54" s="42" t="s">
-        <v>624</v>
+        <v>729</v>
       </c>
     </row>
     <row r="57" spans="1:41">
-      <c r="H57" s="58">
+      <c r="H57" s="56">
         <f ca="1">TODAY()</f>
         <v>42604</v>
       </c>
     </row>
     <row r="58" spans="1:41">
-      <c r="H58" s="58">
+      <c r="H58" s="56">
         <v>42612</v>
       </c>
     </row>
